--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5279804</v>
+        <v>5280036</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,76 +2150,76 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q19">
         <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
         <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5280036</v>
+        <v>5279804</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,76 +2239,76 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
+        <v>3.6</v>
+      </c>
+      <c r="M20">
+        <v>2.625</v>
+      </c>
+      <c r="N20">
+        <v>1.85</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
         <v>4</v>
-      </c>
-      <c r="M20">
-        <v>4.5</v>
-      </c>
-      <c r="N20">
-        <v>1.8</v>
-      </c>
-      <c r="O20">
-        <v>3.8</v>
-      </c>
-      <c r="P20">
-        <v>4.2</v>
       </c>
       <c r="Q20">
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
         <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X20">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.95</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6548166</v>
+        <v>5279751</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,76 +6689,76 @@
         <v>45039.22916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>50</v>
       </c>
       <c r="K70">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5279751</v>
+        <v>6548166</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,76 +6778,76 @@
         <v>45039.22916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>50</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N71">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O71">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5279754</v>
+        <v>5280054</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,76 +8202,76 @@
         <v>45053.22916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87">
+        <v>3.4</v>
+      </c>
+      <c r="L87">
+        <v>3.1</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>1.909</v>
       </c>
-      <c r="L87">
-        <v>3.4</v>
-      </c>
-      <c r="M87">
-        <v>3.4</v>
-      </c>
-      <c r="N87">
-        <v>1.4</v>
-      </c>
-      <c r="O87">
-        <v>4.5</v>
-      </c>
-      <c r="P87">
-        <v>6.5</v>
-      </c>
       <c r="Q87">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
+        <v>1.875</v>
+      </c>
+      <c r="V87">
         <v>1.925</v>
       </c>
-      <c r="V87">
-        <v>1.875</v>
-      </c>
       <c r="W87">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5280054</v>
+        <v>5279754</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,76 +8291,76 @@
         <v>45053.22916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K88">
+        <v>1.909</v>
+      </c>
+      <c r="L88">
         <v>3.4</v>
       </c>
-      <c r="L88">
-        <v>3.1</v>
-      </c>
       <c r="M88">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P88">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U88">
+        <v>1.925</v>
+      </c>
+      <c r="V88">
         <v>1.875</v>
       </c>
-      <c r="V88">
-        <v>1.925</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X88">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8368,7 +8368,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5279809</v>
+        <v>5279796</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,19 +8380,19 @@
         <v>45058.5</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -8404,52 +8404,52 @@
         <v>3</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
+        <v>5.5</v>
+      </c>
+      <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
+        <v>1.975</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>1.85</v>
+      </c>
+      <c r="V89">
+        <v>1.95</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>3.2</v>
       </c>
-      <c r="Q89">
-        <v>-0.5</v>
-      </c>
-      <c r="R89">
-        <v>1.95</v>
-      </c>
-      <c r="S89">
-        <v>1.85</v>
-      </c>
-      <c r="T89">
-        <v>3.25</v>
-      </c>
-      <c r="U89">
-        <v>1.9</v>
-      </c>
-      <c r="V89">
-        <v>1.9</v>
-      </c>
-      <c r="W89">
-        <v>1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.95</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5280055</v>
+        <v>5279809</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,40 +8469,40 @@
         <v>45058.5</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
         <v>2</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>49</v>
       </c>
       <c r="K90">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L90">
+        <v>3.6</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
         <v>4</v>
       </c>
-      <c r="M90">
-        <v>1.533</v>
-      </c>
-      <c r="N90">
-        <v>7</v>
-      </c>
-      <c r="O90">
-        <v>4.75</v>
-      </c>
       <c r="P90">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q90">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
         <v>1.95</v>
@@ -8511,16 +8511,16 @@
         <v>1.85</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8535,10 +8535,10 @@
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5279796</v>
+        <v>5280055</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45058.5</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N91">
-        <v>1.55</v>
+        <v>7</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
         <v>1.85</v>
       </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X91">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5278961</v>
+        <v>5279755</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45058.5</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94" t="s">
+        <v>49</v>
+      </c>
+      <c r="K94">
+        <v>1.444</v>
+      </c>
+      <c r="L94">
+        <v>4.333</v>
+      </c>
+      <c r="M94">
+        <v>5.25</v>
+      </c>
+      <c r="N94">
+        <v>1.444</v>
+      </c>
+      <c r="O94">
+        <v>4.75</v>
+      </c>
+      <c r="P94">
+        <v>6.5</v>
+      </c>
+      <c r="Q94">
+        <v>-1.25</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.8</v>
+      </c>
+      <c r="V94">
         <v>2</v>
       </c>
-      <c r="J94" t="s">
-        <v>48</v>
-      </c>
-      <c r="K94">
-        <v>1.5</v>
-      </c>
-      <c r="L94">
-        <v>4.2</v>
-      </c>
-      <c r="M94">
-        <v>4.75</v>
-      </c>
-      <c r="N94">
-        <v>1.3</v>
-      </c>
-      <c r="O94">
-        <v>5.75</v>
-      </c>
-      <c r="P94">
-        <v>8.5</v>
-      </c>
-      <c r="Q94">
-        <v>-1.75</v>
-      </c>
-      <c r="R94">
-        <v>1.95</v>
-      </c>
-      <c r="S94">
-        <v>1.85</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
-      </c>
-      <c r="U94">
-        <v>1.75</v>
-      </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC94">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8991,7 +8991,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5279755</v>
+        <v>5278961</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9003,76 +9003,76 @@
         <v>45058.5</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M96">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N96">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P96">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.45</v>
-      </c>
-      <c r="AB96">
-        <v>0.8</v>
-      </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5280058</v>
+        <v>5280060</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,40 +9270,40 @@
         <v>45065.5</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R99">
         <v>1.975</v>
@@ -9315,31 +9315,31 @@
         <v>3</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.825</v>
+      </c>
+      <c r="AB99">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5280060</v>
+        <v>5280058</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,40 +9359,40 @@
         <v>45065.5</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
         <v>1.975</v>
@@ -9404,31 +9404,31 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6884167</v>
+        <v>6982596</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,76 +9893,76 @@
         <v>45136.5</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K106">
+        <v>2.6</v>
+      </c>
+      <c r="L106">
+        <v>3.2</v>
+      </c>
+      <c r="M106">
+        <v>2.4</v>
+      </c>
+      <c r="N106">
+        <v>2.625</v>
+      </c>
+      <c r="O106">
+        <v>3.4</v>
+      </c>
+      <c r="P106">
         <v>2.7</v>
-      </c>
-      <c r="L106">
-        <v>3.3</v>
-      </c>
-      <c r="M106">
-        <v>2.25</v>
-      </c>
-      <c r="N106">
-        <v>2.6</v>
-      </c>
-      <c r="O106">
-        <v>3.8</v>
-      </c>
-      <c r="P106">
-        <v>2.45</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6982596</v>
+        <v>6884167</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45136.5</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>2</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
+        <v>2.7</v>
+      </c>
+      <c r="L107">
+        <v>3.3</v>
+      </c>
+      <c r="M107">
+        <v>2.25</v>
+      </c>
+      <c r="N107">
         <v>2.6</v>
       </c>
-      <c r="L107">
-        <v>3.2</v>
-      </c>
-      <c r="M107">
-        <v>2.4</v>
-      </c>
-      <c r="N107">
-        <v>2.625</v>
-      </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6884059</v>
+        <v>6884047</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,46 +10516,46 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K113">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L113">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P113">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
         <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
         <v>3</v>
@@ -10570,22 +10570,22 @@
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6884047</v>
+        <v>6884059</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,46 +10605,46 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O114">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q114">
         <v>-1.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
         <v>3</v>
@@ -10659,22 +10659,22 @@
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y114">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
+        <v>0.8</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB114">
-        <v>0.95</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,49 +10961,49 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L118">
         <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
         <v>1.875</v>
@@ -11012,25 +11012,25 @@
         <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6878158</v>
+        <v>6883442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,49 +11050,49 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L119">
         <v>3.2</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P119">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
         <v>1.875</v>
@@ -11101,25 +11101,25 @@
         <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6884050</v>
+        <v>6883849</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,13 +12029,13 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12044,19 +12044,19 @@
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N130">
         <v>1.5</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P130">
         <v>6.5</v>
@@ -12065,19 +12065,19 @@
         <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
         <v>0.5</v>
@@ -12089,16 +12089,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6883849</v>
+        <v>6884050</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,13 +12118,13 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12133,19 +12133,19 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L131">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N131">
         <v>1.5</v>
       </c>
       <c r="O131">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
         <v>6.5</v>
@@ -12154,19 +12154,19 @@
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>0.5</v>
@@ -12178,16 +12178,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6883447</v>
+        <v>6884158</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,58 +12652,58 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>4</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>49</v>
       </c>
       <c r="K137">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L137">
+        <v>3.3</v>
+      </c>
+      <c r="M137">
+        <v>2.45</v>
+      </c>
+      <c r="N137">
+        <v>2.45</v>
+      </c>
+      <c r="O137">
         <v>3.5</v>
       </c>
-      <c r="M137">
-        <v>3.6</v>
-      </c>
-      <c r="N137">
-        <v>1.533</v>
-      </c>
-      <c r="O137">
-        <v>4.75</v>
-      </c>
       <c r="P137">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12712,13 +12712,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6884158</v>
+        <v>6883447</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,58 +12741,58 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>4</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>49</v>
       </c>
       <c r="K138">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M138">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N138">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R138">
+        <v>1.8</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
         <v>1.975</v>
       </c>
-      <c r="S138">
-        <v>1.725</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.9</v>
-      </c>
-      <c r="V138">
-        <v>1.9</v>
-      </c>
       <c r="W138">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12801,13 +12801,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6878191</v>
+        <v>6884112</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,73 +18793,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N206">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O206">
         <v>3.75</v>
       </c>
       <c r="P206">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q206">
         <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
+        <v>1.775</v>
+      </c>
+      <c r="V206">
         <v>1.925</v>
       </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
       <c r="W206">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,73 +18882,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H207">
+        <v>3</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>49</v>
+      </c>
+      <c r="K207">
         <v>2</v>
-      </c>
-      <c r="I207">
-        <v>2</v>
-      </c>
-      <c r="J207" t="s">
-        <v>50</v>
-      </c>
-      <c r="K207">
-        <v>2.625</v>
       </c>
       <c r="L207">
         <v>3.4</v>
       </c>
       <c r="M207">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N207">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O207">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P207">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X207">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -18959,7 +18959,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6884124</v>
+        <v>6878191</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18971,10 +18971,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -18986,44 +18986,44 @@
         <v>49</v>
       </c>
       <c r="K208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N208">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P208">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
+        <v>1.975</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.925</v>
+      </c>
+      <c r="V208">
+        <v>1.875</v>
+      </c>
+      <c r="W208">
         <v>1.8</v>
       </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
-        <v>2</v>
-      </c>
-      <c r="V208">
-        <v>1.8</v>
-      </c>
-      <c r="W208">
-        <v>1.05</v>
-      </c>
       <c r="X208">
         <v>-1</v>
       </c>
@@ -19031,13 +19031,13 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC208">
         <v>-1</v>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5279751</v>
+        <v>6548166</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,76 +6689,76 @@
         <v>45039.22916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>50</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N70">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6548166</v>
+        <v>5279751</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,76 +6778,76 @@
         <v>45039.22916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
         <v>50</v>
       </c>
       <c r="K71">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N71">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P71">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -8368,7 +8368,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5279796</v>
+        <v>5279809</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,19 +8380,19 @@
         <v>45058.5</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -8404,52 +8404,52 @@
         <v>3</v>
       </c>
       <c r="N89">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X89">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5279809</v>
+        <v>5280055</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,40 +8469,40 @@
         <v>45058.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>49</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
         <v>1.95</v>
@@ -8511,16 +8511,16 @@
         <v>1.85</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8535,10 +8535,10 @@
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5280055</v>
+        <v>5279796</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45058.5</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91">
         <v>2</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>49</v>
-      </c>
-      <c r="K91">
-        <v>4.75</v>
-      </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>7</v>
+        <v>1.55</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q91">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
+        <v>1.85</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="V91">
-        <v>1.85</v>
-      </c>
       <c r="W91">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.95</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>0.475</v>
-      </c>
-      <c r="AC91">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5279755</v>
+        <v>5278961</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45058.5</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L94">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M94">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N94">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="O94">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB94">
         <v>-0.5</v>
       </c>
-      <c r="AA94">
-        <v>0.45</v>
-      </c>
-      <c r="AB94">
-        <v>0.8</v>
-      </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8991,7 +8991,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5278961</v>
+        <v>5279755</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9003,76 +9003,76 @@
         <v>45058.5</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96" t="s">
+        <v>49</v>
+      </c>
+      <c r="K96">
+        <v>1.444</v>
+      </c>
+      <c r="L96">
+        <v>4.333</v>
+      </c>
+      <c r="M96">
+        <v>5.25</v>
+      </c>
+      <c r="N96">
+        <v>1.444</v>
+      </c>
+      <c r="O96">
+        <v>4.75</v>
+      </c>
+      <c r="P96">
+        <v>6.5</v>
+      </c>
+      <c r="Q96">
+        <v>-1.25</v>
+      </c>
+      <c r="R96">
+        <v>1.9</v>
+      </c>
+      <c r="S96">
+        <v>1.9</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>1.8</v>
+      </c>
+      <c r="V96">
         <v>2</v>
       </c>
-      <c r="J96" t="s">
-        <v>48</v>
-      </c>
-      <c r="K96">
-        <v>1.5</v>
-      </c>
-      <c r="L96">
-        <v>4.2</v>
-      </c>
-      <c r="M96">
-        <v>4.75</v>
-      </c>
-      <c r="N96">
-        <v>1.3</v>
-      </c>
-      <c r="O96">
-        <v>5.75</v>
-      </c>
-      <c r="P96">
-        <v>8.5</v>
-      </c>
-      <c r="Q96">
-        <v>-1.75</v>
-      </c>
-      <c r="R96">
-        <v>1.95</v>
-      </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
-      <c r="T96">
-        <v>3.25</v>
-      </c>
-      <c r="U96">
-        <v>1.75</v>
-      </c>
-      <c r="V96">
-        <v>1.95</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5279811</v>
+        <v>5280058</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,76 +9181,76 @@
         <v>45065.5</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.8</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5280060</v>
+        <v>5280061</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,76 +9270,76 @@
         <v>45065.5</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
+        <v>3.6</v>
+      </c>
+      <c r="M99">
+        <v>2.3</v>
+      </c>
+      <c r="N99">
+        <v>3.2</v>
+      </c>
+      <c r="O99">
         <v>3.75</v>
       </c>
-      <c r="M99">
-        <v>3.75</v>
-      </c>
-      <c r="N99">
-        <v>1.615</v>
-      </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
       <c r="P99">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9347,7 +9347,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5280058</v>
+        <v>5280060</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,40 +9359,40 @@
         <v>45065.5</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K100">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R100">
         <v>1.975</v>
@@ -9404,31 +9404,31 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.825</v>
+      </c>
+      <c r="AB100">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5280061</v>
+        <v>5279811</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,76 +9448,76 @@
         <v>45065.5</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>8</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>3.3</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>1.833</v>
+      </c>
+      <c r="N101">
+        <v>2.55</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <v>2.45</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>1.85</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.8</v>
+      </c>
+      <c r="V101">
         <v>2</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>49</v>
-      </c>
-      <c r="K101">
-        <v>2.5</v>
-      </c>
-      <c r="L101">
-        <v>3.6</v>
-      </c>
-      <c r="M101">
-        <v>2.3</v>
-      </c>
-      <c r="N101">
-        <v>3.2</v>
-      </c>
-      <c r="O101">
-        <v>3.75</v>
-      </c>
-      <c r="P101">
-        <v>2.1</v>
-      </c>
-      <c r="Q101">
-        <v>0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.9</v>
-      </c>
-      <c r="T101">
-        <v>3.5</v>
-      </c>
-      <c r="U101">
-        <v>1.95</v>
-      </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
       <c r="W101">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6884047</v>
+        <v>6884059</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,46 +10516,46 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M113">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O113">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q113">
         <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
         <v>3</v>
@@ -10570,22 +10570,22 @@
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>0.8</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB113">
-        <v>0.95</v>
-      </c>
-      <c r="AC113">
-        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6884059</v>
+        <v>6884047</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,46 +10605,46 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K114">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L114">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P114">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q114">
         <v>-1.25</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
         <v>3</v>
@@ -10659,22 +10659,22 @@
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6878158</v>
+        <v>6883442</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,49 +10961,49 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K118">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
         <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U118">
         <v>1.875</v>
@@ -11012,25 +11012,25 @@
         <v>1.925</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X118">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,49 +11050,49 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L119">
         <v>3.2</v>
       </c>
       <c r="M119">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
         <v>1.875</v>
@@ -11101,25 +11101,25 @@
         <v>1.925</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6884117</v>
+        <v>6884049</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,10 +11495,10 @@
         <v>45150.5</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11510,40 +11510,40 @@
         <v>48</v>
       </c>
       <c r="K124">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O124">
         <v>3.5</v>
       </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q124">
         <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11552,19 +11552,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6884049</v>
+        <v>6884117</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,10 +11584,10 @@
         <v>45150.5</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11599,40 +11599,40 @@
         <v>48</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L125">
         <v>3.4</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N125">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O125">
         <v>3.5</v>
       </c>
       <c r="P125">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q125">
         <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11641,19 +11641,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11839,7 +11839,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6884061</v>
+        <v>6884060</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11851,58 +11851,58 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H128">
         <v>4</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L128">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O128">
         <v>4</v>
       </c>
       <c r="P128">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q128">
         <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11911,13 +11911,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6884060</v>
+        <v>6884061</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,58 +11940,58 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H129">
         <v>4</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>49</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="M129">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O129">
         <v>4</v>
       </c>
       <c r="P129">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q129">
         <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12000,13 +12000,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6883849</v>
+        <v>6883446</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,40 +12029,40 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O130">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
         <v>1.95</v>
@@ -12071,16 +12071,16 @@
         <v>1.85</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12095,10 +12095,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6884050</v>
+        <v>6883849</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,13 +12118,13 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12133,19 +12133,19 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N131">
         <v>1.5</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P131">
         <v>6.5</v>
@@ -12154,19 +12154,19 @@
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
         <v>0.5</v>
@@ -12178,16 +12178,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6883446</v>
+        <v>6884050</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,58 +12207,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P132">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12267,13 +12267,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -16467,7 +16467,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6883485</v>
+        <v>6883486</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16479,13 +16479,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -16494,43 +16494,43 @@
         <v>49</v>
       </c>
       <c r="K180">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N180">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P180">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W180">
-        <v>0.833</v>
+        <v>0.3</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16539,16 +16539,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6883486</v>
+        <v>6884105</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16568,13 +16568,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -16583,43 +16583,43 @@
         <v>49</v>
       </c>
       <c r="K181">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L181">
         <v>4</v>
       </c>
       <c r="M181">
+        <v>4.8</v>
+      </c>
+      <c r="N181">
+        <v>1.55</v>
+      </c>
+      <c r="O181">
         <v>4.333</v>
       </c>
-      <c r="N181">
-        <v>1.3</v>
-      </c>
-      <c r="O181">
-        <v>5.25</v>
-      </c>
       <c r="P181">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q181">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R181">
+        <v>1.75</v>
+      </c>
+      <c r="S181">
         <v>1.95</v>
       </c>
-      <c r="S181">
+      <c r="T181">
+        <v>3</v>
+      </c>
+      <c r="U181">
         <v>1.85</v>
       </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.7</v>
-      </c>
       <c r="V181">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16628,16 +16628,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>0.75</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
         <v>0.95</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>0.7</v>
-      </c>
-      <c r="AC181">
-        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6884105</v>
+        <v>6884571</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,13 +16657,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16672,43 +16672,43 @@
         <v>49</v>
       </c>
       <c r="K182">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="N182">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P182">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
         <v>1.95</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16717,7 +16717,7 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA182">
         <v>-1</v>
@@ -16726,7 +16726,7 @@
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6884571</v>
+        <v>6883485</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,10 +16746,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16761,43 +16761,43 @@
         <v>49</v>
       </c>
       <c r="K183">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O183">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
         <v>-0.5</v>
       </c>
       <c r="R183">
+        <v>1.8</v>
+      </c>
+      <c r="S183">
+        <v>2</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
         <v>1.85</v>
       </c>
-      <c r="S183">
+      <c r="V183">
         <v>1.95</v>
       </c>
-      <c r="T183">
-        <v>3.5</v>
-      </c>
-      <c r="U183">
-        <v>1.875</v>
-      </c>
-      <c r="V183">
-        <v>1.925</v>
-      </c>
       <c r="W183">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16806,7 +16806,7 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA183">
         <v>-1</v>
@@ -16815,7 +16815,7 @@
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6878190</v>
+        <v>6883490</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,76 +18081,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K198">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L198">
         <v>4</v>
       </c>
       <c r="M198">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N198">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O198">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P198">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6883490</v>
+        <v>6878190</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,76 +18170,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K199">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
         <v>4</v>
       </c>
       <c r="M199">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N199">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P199">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S199">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y199">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18514,7 +18514,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6883866</v>
+        <v>6883891</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18526,73 +18526,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I203">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L203">
         <v>3.6</v>
       </c>
       <c r="M203">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N203">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O203">
         <v>4.2</v>
       </c>
       <c r="P203">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
         <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18603,7 +18603,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6883491</v>
+        <v>6883866</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18615,55 +18615,55 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J204" t="s">
         <v>48</v>
       </c>
       <c r="K204">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L204">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M204">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="N204">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="O204">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P204">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q204">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
+        <v>1.85</v>
+      </c>
+      <c r="S204">
         <v>1.95</v>
       </c>
-      <c r="S204">
-        <v>1.85</v>
-      </c>
       <c r="T204">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18672,19 +18672,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB204">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC204">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6883891</v>
+        <v>6883491</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,76 +18704,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
         <v>3</v>
       </c>
-      <c r="I205">
-        <v>1</v>
-      </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M205">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="N205">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O205">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P205">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W205">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18870,7 +18870,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6884124</v>
+        <v>6878191</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18882,10 +18882,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F207" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -18897,44 +18897,44 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N207">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q207">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
+        <v>1.925</v>
+      </c>
+      <c r="V207">
+        <v>1.875</v>
+      </c>
+      <c r="W207">
         <v>1.8</v>
       </c>
-      <c r="T207">
-        <v>2.25</v>
-      </c>
-      <c r="U207">
-        <v>2</v>
-      </c>
-      <c r="V207">
-        <v>1.8</v>
-      </c>
-      <c r="W207">
-        <v>1.05</v>
-      </c>
       <c r="X207">
         <v>-1</v>
       </c>
@@ -18942,13 +18942,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -18959,7 +18959,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6878191</v>
+        <v>6884124</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18971,10 +18971,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -18986,43 +18986,43 @@
         <v>49</v>
       </c>
       <c r="K208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L208">
+        <v>3.4</v>
+      </c>
+      <c r="M208">
+        <v>3.1</v>
+      </c>
+      <c r="N208">
+        <v>2.05</v>
+      </c>
+      <c r="O208">
         <v>3.6</v>
       </c>
-      <c r="M208">
-        <v>2.05</v>
-      </c>
-      <c r="N208">
-        <v>2.8</v>
-      </c>
-      <c r="O208">
-        <v>3.75</v>
-      </c>
       <c r="P208">
+        <v>3.5</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>1.8</v>
+      </c>
+      <c r="T208">
         <v>2.25</v>
       </c>
-      <c r="Q208">
-        <v>0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.825</v>
-      </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
-      <c r="T208">
-        <v>2.5</v>
-      </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W208">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19031,13 +19031,13 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19137,7 +19137,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6883458</v>
+        <v>6884160</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19149,61 +19149,61 @@
         <v>45234.375</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M210">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="N210">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O210">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P210">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R210">
+        <v>1.825</v>
+      </c>
+      <c r="S210">
+        <v>1.975</v>
+      </c>
+      <c r="T210">
+        <v>3</v>
+      </c>
+      <c r="U210">
         <v>1.95</v>
       </c>
-      <c r="S210">
+      <c r="V210">
         <v>1.85</v>
       </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.975</v>
-      </c>
-      <c r="V210">
-        <v>1.825</v>
-      </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X210">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
@@ -19212,13 +19212,13 @@
         <v>-1</v>
       </c>
       <c r="AA210">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB210">
-        <v>-1</v>
-      </c>
-      <c r="AC210">
-        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19226,7 +19226,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6884160</v>
+        <v>6883458</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19238,61 +19238,61 @@
         <v>45234.375</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K211">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L211">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="N211">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O211">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q211">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="S211">
-        <v>1.975</v>
-      </c>
-      <c r="T211">
-        <v>3</v>
-      </c>
-      <c r="U211">
-        <v>1.95</v>
-      </c>
-      <c r="V211">
-        <v>1.85</v>
-      </c>
       <c r="W211">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
@@ -19301,13 +19301,13 @@
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -20472,7 +20472,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6884074</v>
+        <v>6883855</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20484,76 +20484,76 @@
         <v>45248.375</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J225" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K225">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N225">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O225">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P225">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R225">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z225">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC225">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6883855</v>
+        <v>6884074</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20573,76 +20573,76 @@
         <v>45248.375</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K226">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M226">
+        <v>2.5</v>
+      </c>
+      <c r="N226">
+        <v>2.8</v>
+      </c>
+      <c r="O226">
         <v>3.75</v>
       </c>
-      <c r="N226">
-        <v>1.45</v>
-      </c>
-      <c r="O226">
-        <v>4.75</v>
-      </c>
       <c r="P226">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y226">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA226">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="227" spans="1:29">

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -136,10 +136,10 @@
     <t>MSK Povazska Bystrica</t>
   </si>
   <si>
-    <t>Raca Bratislava</t>
+    <t>Slovan Bratislava B</t>
   </si>
   <si>
-    <t>Slovan Bratislava B</t>
+    <t>Raca Bratislava</t>
   </si>
   <si>
     <t>Dolny Kubin</t>
@@ -1085,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5279740</v>
+        <v>5278954</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,73 +1708,73 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
+        <v>1.909</v>
+      </c>
+      <c r="L14">
+        <v>4.1</v>
+      </c>
+      <c r="M14">
+        <v>3.1</v>
+      </c>
+      <c r="N14">
+        <v>1.8</v>
+      </c>
+      <c r="O14">
+        <v>4.2</v>
+      </c>
+      <c r="P14">
+        <v>3.8</v>
+      </c>
+      <c r="Q14">
+        <v>-0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.75</v>
+      </c>
+      <c r="S14">
+        <v>1.95</v>
+      </c>
+      <c r="T14">
         <v>2.5</v>
       </c>
-      <c r="L14">
-        <v>3.6</v>
-      </c>
-      <c r="M14">
-        <v>2.4</v>
-      </c>
-      <c r="N14">
-        <v>2.9</v>
-      </c>
-      <c r="O14">
-        <v>3.6</v>
-      </c>
-      <c r="P14">
-        <v>2.3</v>
-      </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.8</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5278954</v>
+        <v>5279740</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,73 +1797,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>2.5</v>
+      </c>
+      <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>2.4</v>
+      </c>
+      <c r="N15">
+        <v>2.9</v>
+      </c>
+      <c r="O15">
+        <v>3.6</v>
+      </c>
+      <c r="P15">
+        <v>2.3</v>
+      </c>
+      <c r="Q15">
+        <v>0.25</v>
+      </c>
+      <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.9</v>
+      </c>
+      <c r="V15">
+        <v>1.9</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>1.3</v>
+      </c>
+      <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15">
-        <v>1.909</v>
-      </c>
-      <c r="L15">
-        <v>4.1</v>
-      </c>
-      <c r="M15">
-        <v>3.1</v>
-      </c>
-      <c r="N15">
-        <v>1.8</v>
-      </c>
-      <c r="O15">
-        <v>4.2</v>
-      </c>
-      <c r="P15">
-        <v>3.8</v>
-      </c>
-      <c r="Q15">
+      <c r="AB15">
+        <v>0.45</v>
+      </c>
+      <c r="AC15">
         <v>-0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.75</v>
-      </c>
-      <c r="S15">
-        <v>1.95</v>
-      </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
-      <c r="V15">
-        <v>1.925</v>
-      </c>
-      <c r="W15">
-        <v>0.8</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>0.75</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>0.875</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5279741</v>
+        <v>5279498</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,46 +2506,46 @@
         <v>44997.27083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>3.5</v>
+      </c>
+      <c r="L23">
         <v>4</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>3.1</v>
+      </c>
+      <c r="O23">
         <v>3.6</v>
       </c>
-      <c r="M23">
-        <v>3.2</v>
-      </c>
-      <c r="N23">
-        <v>2.15</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2557,19 +2557,19 @@
         <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
         <v>0.8500000000000001</v>
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5279498</v>
+        <v>5279741</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,46 +2595,46 @@
         <v>44997.27083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
+      <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>3.2</v>
+      </c>
+      <c r="N24">
+        <v>2.15</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>1.8</v>
-      </c>
-      <c r="N24">
-        <v>3.1</v>
-      </c>
-      <c r="O24">
-        <v>3.6</v>
-      </c>
       <c r="P24">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2646,19 +2646,19 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0.8500000000000001</v>
@@ -3043,7 +3043,7 @@
         <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3396,7 +3396,7 @@
         <v>45004.27083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5280039</v>
+        <v>5285476</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3485,73 +3485,73 @@
         <v>45010.4375</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>6</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N34">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5285476</v>
+        <v>5280039</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,73 +3574,73 @@
         <v>45010.4375</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1.8</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.9</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1.9</v>
       </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>1.775</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB35">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3841,7 +3841,7 @@
         <v>45011.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>38</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5279747</v>
+        <v>5279746</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,58 +4286,58 @@
         <v>45017.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4346,16 +4346,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5279746</v>
+        <v>5279747</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,58 +4464,58 @@
         <v>45017.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>49</v>
       </c>
       <c r="K45">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
+        <v>3.3</v>
+      </c>
+      <c r="M45">
+        <v>2.625</v>
+      </c>
+      <c r="N45">
+        <v>2.1</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.5</v>
-      </c>
-      <c r="N45">
-        <v>1.7</v>
-      </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4524,16 +4524,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4642,10 +4642,10 @@
         <v>45018.22916666666</v>
       </c>
       <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
         <v>40</v>
-      </c>
-      <c r="G47" t="s">
-        <v>41</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4820,7 +4820,7 @@
         <v>45023.22916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4912,7 +4912,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5279807</v>
+        <v>5279790</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,76 +4998,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O51">
         <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5279790</v>
+        <v>5278956</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,19 +5087,19 @@
         <v>45024.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5111,52 +5111,52 @@
         <v>2</v>
       </c>
       <c r="N52">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="Q52">
         <v>0.5</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5278956</v>
+        <v>5279167</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,76 +5176,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
       </c>
       <c r="K53">
+        <v>3.4</v>
+      </c>
+      <c r="L53">
+        <v>3.5</v>
+      </c>
+      <c r="M53">
+        <v>1.85</v>
+      </c>
+      <c r="N53">
+        <v>3.8</v>
+      </c>
+      <c r="O53">
+        <v>3.8</v>
+      </c>
+      <c r="P53">
+        <v>1.666</v>
+      </c>
+      <c r="Q53">
+        <v>0.75</v>
+      </c>
+      <c r="R53">
+        <v>1.85</v>
+      </c>
+      <c r="S53">
+        <v>1.95</v>
+      </c>
+      <c r="T53">
         <v>3</v>
       </c>
-      <c r="L53">
-        <v>3.6</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-      <c r="N53">
-        <v>3.6</v>
-      </c>
-      <c r="O53">
-        <v>3.75</v>
-      </c>
-      <c r="P53">
-        <v>1.909</v>
-      </c>
-      <c r="Q53">
-        <v>0.5</v>
-      </c>
-      <c r="R53">
-        <v>1.8</v>
-      </c>
-      <c r="S53">
-        <v>2</v>
-      </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5279167</v>
+        <v>5279807</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,49 +5265,49 @@
         <v>45024.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L54">
+        <v>3.6</v>
+      </c>
+      <c r="M54">
+        <v>1.8</v>
+      </c>
+      <c r="N54">
+        <v>3.25</v>
+      </c>
+      <c r="O54">
         <v>3.5</v>
       </c>
-      <c r="M54">
-        <v>1.85</v>
-      </c>
-      <c r="N54">
-        <v>3.8</v>
-      </c>
-      <c r="O54">
-        <v>3.8</v>
-      </c>
       <c r="P54">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
         <v>1.85</v>
@@ -5316,16 +5316,16 @@
         <v>1.95</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X54">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5802,7 +5802,7 @@
         <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5278957</v>
+        <v>5279168</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,49 +5888,49 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>1.285</v>
+        <v>1.181</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M61">
+        <v>11</v>
+      </c>
+      <c r="N61">
+        <v>1.142</v>
+      </c>
+      <c r="O61">
         <v>8.5</v>
       </c>
-      <c r="N61">
-        <v>1.2</v>
-      </c>
-      <c r="O61">
-        <v>6.5</v>
-      </c>
       <c r="P61">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q61">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U61">
         <v>1.95</v>
@@ -5939,10 +5939,10 @@
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X61">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
@@ -5951,13 +5951,13 @@
         <v>-1</v>
       </c>
       <c r="AA61">
+        <v>0.875</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB61">
-        <v>0.95</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5279168</v>
+        <v>5278957</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,49 +5977,49 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>1.181</v>
+        <v>1.285</v>
       </c>
       <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>8.5</v>
+      </c>
+      <c r="N62">
+        <v>1.2</v>
+      </c>
+      <c r="O62">
         <v>6.5</v>
       </c>
-      <c r="M62">
-        <v>11</v>
-      </c>
-      <c r="N62">
-        <v>1.142</v>
-      </c>
-      <c r="O62">
-        <v>8.5</v>
-      </c>
       <c r="P62">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q62">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
         <v>1.95</v>
@@ -6028,10 +6028,10 @@
         <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6040,13 +6040,13 @@
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6689,7 +6689,7 @@
         <v>45039.22916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6867,7 +6867,7 @@
         <v>45039.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
@@ -7048,7 +7048,7 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7137,7 +7137,7 @@
         <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7668,7 +7668,7 @@
         <v>45051.5</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -8202,7 +8202,7 @@
         <v>45053.22916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5278961</v>
+        <v>5279796</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,52 +8558,52 @@
         <v>45058.5</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91">
         <v>2</v>
       </c>
-      <c r="J91" t="s">
-        <v>48</v>
-      </c>
-      <c r="K91">
-        <v>1.5</v>
-      </c>
       <c r="L91">
+        <v>3.6</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>1.55</v>
+      </c>
+      <c r="O91">
         <v>4.2</v>
       </c>
-      <c r="M91">
-        <v>4.75</v>
-      </c>
-      <c r="N91">
-        <v>1.3</v>
-      </c>
-      <c r="O91">
-        <v>5.75</v>
-      </c>
       <c r="P91">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q91">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
+        <v>1.975</v>
+      </c>
+      <c r="T91">
+        <v>2.75</v>
+      </c>
+      <c r="U91">
         <v>1.85</v>
-      </c>
-      <c r="T91">
-        <v>3.25</v>
-      </c>
-      <c r="U91">
-        <v>1.75</v>
       </c>
       <c r="V91">
         <v>1.95</v>
@@ -8612,22 +8612,22 @@
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y91">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5279796</v>
+        <v>5279171</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45058.5</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92">
+        <v>1.25</v>
+      </c>
+      <c r="L92">
+        <v>5.5</v>
+      </c>
+      <c r="M92">
+        <v>7.5</v>
+      </c>
+      <c r="N92">
+        <v>1.25</v>
+      </c>
+      <c r="O92">
+        <v>6</v>
+      </c>
+      <c r="P92">
+        <v>10</v>
+      </c>
+      <c r="Q92">
+        <v>-1.75</v>
+      </c>
+      <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
         <v>2</v>
       </c>
-      <c r="L92">
-        <v>3.6</v>
-      </c>
-      <c r="M92">
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="N92">
-        <v>1.55</v>
-      </c>
-      <c r="O92">
-        <v>4.2</v>
-      </c>
-      <c r="P92">
-        <v>5.5</v>
-      </c>
-      <c r="Q92">
-        <v>-1</v>
-      </c>
-      <c r="R92">
-        <v>1.825</v>
-      </c>
-      <c r="S92">
-        <v>1.975</v>
-      </c>
-      <c r="T92">
-        <v>2.75</v>
-      </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5279171</v>
+        <v>5279809</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45058.5</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
         <v>2</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N93">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5279809</v>
+        <v>5280055</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,40 +8825,40 @@
         <v>45058.5</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P94">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R94">
         <v>1.95</v>
@@ -8867,16 +8867,16 @@
         <v>1.85</v>
       </c>
       <c r="T94">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8891,10 +8891,10 @@
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5280055</v>
+        <v>5278961</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,40 +8914,40 @@
         <v>45058.5</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>2</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
+        <v>1.5</v>
+      </c>
+      <c r="L95">
+        <v>4.2</v>
+      </c>
+      <c r="M95">
         <v>4.75</v>
       </c>
-      <c r="L95">
-        <v>4</v>
-      </c>
-      <c r="M95">
-        <v>1.533</v>
-      </c>
       <c r="N95">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P95">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q95">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R95">
         <v>1.95</v>
@@ -8956,34 +8956,34 @@
         <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
+        <v>1.75</v>
+      </c>
+      <c r="V95">
         <v>1.95</v>
       </c>
-      <c r="V95">
-        <v>1.85</v>
-      </c>
       <c r="W95">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
+        <v>-0.5</v>
+      </c>
+      <c r="AC95">
         <v>0.475</v>
-      </c>
-      <c r="AC95">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,7 +9006,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9080,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5280058</v>
+        <v>5280060</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,40 +9092,40 @@
         <v>45065.5</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R97">
         <v>1.975</v>
@@ -9137,31 +9137,31 @@
         <v>3</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.825</v>
+      </c>
+      <c r="AB97">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5280060</v>
+        <v>5280058</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,40 +9181,40 @@
         <v>45065.5</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
         <v>1.975</v>
@@ -9226,31 +9226,31 @@
         <v>3</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>45065.5</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9359,7 +9359,7 @@
         <v>45065.5</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5280059</v>
+        <v>5279811</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,76 +9626,76 @@
         <v>45065.5</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="L103">
         <v>3.75</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5279811</v>
+        <v>5280059</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,76 +9715,76 @@
         <v>45065.5</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9807,7 +9807,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6884046</v>
+        <v>6884167</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,76 +10160,76 @@
         <v>45136.5</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L109">
         <v>3.3</v>
       </c>
       <c r="M109">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N109">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB109">
         <v>-0.5</v>
       </c>
-      <c r="AA109">
-        <v>0.4125</v>
-      </c>
-      <c r="AB109">
-        <v>0.925</v>
-      </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6884167</v>
+        <v>6982596</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,76 +10249,76 @@
         <v>45136.5</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
+        <v>2.6</v>
+      </c>
+      <c r="L110">
+        <v>3.2</v>
+      </c>
+      <c r="M110">
+        <v>2.4</v>
+      </c>
+      <c r="N110">
+        <v>2.625</v>
+      </c>
+      <c r="O110">
+        <v>3.4</v>
+      </c>
+      <c r="P110">
         <v>2.7</v>
-      </c>
-      <c r="L110">
-        <v>3.3</v>
-      </c>
-      <c r="M110">
-        <v>2.25</v>
-      </c>
-      <c r="N110">
-        <v>2.6</v>
-      </c>
-      <c r="O110">
-        <v>3.8</v>
-      </c>
-      <c r="P110">
-        <v>2.45</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6982596</v>
+        <v>6884046</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,76 +10338,76 @@
         <v>45136.5</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N111">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10961,7 +10961,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11320,7 +11320,7 @@
         <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
         <v>43</v>
@@ -12655,7 +12655,7 @@
         <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -13364,7 +13364,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
         <v>47</v>
@@ -13886,7 +13886,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6883451</v>
+        <v>6884063</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13898,19 +13898,19 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>1.533</v>
@@ -13922,52 +13922,52 @@
         <v>4.8</v>
       </c>
       <c r="N151">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O151">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P151">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q151">
         <v>-1.25</v>
       </c>
       <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
         <v>1.8</v>
       </c>
-      <c r="S151">
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.8</v>
+      </c>
+      <c r="V151">
         <v>2</v>
       </c>
-      <c r="T151">
-        <v>3</v>
-      </c>
-      <c r="U151">
-        <v>1.975</v>
-      </c>
-      <c r="V151">
-        <v>1.825</v>
-      </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X151">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13975,7 +13975,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6884063</v>
+        <v>6883851</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13987,73 +13987,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
         <v>4</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O152">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q152">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6883851</v>
+        <v>6883451</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>50</v>
+      </c>
+      <c r="K153">
+        <v>1.533</v>
+      </c>
+      <c r="L153">
         <v>4</v>
       </c>
-      <c r="J153" t="s">
-        <v>48</v>
-      </c>
-      <c r="K153">
-        <v>2.9</v>
-      </c>
-      <c r="L153">
-        <v>3.4</v>
-      </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="N153">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P153">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14699,7 +14699,7 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
         <v>30</v>
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6883455</v>
+        <v>6883456</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,13 +15411,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15426,34 +15426,34 @@
         <v>49</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N168">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O168">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
         <v>1.9</v>
@@ -15462,7 +15462,7 @@
         <v>1.9</v>
       </c>
       <c r="W168">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15471,10 +15471,10 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6883456</v>
+        <v>6883455</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,13 +15500,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15515,34 +15515,34 @@
         <v>49</v>
       </c>
       <c r="K169">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N169">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P169">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U169">
         <v>1.9</v>
@@ -15551,7 +15551,7 @@
         <v>1.9</v>
       </c>
       <c r="W169">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15560,10 +15560,10 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
         <v>-1</v>
@@ -15681,7 +15681,7 @@
         <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -16212,7 +16212,7 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16927,7 +16927,7 @@
         <v>46</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17105,7 +17105,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -18259,7 +18259,7 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
         <v>35</v>
@@ -18440,7 +18440,7 @@
         <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -19137,7 +19137,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6883458</v>
+        <v>6884160</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19149,61 +19149,61 @@
         <v>45234.375</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M210">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="N210">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O210">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P210">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R210">
+        <v>1.825</v>
+      </c>
+      <c r="S210">
+        <v>1.975</v>
+      </c>
+      <c r="T210">
+        <v>3</v>
+      </c>
+      <c r="U210">
         <v>1.95</v>
       </c>
-      <c r="S210">
+      <c r="V210">
         <v>1.85</v>
       </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.975</v>
-      </c>
-      <c r="V210">
-        <v>1.825</v>
-      </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X210">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
@@ -19212,13 +19212,13 @@
         <v>-1</v>
       </c>
       <c r="AA210">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB210">
-        <v>-1</v>
-      </c>
-      <c r="AC210">
-        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19226,7 +19226,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6884160</v>
+        <v>6883458</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19238,61 +19238,61 @@
         <v>45234.375</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K211">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L211">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="N211">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O211">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q211">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="S211">
-        <v>1.975</v>
-      </c>
-      <c r="T211">
-        <v>3</v>
-      </c>
-      <c r="U211">
-        <v>1.95</v>
-      </c>
-      <c r="V211">
-        <v>1.85</v>
-      </c>
       <c r="W211">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
@@ -19301,13 +19301,13 @@
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
         <v>44</v>
@@ -19772,7 +19772,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G217" t="s">
         <v>36</v>
@@ -20739,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6883462</v>
+        <v>6878167</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20751,76 +20751,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K228">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L228">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M228">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N228">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P228">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U228">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20828,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6878167</v>
+        <v>6883462</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20840,76 +20840,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L229">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N229">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q229">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z229">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="230" spans="1:29">

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -106,22 +106,22 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
+    <t>Spisska Nova Ves</t>
+  </si>
+  <si>
     <t>FK Humenne</t>
   </si>
   <si>
     <t>FC Petrzalka</t>
   </si>
   <si>
-    <t>Dolny Kubin</t>
+    <t>Puchov</t>
   </si>
   <si>
     <t>MSK Povazska Bystrica</t>
   </si>
   <si>
-    <t>Puchov</t>
-  </si>
-  <si>
-    <t>Spisska Nova Ves</t>
+    <t>Dolny Kubin</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
@@ -133,19 +133,19 @@
     <t>Spartak Myjava</t>
   </si>
   <si>
-    <t>KFC Komarno</t>
+    <t>FC Tatran Presov</t>
   </si>
   <si>
-    <t>FC Tatran Presov</t>
+    <t>KFC Komarno</t>
   </si>
   <si>
     <t>Slovan Bratislava B</t>
   </si>
   <si>
-    <t>MSK Zilina B</t>
+    <t>STK Samorin</t>
   </si>
   <si>
-    <t>STK Samorin</t>
+    <t>MSK Zilina B</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6883440</v>
+        <v>6883439</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,40 +732,40 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA3">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6982596</v>
+        <v>6883440</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,16 +809,16 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>2.6</v>
@@ -827,55 +827,55 @@
         <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N4">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
+        <v>1.8</v>
+      </c>
+      <c r="V4">
         <v>2</v>
       </c>
-      <c r="V4">
-        <v>1.8</v>
-      </c>
       <c r="W4">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6884167</v>
+        <v>6982596</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
+        <v>2.6</v>
+      </c>
+      <c r="L5">
+        <v>3.2</v>
+      </c>
+      <c r="M5">
+        <v>2.4</v>
+      </c>
+      <c r="N5">
+        <v>2.625</v>
+      </c>
+      <c r="O5">
+        <v>3.4</v>
+      </c>
+      <c r="P5">
         <v>2.7</v>
-      </c>
-      <c r="L5">
-        <v>3.3</v>
-      </c>
-      <c r="M5">
-        <v>2.25</v>
-      </c>
-      <c r="N5">
-        <v>2.6</v>
-      </c>
-      <c r="O5">
-        <v>3.8</v>
-      </c>
-      <c r="P5">
-        <v>2.45</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6884046</v>
+        <v>6883846</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
         <v>3.3</v>
       </c>
       <c r="M6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.75</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <v>0.45</v>
+      </c>
+      <c r="AC6">
         <v>-0.5</v>
-      </c>
-      <c r="AA6">
-        <v>0.4125</v>
-      </c>
-      <c r="AB6">
-        <v>0.925</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6883846</v>
+        <v>6884046</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
         <v>3.3</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB7">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6883439</v>
+        <v>6884167</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,52 +1165,52 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>46</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q8">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1219,19 +1219,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z8">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB8">
         <v>-0.5</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6884116</v>
+        <v>6883441</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1533,43 +1533,43 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L12">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>0.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1587,7 +1587,7 @@
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6883441</v>
+        <v>6884116</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,10 +1699,10 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1711,43 +1711,43 @@
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N14">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>0.8500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1765,7 +1765,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6883442</v>
+        <v>6883847</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,70 +1877,70 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.95</v>
+      </c>
+      <c r="AB16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.875</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6883847</v>
+        <v>6883442</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,70 +1966,70 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17">
+        <v>2.6</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>2.25</v>
-      </c>
-      <c r="L17">
-        <v>3.3</v>
-      </c>
-      <c r="M17">
-        <v>2.7</v>
-      </c>
-      <c r="N17">
-        <v>2.05</v>
-      </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6883848</v>
+        <v>6883443</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
+        <v>2.4</v>
+      </c>
+      <c r="L18">
+        <v>3.3</v>
+      </c>
+      <c r="M18">
+        <v>2.55</v>
+      </c>
+      <c r="N18">
         <v>1.95</v>
       </c>
-      <c r="L18">
-        <v>3.4</v>
-      </c>
-      <c r="M18">
-        <v>3.25</v>
-      </c>
-      <c r="N18">
-        <v>1.75</v>
-      </c>
       <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
         <v>3.8</v>
       </c>
-      <c r="P18">
-        <v>4.5</v>
-      </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.825</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.75</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883443</v>
+        <v>6884049</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O19">
         <v>3.5</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
         <v>1.975</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>1.825</v>
       </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>1.95</v>
-      </c>
-      <c r="V19">
-        <v>1.85</v>
-      </c>
       <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>1.55</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
         <v>0.95</v>
       </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883873</v>
+        <v>6883848</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>1.95</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6884117</v>
+        <v>6883873</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,52 +2322,52 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L21">
+        <v>3.3</v>
+      </c>
+      <c r="M21">
         <v>3.4</v>
       </c>
-      <c r="M21">
-        <v>1.85</v>
-      </c>
       <c r="N21">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
         <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2376,19 +2376,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6884049</v>
+        <v>6884117</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,7 +2408,7 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2423,40 +2423,40 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
         <v>3.4</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N22">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q22">
         <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2465,19 +2465,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6883444</v>
+        <v>6878159</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,56 +2497,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.875</v>
+      </c>
+      <c r="V23">
         <v>1.925</v>
       </c>
-      <c r="V23">
-        <v>1.875</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2554,19 +2554,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6878159</v>
+        <v>6883444</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,56 +2586,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
+        <v>4.2</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>1.6</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>1.45</v>
+      </c>
+      <c r="Q24">
+        <v>1.25</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
         <v>1.95</v>
-      </c>
-      <c r="L24">
-        <v>3.4</v>
-      </c>
-      <c r="M24">
-        <v>3.25</v>
-      </c>
-      <c r="N24">
-        <v>1.909</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>3.75</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
+        <v>1.925</v>
+      </c>
+      <c r="V24">
         <v>1.875</v>
       </c>
-      <c r="V24">
-        <v>1.925</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2767,7 +2767,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2853,10 +2853,10 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6883849</v>
+        <v>6884050</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,10 +2945,10 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2957,19 +2957,19 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>1.5</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P28">
         <v>6.5</v>
@@ -2978,19 +2978,19 @@
         <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
         <v>0.5</v>
@@ -3002,16 +3002,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6884050</v>
+        <v>6883849</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,10 +3034,10 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3046,19 +3046,19 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3067,19 +3067,19 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>0.5</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7068814</v>
+        <v>6883793</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
+        <v>3.8</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>-0.25</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
         <v>3.5</v>
       </c>
-      <c r="P30">
-        <v>2.6</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>1.85</v>
-      </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
       <c r="U30">
+        <v>1.9</v>
+      </c>
+      <c r="V30">
+        <v>1.9</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
         <v>2</v>
       </c>
-      <c r="V30">
-        <v>1.8</v>
-      </c>
-      <c r="W30">
-        <v>1.5</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,10 +3209,10 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6883793</v>
+        <v>7068814</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
+        <v>4.8</v>
+      </c>
+      <c r="N32">
         <v>2.5</v>
       </c>
-      <c r="N32">
-        <v>2.2</v>
-      </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
         <v>2</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.8</v>
       </c>
-      <c r="T32">
-        <v>3.5</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3479,7 +3479,7 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6884158</v>
+        <v>6883447</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,7 +3654,7 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>43</v>
@@ -3663,49 +3663,49 @@
         <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>45</v>
       </c>
       <c r="K36">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M36">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P36">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>1.825</v>
+      </c>
+      <c r="V36">
         <v>1.975</v>
       </c>
-      <c r="S36">
-        <v>1.725</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.9</v>
-      </c>
-      <c r="V36">
-        <v>1.9</v>
-      </c>
       <c r="W36">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,13 +3714,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6883447</v>
+        <v>6884158</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,7 +3743,7 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -3752,49 +3752,49 @@
         <v>4</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L37">
+        <v>3.3</v>
+      </c>
+      <c r="M37">
+        <v>2.45</v>
+      </c>
+      <c r="N37">
+        <v>2.45</v>
+      </c>
+      <c r="O37">
         <v>3.5</v>
       </c>
-      <c r="M37">
-        <v>3.6</v>
-      </c>
-      <c r="N37">
-        <v>1.533</v>
-      </c>
-      <c r="O37">
-        <v>4.75</v>
-      </c>
       <c r="P37">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,13 +3803,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4455,10 +4455,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4544,10 +4544,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4633,10 +4633,10 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6883851</v>
+        <v>6883452</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>2.625</v>
+      </c>
+      <c r="L48">
+        <v>3.3</v>
+      </c>
+      <c r="M48">
+        <v>2.3</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.7</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="J48" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48">
-        <v>2.9</v>
-      </c>
-      <c r="L48">
-        <v>3.4</v>
-      </c>
-      <c r="M48">
-        <v>2.1</v>
-      </c>
-      <c r="N48">
-        <v>3.1</v>
-      </c>
-      <c r="O48">
-        <v>3.5</v>
-      </c>
-      <c r="P48">
+      <c r="R48">
+        <v>1.9</v>
+      </c>
+      <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
+        <v>1.925</v>
+      </c>
+      <c r="V48">
+        <v>1.875</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
         <v>2.2</v>
       </c>
-      <c r="Q48">
-        <v>0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.925</v>
-      </c>
-      <c r="T48">
-        <v>3</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
-      <c r="W48">
-        <v>-1</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
       <c r="Y48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6884063</v>
+        <v>6883851</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,73 +4811,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>4</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883451</v>
+        <v>6884063</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,16 +4903,16 @@
         <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.533</v>
@@ -4924,52 +4924,52 @@
         <v>4.8</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q50">
         <v>-1.25</v>
       </c>
       <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>1.8</v>
       </c>
-      <c r="S50">
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>1.8</v>
+      </c>
+      <c r="V50">
         <v>2</v>
       </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.975</v>
-      </c>
-      <c r="V50">
-        <v>1.825</v>
-      </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6883452</v>
+        <v>6883451</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
       <c r="K51">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,73 +5615,73 @@
         <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K58">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L58">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
         <v>1.75</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,70 +5707,70 @@
         <v>30</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M59">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.75</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>1.75</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5879,7 +5879,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
         <v>44</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6883456</v>
+        <v>6878164</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,49 +5968,49 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>2.2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
         <v>3.5</v>
       </c>
-      <c r="M62">
-        <v>4.2</v>
-      </c>
-      <c r="N62">
-        <v>1.533</v>
-      </c>
-      <c r="O62">
-        <v>4.2</v>
-      </c>
       <c r="P62">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
         <v>1.9</v>
@@ -6019,19 +6019,19 @@
         <v>1.9</v>
       </c>
       <c r="W62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6878164</v>
+        <v>6883455</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,40 +6057,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P63">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
         <v>1.825</v>
@@ -6099,7 +6099,7 @@
         <v>1.975</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6108,19 +6108,19 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X63">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6883455</v>
+        <v>6883456</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,34 +6161,34 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N64">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6197,7 +6197,7 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6206,10 +6206,10 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6883852</v>
+        <v>6884065</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>1.6</v>
+      </c>
+      <c r="O65">
+        <v>4.2</v>
+      </c>
+      <c r="P65">
+        <v>5.25</v>
+      </c>
+      <c r="Q65">
+        <v>-1</v>
+      </c>
+      <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
+        <v>1.825</v>
+      </c>
+      <c r="T65">
+        <v>2.5</v>
+      </c>
+      <c r="U65">
         <v>1.85</v>
       </c>
-      <c r="N65">
-        <v>3.75</v>
-      </c>
-      <c r="O65">
-        <v>3.75</v>
-      </c>
-      <c r="P65">
-        <v>1.909</v>
-      </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.9</v>
-      </c>
-      <c r="S65">
-        <v>1.9</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
-      </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y65">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6884065</v>
+        <v>6883852</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>1.85</v>
+      </c>
+      <c r="N66">
         <v>3.75</v>
       </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66">
-        <v>1.6</v>
-      </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.825</v>
+      </c>
+      <c r="V66">
         <v>1.975</v>
       </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>1.85</v>
-      </c>
-      <c r="V66">
-        <v>1.95</v>
-      </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>41</v>
@@ -6594,7 +6594,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6884068</v>
+        <v>6883799</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>2.25</v>
+      </c>
+      <c r="L70">
+        <v>3.4</v>
+      </c>
+      <c r="M70">
+        <v>2.625</v>
+      </c>
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
+        <v>3.5</v>
+      </c>
+      <c r="P70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>46</v>
-      </c>
-      <c r="K70">
-        <v>1.727</v>
-      </c>
-      <c r="L70">
-        <v>3.75</v>
-      </c>
-      <c r="M70">
-        <v>3.75</v>
-      </c>
-      <c r="N70">
-        <v>2.05</v>
-      </c>
-      <c r="O70">
-        <v>3.75</v>
-      </c>
-      <c r="P70">
-        <v>3.4</v>
-      </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="V70">
-        <v>1.825</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6884056</v>
+        <v>6884068</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N71">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6883799</v>
+        <v>6884056</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,43 +6873,43 @@
         <v>45</v>
       </c>
       <c r="K72">
+        <v>1.8</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>3.6</v>
+      </c>
+      <c r="N72">
         <v>2.25</v>
-      </c>
-      <c r="L72">
-        <v>3.4</v>
-      </c>
-      <c r="M72">
-        <v>2.625</v>
-      </c>
-      <c r="N72">
-        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.85</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
         <v>2</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
-      <c r="U72">
-        <v>1.825</v>
-      </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6918,7 +6918,7 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6927,7 +6927,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,10 +6947,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
         <v>31</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7125,10 +7125,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6884571</v>
+        <v>6883486</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,13 +7303,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7318,43 +7318,43 @@
         <v>45</v>
       </c>
       <c r="K77">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N77">
+        <v>1.3</v>
+      </c>
+      <c r="O77">
+        <v>5.25</v>
+      </c>
+      <c r="P77">
+        <v>11</v>
+      </c>
+      <c r="Q77">
+        <v>-1.75</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
         <v>1.85</v>
       </c>
-      <c r="O77">
-        <v>3.8</v>
-      </c>
-      <c r="P77">
-        <v>3.75</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.85</v>
-      </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
       <c r="T77">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W77">
-        <v>0.8500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6884105</v>
+        <v>6884571</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,13 +7392,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7407,43 +7407,43 @@
         <v>45</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="N78">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
         <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,7 +7452,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7461,7 +7461,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6883485</v>
+        <v>6884105</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,7 +7487,7 @@
         <v>34</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,34 +7496,34 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N79">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P79">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U79">
         <v>1.85</v>
@@ -7532,7 +7532,7 @@
         <v>1.95</v>
       </c>
       <c r="W79">
-        <v>0.833</v>
+        <v>0.55</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,7 +7541,7 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6878188</v>
+        <v>6883485</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
-      <c r="I80">
+      <c r="J80" t="s">
+        <v>45</v>
+      </c>
+      <c r="K80">
+        <v>1.727</v>
+      </c>
+      <c r="L80">
+        <v>3.5</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>1.833</v>
+      </c>
+      <c r="O80">
+        <v>3.75</v>
+      </c>
+      <c r="P80">
+        <v>4.2</v>
+      </c>
+      <c r="Q80">
+        <v>-0.5</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
         <v>2</v>
       </c>
-      <c r="J80" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-      <c r="L80">
-        <v>3.6</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>3.6</v>
-      </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
-      <c r="P80">
-        <v>1.909</v>
-      </c>
-      <c r="Q80">
-        <v>0.5</v>
-      </c>
-      <c r="R80">
-        <v>1.9</v>
-      </c>
-      <c r="S80">
-        <v>1.9</v>
-      </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6883486</v>
+        <v>6878188</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,70 +7665,70 @@
         <v>32</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7837,10 +7837,10 @@
         <v>45210.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6883864</v>
+        <v>6883488</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N86">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P86">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S86">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>0.75</v>
+        <v>0.5375000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6884106</v>
+        <v>6883864</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8196,73 +8196,73 @@
         <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L87">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N87">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6884123</v>
+        <v>6884106</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,10 +8282,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8297,43 +8297,43 @@
         <v>45</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,16 +8342,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6883488</v>
+        <v>6884123</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
         <v>30</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8386,31 +8386,31 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
         <v>1.725</v>
-      </c>
-      <c r="S89">
-        <v>2.075</v>
       </c>
       <c r="T89">
         <v>2.5</v>
@@ -8419,10 +8419,10 @@
         <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W89">
-        <v>0.333</v>
+        <v>1.4</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,10 +8431,10 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.5375000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>0.95</v>
@@ -8460,7 +8460,7 @@
         <v>45214.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8552,7 +8552,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6883490</v>
+        <v>6878190</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
         <v>4</v>
       </c>
       <c r="M93">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P93">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y93">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6884110</v>
+        <v>6884109</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,59 +8816,59 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>45</v>
       </c>
       <c r="K94">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N94">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="Q94">
+        <v>-1.75</v>
+      </c>
+      <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
         <v>0.25</v>
       </c>
-      <c r="R94">
-        <v>1.775</v>
-      </c>
-      <c r="S94">
-        <v>2.025</v>
-      </c>
-      <c r="T94">
-        <v>2.25</v>
-      </c>
-      <c r="U94">
-        <v>1.825</v>
-      </c>
-      <c r="V94">
-        <v>1.975</v>
-      </c>
-      <c r="W94">
-        <v>1.625</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6878190</v>
+        <v>6883490</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
         <v>4</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6884109</v>
+        <v>6884110</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,58 +8994,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>45</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O96">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="Q96">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
+        <v>1.775</v>
+      </c>
+      <c r="S96">
+        <v>2.025</v>
+      </c>
+      <c r="T96">
+        <v>2.25</v>
+      </c>
+      <c r="U96">
         <v>1.825</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="T96">
-        <v>3</v>
-      </c>
-      <c r="U96">
-        <v>1.95</v>
-      </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
-        <v>0.25</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9054,16 +9054,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6883492</v>
+        <v>6883491</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N98">
+        <v>9</v>
+      </c>
+      <c r="O98">
+        <v>6</v>
+      </c>
+      <c r="P98">
+        <v>1.2</v>
+      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>3.25</v>
+      </c>
+      <c r="U98">
+        <v>1.7</v>
+      </c>
+      <c r="V98">
         <v>2.1</v>
       </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>3.5</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.8</v>
-      </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.875</v>
-      </c>
-      <c r="V98">
-        <v>1.925</v>
-      </c>
       <c r="W98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6883491</v>
+        <v>6883492</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
         <v>2</v>
       </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC99">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6884111</v>
+        <v>6883891</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,73 +9350,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>45</v>
+      </c>
+      <c r="K100">
+        <v>1.65</v>
+      </c>
+      <c r="L100">
+        <v>3.6</v>
+      </c>
+      <c r="M100">
+        <v>4.75</v>
+      </c>
+      <c r="N100">
+        <v>1.533</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>6.5</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>1.8</v>
+      </c>
+      <c r="V100">
         <v>2</v>
       </c>
-      <c r="I100">
-        <v>2</v>
-      </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>2.55</v>
-      </c>
-      <c r="L100">
-        <v>3.5</v>
-      </c>
-      <c r="M100">
-        <v>2.4</v>
-      </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.95</v>
-      </c>
-      <c r="V100">
-        <v>1.85</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6883891</v>
+        <v>6884111</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,73 +9439,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101">
+        <v>2.55</v>
+      </c>
+      <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2.4</v>
+      </c>
+      <c r="N101">
+        <v>2.625</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
+        <v>2.55</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>1.85</v>
+      </c>
+      <c r="T101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101" t="s">
-        <v>45</v>
-      </c>
-      <c r="K101">
-        <v>1.65</v>
-      </c>
-      <c r="L101">
-        <v>3.6</v>
-      </c>
-      <c r="M101">
-        <v>4.75</v>
-      </c>
-      <c r="N101">
-        <v>1.533</v>
-      </c>
-      <c r="O101">
-        <v>4.2</v>
-      </c>
-      <c r="P101">
-        <v>6.5</v>
-      </c>
-      <c r="Q101">
-        <v>-1</v>
-      </c>
-      <c r="R101">
-        <v>1.825</v>
-      </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9528,7 +9528,7 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,73 +9617,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103">
         <v>2</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>47</v>
-      </c>
-      <c r="K103">
-        <v>2.625</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9706,10 +9706,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6884124</v>
+        <v>6884112</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,73 +9795,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
+        <v>2.4</v>
+      </c>
+      <c r="N105">
         <v>3.1</v>
       </c>
-      <c r="N105">
-        <v>2.05</v>
-      </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q105">
+        <v>0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.775</v>
+      </c>
+      <c r="V105">
+        <v>1.925</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>2.75</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.475</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
       </c>
-      <c r="R105">
-        <v>2</v>
-      </c>
-      <c r="S105">
-        <v>1.8</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>2</v>
-      </c>
-      <c r="V105">
-        <v>1.8</v>
-      </c>
-      <c r="W105">
-        <v>1.05</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>1</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
       <c r="AB105">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6884160</v>
+        <v>6883458</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,58 +9976,58 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>1.975</v>
+      </c>
+      <c r="V107">
         <v>1.825</v>
       </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10036,13 +10036,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6883458</v>
+        <v>6884160</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,58 +10065,58 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="N108">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P108">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
+        <v>1.975</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
         <v>1.95</v>
       </c>
-      <c r="S108">
+      <c r="V108">
         <v>1.85</v>
       </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10125,13 +10125,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,10 +10151,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6883853</v>
+        <v>6884119</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
+        <v>2.625</v>
+      </c>
+      <c r="N110">
+        <v>2.05</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>3.1</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
-      </c>
-      <c r="N110">
-        <v>2.7</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>2.375</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>2.025</v>
-      </c>
-      <c r="S110">
-        <v>1.775</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6884119</v>
+        <v>6883853</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>4</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L111">
         <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10421,7 +10421,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6883460</v>
+        <v>6883459</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,43 +10777,43 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="L116">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
         <v>5.75</v>
       </c>
-      <c r="P116">
-        <v>11</v>
-      </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
         <v>2.5</v>
@@ -10825,19 +10825,19 @@
         <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6883459</v>
+        <v>6883460</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,40 +10869,40 @@
         <v>30</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P117">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R117">
+        <v>1.75</v>
+      </c>
+      <c r="S117">
         <v>1.95</v>
-      </c>
-      <c r="S117">
-        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
@@ -10914,19 +10914,19 @@
         <v>1.875</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10955,7 +10955,7 @@
         <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6884161</v>
+        <v>6884071</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,73 +11044,73 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119">
+        <v>3.1</v>
+      </c>
+      <c r="L119">
+        <v>3.7</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>2.75</v>
+      </c>
+      <c r="O119">
+        <v>3.5</v>
+      </c>
+      <c r="P119">
+        <v>2.4</v>
+      </c>
+      <c r="Q119">
         <v>0</v>
       </c>
-      <c r="J119" t="s">
-        <v>45</v>
-      </c>
-      <c r="K119">
-        <v>1.5</v>
-      </c>
-      <c r="L119">
-        <v>4.1</v>
-      </c>
-      <c r="M119">
-        <v>5.5</v>
-      </c>
-      <c r="N119">
-        <v>1.3</v>
-      </c>
-      <c r="O119">
-        <v>6</v>
-      </c>
-      <c r="P119">
-        <v>8.5</v>
-      </c>
-      <c r="Q119">
-        <v>-2</v>
-      </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
         <v>1.775</v>
       </c>
       <c r="T119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W119">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6884071</v>
+        <v>6884161</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,73 +11133,73 @@
         <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L120">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P120">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
         <v>1.775</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11219,7 +11219,7 @@
         <v>45245.375</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
         <v>37</v>
@@ -11308,10 +11308,10 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6883855</v>
+        <v>6884074</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" t="s">
         <v>34</v>
       </c>
-      <c r="G123" t="s">
-        <v>43</v>
-      </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>2.5</v>
+      </c>
+      <c r="N123">
+        <v>2.8</v>
+      </c>
+      <c r="O123">
         <v>3.75</v>
       </c>
-      <c r="N123">
-        <v>1.45</v>
-      </c>
-      <c r="O123">
-        <v>4.75</v>
-      </c>
       <c r="P123">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6884074</v>
+        <v>6883855</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P124">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z124">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6883462</v>
+        <v>6878167</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6878167</v>
+        <v>6883462</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N126">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O126">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,9 +112,6 @@
     <t>FK Humenne</t>
   </si>
   <si>
-    <t>FC Petrzalka</t>
-  </si>
-  <si>
     <t>Puchov</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Dolny Kubin</t>
+  </si>
+  <si>
+    <t>FC Petrzalka</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
@@ -133,19 +133,19 @@
     <t>Spartak Myjava</t>
   </si>
   <si>
-    <t>FC Tatran Presov</t>
+    <t>KFC Komarno</t>
   </si>
   <si>
-    <t>KFC Komarno</t>
+    <t>FC Tatran Presov</t>
   </si>
   <si>
     <t>Slovan Bratislava B</t>
   </si>
   <si>
-    <t>STK Samorin</t>
+    <t>MSK Zilina B</t>
   </si>
   <si>
-    <t>MSK Zilina B</t>
+    <t>STK Samorin</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6982596</v>
+        <v>6883846</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,55 +898,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>45</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.625</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,16 +955,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6883846</v>
+        <v>6884046</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
         <v>3.3</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q6">
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB6">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6884046</v>
+        <v>6884167</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,70 +1079,70 @@
         <v>42</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L7">
         <v>3.3</v>
       </c>
       <c r="M7">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB7">
         <v>-0.5</v>
       </c>
-      <c r="AA7">
-        <v>0.4125</v>
-      </c>
-      <c r="AB7">
-        <v>0.925</v>
-      </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6884167</v>
+        <v>6982596</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
+        <v>2.6</v>
+      </c>
+      <c r="L8">
+        <v>3.2</v>
+      </c>
+      <c r="M8">
+        <v>2.4</v>
+      </c>
+      <c r="N8">
+        <v>2.625</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8">
         <v>2.7</v>
-      </c>
-      <c r="L8">
-        <v>3.3</v>
-      </c>
-      <c r="M8">
-        <v>2.25</v>
-      </c>
-      <c r="N8">
-        <v>2.6</v>
-      </c>
-      <c r="O8">
-        <v>3.8</v>
-      </c>
-      <c r="P8">
-        <v>2.45</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6883441</v>
+        <v>6884116</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1533,43 +1533,43 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.8500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1587,7 +1587,7 @@
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6884048</v>
+        <v>6883441</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,58 +1607,58 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
+        <v>1.825</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
         <v>1.85</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.95</v>
       </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
       <c r="W13">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,16 +1667,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6884116</v>
+        <v>6884048</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45143.5</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N14">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6883847</v>
+        <v>6883442</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,70 +1877,70 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <v>2.4</v>
+      </c>
+      <c r="L16">
+        <v>3.2</v>
+      </c>
+      <c r="M16">
+        <v>2.6</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <v>2.25</v>
-      </c>
-      <c r="L16">
-        <v>3.3</v>
-      </c>
-      <c r="M16">
-        <v>2.7</v>
-      </c>
-      <c r="N16">
-        <v>2.05</v>
-      </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6883442</v>
+        <v>6883847</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,70 +1966,70 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.95</v>
+      </c>
+      <c r="AB17">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.875</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6883443</v>
+        <v>6883848</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
+        <v>1.75</v>
+      </c>
+      <c r="O18">
+        <v>3.8</v>
+      </c>
+      <c r="P18">
+        <v>4.5</v>
+      </c>
+      <c r="Q18">
+        <v>-0.75</v>
+      </c>
+      <c r="R18">
         <v>1.95</v>
       </c>
-      <c r="O18">
-        <v>3.5</v>
-      </c>
-      <c r="P18">
-        <v>3.8</v>
-      </c>
-      <c r="Q18">
-        <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.975</v>
-      </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U18">
+        <v>1.75</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
       <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>2.8</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.95</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6884049</v>
+        <v>6883873</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L19">
+        <v>3.3</v>
+      </c>
+      <c r="M19">
         <v>3.4</v>
       </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
       <c r="N19">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
         <v>3.5</v>
       </c>
       <c r="P19">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>3</v>
       </c>
-      <c r="U19">
-        <v>1.975</v>
-      </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>1.55</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883848</v>
+        <v>6884049</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
         <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6883873</v>
+        <v>6884117</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O21">
         <v>3.5</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.775</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>1.925</v>
+      </c>
+      <c r="V21">
+        <v>1.875</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>1.4</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>1.025</v>
+      </c>
+      <c r="AB21">
         <v>-0.5</v>
       </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.9</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>3</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
-      <c r="AA21">
-        <v>0.875</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6884117</v>
+        <v>6883443</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N22">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2589,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6883446</v>
+        <v>6883849</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,40 +2853,40 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
         <v>1.95</v>
@@ -2895,16 +2895,16 @@
         <v>1.85</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2919,10 +2919,10 @@
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6884050</v>
+        <v>6883446</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,58 +2942,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N28">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,13 +3002,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6883849</v>
+        <v>6884050</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,10 +3034,10 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3046,19 +3046,19 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3067,19 +3067,19 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>0.5</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6883793</v>
+        <v>6878160</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,53 +3123,53 @@
         <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
         <v>46</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.9</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.8</v>
+      </c>
+      <c r="V30">
         <v>2</v>
       </c>
-      <c r="S30">
-        <v>1.8</v>
-      </c>
-      <c r="T30">
-        <v>3.5</v>
-      </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
@@ -3177,19 +3177,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB30">
         <v>0.8</v>
       </c>
-      <c r="AB30">
-        <v>-1</v>
-      </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6878160</v>
+        <v>6883793</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,73 +3212,73 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>46</v>
       </c>
       <c r="K31">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L31">
         <v>3.6</v>
       </c>
       <c r="M31">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1.8</v>
+      </c>
+      <c r="T31">
+        <v>3.5</v>
+      </c>
+      <c r="U31">
         <v>1.9</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.9</v>
       </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.8</v>
-      </c>
-      <c r="V31">
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
         <v>2</v>
       </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>2.2</v>
-      </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.8</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB31">
-        <v>0.8</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6883850</v>
+        <v>6883447</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6883447</v>
+        <v>6884158</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,7 +3654,7 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>43</v>
@@ -3663,49 +3663,49 @@
         <v>4</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>45</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.45</v>
+      </c>
+      <c r="N36">
+        <v>2.45</v>
+      </c>
+      <c r="O36">
         <v>3.5</v>
       </c>
-      <c r="M36">
-        <v>3.6</v>
-      </c>
-      <c r="N36">
-        <v>1.533</v>
-      </c>
-      <c r="O36">
-        <v>4.75</v>
-      </c>
       <c r="P36">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,13 +3714,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6884158</v>
+        <v>6883850</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>4</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N37">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
         <v>34</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4455,10 +4455,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4544,7 +4544,7 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -4636,7 +4636,7 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6883452</v>
+        <v>6884063</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48">
+        <v>1.533</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>4.8</v>
+      </c>
+      <c r="N48">
+        <v>1.5</v>
+      </c>
+      <c r="O48">
+        <v>4.5</v>
+      </c>
+      <c r="P48">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <v>-1.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1.8</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>1.8</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>0.5</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>-1</v>
+      </c>
+      <c r="Z48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48">
-        <v>2.625</v>
-      </c>
-      <c r="L48">
-        <v>3.3</v>
-      </c>
-      <c r="M48">
-        <v>2.3</v>
-      </c>
-      <c r="N48">
-        <v>2.7</v>
-      </c>
-      <c r="O48">
-        <v>3.2</v>
-      </c>
-      <c r="P48">
-        <v>2.7</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>1.9</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.925</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
-      <c r="W48">
-        <v>-1</v>
-      </c>
-      <c r="X48">
-        <v>2.2</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,10 +4811,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6884063</v>
+        <v>6883452</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <v>2.625</v>
+      </c>
+      <c r="L50">
+        <v>3.3</v>
+      </c>
+      <c r="M50">
+        <v>2.3</v>
+      </c>
+      <c r="N50">
+        <v>2.7</v>
+      </c>
+      <c r="O50">
+        <v>3.2</v>
+      </c>
+      <c r="P50">
+        <v>2.7</v>
+      </c>
+      <c r="Q50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>45</v>
-      </c>
-      <c r="K50">
-        <v>1.533</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
-      <c r="M50">
-        <v>4.8</v>
-      </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4.5</v>
-      </c>
-      <c r="P50">
-        <v>6</v>
-      </c>
-      <c r="Q50">
-        <v>-1.25</v>
-      </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6884566</v>
+        <v>6878163</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6878163</v>
+        <v>6884566</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
         <v>3.6</v>
       </c>
       <c r="M53">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N53">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O53">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,73 +5615,73 @@
         <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M58">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.75</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>1.75</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y58">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L59">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N59">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.75</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5879,7 +5879,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
         <v>44</v>
@@ -5968,10 +5968,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
         <v>35</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6883455</v>
+        <v>6883852</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
         <v>1.825</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45192.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
         <v>38</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6883852</v>
+        <v>6883455</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
+        <v>1.975</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
         <v>1.9</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.9</v>
       </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>41</v>
@@ -6594,7 +6594,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6680,7 +6680,7 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>44</v>
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6884068</v>
+        <v>6884056</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S71">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6884056</v>
+        <v>6884068</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N72">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6878187</v>
+        <v>6884165</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="N73">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6883887</v>
+        <v>6878187</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="J74" t="s">
-        <v>46</v>
-      </c>
-      <c r="K74">
-        <v>2.1</v>
-      </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>2.875</v>
-      </c>
       <c r="N74">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6884165</v>
+        <v>6883887</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,49 +7125,49 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N75">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
         <v>1.85</v>
@@ -7182,13 +7182,13 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
         <v>0.8500000000000001</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6883486</v>
+        <v>6884105</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,13 +7303,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7318,43 +7318,43 @@
         <v>45</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
         <v>4</v>
       </c>
       <c r="M77">
+        <v>4.8</v>
+      </c>
+      <c r="N77">
+        <v>1.55</v>
+      </c>
+      <c r="O77">
         <v>4.333</v>
       </c>
-      <c r="N77">
-        <v>1.3</v>
-      </c>
-      <c r="O77">
-        <v>5.25</v>
-      </c>
       <c r="P77">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q77">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R77">
+        <v>1.75</v>
+      </c>
+      <c r="S77">
         <v>1.95</v>
       </c>
-      <c r="S77">
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
         <v>1.85</v>
       </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
-      <c r="U77">
-        <v>1.7</v>
-      </c>
       <c r="V77">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>0.75</v>
+      </c>
+      <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.95</v>
-      </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
-      <c r="AB77">
-        <v>0.7</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,10 +7392,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s">
         <v>43</v>
-      </c>
-      <c r="G78" t="s">
-        <v>42</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6884105</v>
+        <v>6878188</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,76 +7481,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>2</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z79">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,10 +7570,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6878188</v>
+        <v>6883486</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N81">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P81">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7837,10 +7837,10 @@
         <v>45210.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8193,10 +8193,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8371,7 +8371,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8460,7 +8460,7 @@
         <v>45214.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8552,7 +8552,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8727,10 +8727,10 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8816,7 +8816,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9086,7 +9086,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6883891</v>
+        <v>6883866</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,73 +9350,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
         <v>3.6</v>
       </c>
       <c r="M100">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O100">
         <v>4.2</v>
       </c>
       <c r="P100">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9442,7 +9442,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6883866</v>
+        <v>6883891</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,70 +9531,70 @@
         <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L102">
         <v>3.6</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N102">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
         <v>4.2</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884124</v>
+        <v>6884112</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,73 +9617,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
+        <v>2.4</v>
+      </c>
+      <c r="N103">
         <v>3.1</v>
       </c>
-      <c r="N103">
-        <v>2.05</v>
-      </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.775</v>
+      </c>
+      <c r="V103">
+        <v>1.925</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>2.75</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.475</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.8</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2</v>
-      </c>
-      <c r="V103">
-        <v>1.8</v>
-      </c>
-      <c r="W103">
-        <v>1.05</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>1</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9706,10 +9706,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,73 +9795,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>45</v>
+      </c>
+      <c r="K105">
         <v>2</v>
-      </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
-      <c r="J105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K105">
-        <v>2.625</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N105">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X105">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6883458</v>
+        <v>6884160</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,58 +9976,58 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M107">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="N107">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P107">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
+        <v>1.825</v>
+      </c>
+      <c r="S107">
+        <v>1.975</v>
+      </c>
+      <c r="T107">
+        <v>3</v>
+      </c>
+      <c r="U107">
         <v>1.95</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
-      </c>
-      <c r="V107">
-        <v>1.825</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10036,13 +10036,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.825</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6884160</v>
+        <v>6883458</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,58 +10065,58 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L108">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O108">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q108">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>1.975</v>
+      </c>
+      <c r="V108">
         <v>1.825</v>
       </c>
-      <c r="S108">
-        <v>1.975</v>
-      </c>
-      <c r="T108">
-        <v>3</v>
-      </c>
-      <c r="U108">
-        <v>1.95</v>
-      </c>
-      <c r="V108">
-        <v>1.85</v>
-      </c>
       <c r="W108">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10125,13 +10125,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,10 +10151,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10243,7 +10243,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H110">
         <v>4</v>
@@ -10332,7 +10332,7 @@
         <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10774,7 +10774,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
         <v>31</v>
@@ -10863,7 +10863,7 @@
         <v>45241.375</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
         <v>30</v>
@@ -10955,7 +10955,7 @@
         <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6884071</v>
+        <v>6884161</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,70 +11047,70 @@
         <v>34</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L119">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N119">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P119">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
         <v>1.775</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6884161</v>
+        <v>6884071</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,73 +11133,73 @@
         <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
+      <c r="J120" t="s">
+        <v>46</v>
+      </c>
+      <c r="K120">
+        <v>3.1</v>
+      </c>
+      <c r="L120">
+        <v>3.7</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2.75</v>
+      </c>
+      <c r="O120">
+        <v>3.5</v>
+      </c>
+      <c r="P120">
+        <v>2.4</v>
+      </c>
+      <c r="Q120">
         <v>0</v>
       </c>
-      <c r="J120" t="s">
-        <v>45</v>
-      </c>
-      <c r="K120">
-        <v>1.5</v>
-      </c>
-      <c r="L120">
-        <v>4.1</v>
-      </c>
-      <c r="M120">
-        <v>5.5</v>
-      </c>
-      <c r="N120">
-        <v>1.3</v>
-      </c>
-      <c r="O120">
-        <v>6</v>
-      </c>
-      <c r="P120">
-        <v>8.5</v>
-      </c>
-      <c r="Q120">
-        <v>-2</v>
-      </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
         <v>1.775</v>
       </c>
       <c r="T120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W120">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11219,7 +11219,7 @@
         <v>45245.375</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
         <v>37</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6884120</v>
+        <v>6883855</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,55 +11308,55 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J122" t="s">
         <v>46</v>
       </c>
       <c r="K122">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="L122">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
         <v>4.75</v>
       </c>
       <c r="P122">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11365,19 +11365,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.571</v>
+        <v>5</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6884074</v>
+        <v>6884120</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z123">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6883855</v>
+        <v>6884074</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" t="s">
         <v>33</v>
       </c>
-      <c r="G124" t="s">
-        <v>42</v>
-      </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
+        <v>2.5</v>
+      </c>
+      <c r="N124">
+        <v>2.8</v>
+      </c>
+      <c r="O124">
         <v>3.75</v>
       </c>
-      <c r="N124">
-        <v>1.45</v>
-      </c>
-      <c r="O124">
-        <v>4.75</v>
-      </c>
       <c r="P124">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6878167</v>
+        <v>6883462</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N125">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O125">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6883462</v>
+        <v>6878167</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N126">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P126">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -12001,6 +12001,154 @@
       </c>
       <c r="AC129">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>6883463</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45352.54166666666</v>
+      </c>
+      <c r="F130" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130">
+        <v>1.909</v>
+      </c>
+      <c r="L130">
+        <v>3.6</v>
+      </c>
+      <c r="M130">
+        <v>3.2</v>
+      </c>
+      <c r="N130">
+        <v>2.2</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>3.2</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
+        <v>2</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6878176</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45352.625</v>
+      </c>
+      <c r="F131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s">
+        <v>35</v>
+      </c>
+      <c r="K131">
+        <v>2.5</v>
+      </c>
+      <c r="L131">
+        <v>3.6</v>
+      </c>
+      <c r="M131">
+        <v>2.3</v>
+      </c>
+      <c r="N131">
+        <v>2.75</v>
+      </c>
+      <c r="O131">
+        <v>3.6</v>
+      </c>
+      <c r="P131">
+        <v>2.5</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.8</v>
+      </c>
+      <c r="T131">
+        <v>2.75</v>
+      </c>
+      <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
+        <v>2</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,31 +106,31 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
+    <t>FC Petrzalka</t>
+  </si>
+  <si>
+    <t>Dolny Kubin</t>
+  </si>
+  <si>
     <t>Spisska Nova Ves</t>
+  </si>
+  <si>
+    <t>MSK Povazska Bystrica</t>
+  </si>
+  <si>
+    <t>Puchov</t>
   </si>
   <si>
     <t>FK Humenne</t>
   </si>
   <si>
-    <t>Puchov</t>
-  </si>
-  <si>
-    <t>MSK Povazska Bystrica</t>
-  </si>
-  <si>
-    <t>Dolny Kubin</t>
-  </si>
-  <si>
-    <t>FC Petrzalka</t>
-  </si>
-  <si>
     <t>OFK Malzenice</t>
   </si>
   <si>
-    <t>FK Pohronie</t>
+    <t>Spartak Myjava</t>
   </si>
   <si>
-    <t>Spartak Myjava</t>
+    <t>FK Pohronie</t>
   </si>
   <si>
     <t>KFC Komarno</t>
@@ -139,13 +139,13 @@
     <t>FC Tatran Presov</t>
   </si>
   <si>
+    <t>STK Samorin</t>
+  </si>
+  <si>
     <t>Slovan Bratislava B</t>
   </si>
   <si>
     <t>MSK Zilina B</t>
-  </si>
-  <si>
-    <t>STK Samorin</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6883439</v>
+        <v>6982596</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6883440</v>
+        <v>6884167</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,52 +809,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
+        <v>2.7</v>
+      </c>
+      <c r="L4">
+        <v>3.3</v>
+      </c>
+      <c r="M4">
+        <v>2.25</v>
+      </c>
+      <c r="N4">
         <v>2.6</v>
       </c>
-      <c r="L4">
-        <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>2.375</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
       <c r="O4">
+        <v>3.8</v>
+      </c>
+      <c r="P4">
+        <v>2.45</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
         <v>3.25</v>
       </c>
-      <c r="P4">
-        <v>2.5</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>2.05</v>
-      </c>
-      <c r="S4">
-        <v>1.75</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -863,19 +863,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6883846</v>
+        <v>6883439</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L5">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z5">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6884167</v>
+        <v>6883846</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,46 +1076,46 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L7">
         <v>3.3</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
         <v>1.9</v>
@@ -1124,25 +1124,25 @@
         <v>1.9</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
+        <v>0.45</v>
+      </c>
+      <c r="AC7">
         <v>-0.5</v>
-      </c>
-      <c r="AC7">
-        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6982596</v>
+        <v>6883440</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,16 +1165,16 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>2.6</v>
@@ -1183,55 +1183,55 @@
         <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
+        <v>1.8</v>
+      </c>
+      <c r="V8">
         <v>2</v>
       </c>
-      <c r="V8">
-        <v>1.8</v>
-      </c>
       <c r="W8">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6884059</v>
+        <v>6884047</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,43 +1343,43 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
         <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6884047</v>
+        <v>6884059</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,43 +1432,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O11">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>3</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y11">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
+        <v>0.8</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB11">
-        <v>0.95</v>
-      </c>
-      <c r="AC11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6883441</v>
+        <v>6884048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
         <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N13">
+        <v>1.55</v>
+      </c>
+      <c r="O13">
+        <v>4.333</v>
+      </c>
+      <c r="P13">
+        <v>5.75</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
         <v>1.85</v>
       </c>
-      <c r="O13">
-        <v>3.6</v>
-      </c>
-      <c r="P13">
-        <v>4.2</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W13">
+        <v>0.55</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>0.825</v>
-      </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6884048</v>
+        <v>6883441</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45143.5</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
+        <v>2.5</v>
+      </c>
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.95</v>
       </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6878158</v>
+        <v>6883847</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N15">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z15">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.875</v>
@@ -1925,25 +1925,25 @@
         <v>1.925</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6883847</v>
+        <v>6883442</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,70 +1966,70 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17">
+        <v>2.6</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>2.25</v>
-      </c>
-      <c r="L17">
-        <v>3.3</v>
-      </c>
-      <c r="M17">
-        <v>2.7</v>
-      </c>
-      <c r="N17">
-        <v>2.05</v>
-      </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6883848</v>
+        <v>6883443</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
+        <v>2.4</v>
+      </c>
+      <c r="L18">
+        <v>3.3</v>
+      </c>
+      <c r="M18">
+        <v>2.55</v>
+      </c>
+      <c r="N18">
         <v>1.95</v>
       </c>
-      <c r="L18">
-        <v>3.4</v>
-      </c>
-      <c r="M18">
-        <v>3.25</v>
-      </c>
-      <c r="N18">
-        <v>1.75</v>
-      </c>
       <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
         <v>3.8</v>
       </c>
-      <c r="P18">
-        <v>4.5</v>
-      </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.825</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.75</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883873</v>
+        <v>6883848</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,73 +2144,73 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>1.95</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6884049</v>
+        <v>6883873</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L20">
+        <v>3.3</v>
+      </c>
+      <c r="M20">
         <v>3.4</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
       <c r="N20">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
         <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1.975</v>
-      </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>1.55</v>
-      </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6884117</v>
+        <v>6884049</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,10 +2319,10 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2334,40 +2334,40 @@
         <v>46</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O21">
         <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q21">
         <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2376,19 +2376,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6883443</v>
+        <v>6884117</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>3.25</v>
+      </c>
+      <c r="U22">
+        <v>1.925</v>
+      </c>
+      <c r="V22">
+        <v>1.875</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>1.4</v>
+      </c>
+      <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>1.025</v>
+      </c>
+      <c r="AB22">
         <v>-0.5</v>
       </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
-      <c r="W22">
-        <v>0.95</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6878159</v>
+        <v>6883444</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,56 +2497,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23">
+        <v>4.2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.6</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>1.45</v>
+      </c>
+      <c r="Q23">
+        <v>1.25</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>3.25</v>
-      </c>
-      <c r="N23">
-        <v>1.909</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>3.75</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.925</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2554,19 +2554,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6883444</v>
+        <v>6878159</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,56 +2586,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="V24">
-        <v>1.875</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6884060</v>
+        <v>6884061</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,55 +2678,55 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2735,13 +2735,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6884061</v>
+        <v>6884060</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,55 +2767,55 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L26">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2824,13 +2824,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6883446</v>
+        <v>6884050</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,58 +2942,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,13 +3002,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6884050</v>
+        <v>6883446</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,58 +3031,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N29">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,13 +3091,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3120,10 +3120,10 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3298,10 +3298,10 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3387,10 +3387,10 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6883874</v>
+        <v>6883850</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,16 +3565,16 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>46</v>
@@ -3589,16 +3589,16 @@
         <v>2.2</v>
       </c>
       <c r="N35">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3607,10 +3607,10 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
         <v>1.95</v>
@@ -3622,7 +3622,7 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z35">
         <v>-1</v>
@@ -3631,10 +3631,10 @@
         <v>0.875</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6884158</v>
+        <v>6883874</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6883850</v>
+        <v>6884158</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3832,7 +3832,7 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -4010,7 +4010,7 @@
         <v>45170.54513888889</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>40</v>
@@ -4099,10 +4099,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4280,7 +4280,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6884159</v>
+        <v>6883450</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,73 +4455,73 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
+        <v>2.25</v>
+      </c>
+      <c r="L45">
+        <v>3.3</v>
+      </c>
+      <c r="M45">
         <v>2.75</v>
       </c>
-      <c r="L45">
+      <c r="N45">
+        <v>2.375</v>
+      </c>
+      <c r="O45">
         <v>3.5</v>
       </c>
-      <c r="M45">
-        <v>2.25</v>
-      </c>
-      <c r="N45">
-        <v>4.333</v>
-      </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
       <c r="P45">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6883450</v>
+        <v>6884159</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,70 +4547,70 @@
         <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
         <v>2.25</v>
       </c>
-      <c r="L46">
-        <v>3.3</v>
-      </c>
-      <c r="M46">
-        <v>2.75</v>
-      </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z46">
         <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4633,10 +4633,10 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6884063</v>
+        <v>6883851</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,73 +4722,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>4</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6883851</v>
+        <v>6883452</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
+        <v>2.7</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1.9</v>
+      </c>
+      <c r="S49">
+        <v>1.9</v>
+      </c>
+      <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
+        <v>1.925</v>
+      </c>
+      <c r="V49">
+        <v>1.875</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
         <v>2.2</v>
       </c>
-      <c r="Q49">
-        <v>0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.875</v>
-      </c>
-      <c r="S49">
-        <v>1.925</v>
-      </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>1.85</v>
-      </c>
-      <c r="V49">
-        <v>1.95</v>
-      </c>
-      <c r="W49">
-        <v>-1</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
       <c r="Y49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883452</v>
+        <v>6883451</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
       <c r="K50">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="N50">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P50">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6883451</v>
+        <v>6884063</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,19 +4989,19 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>1.533</v>
@@ -5013,52 +5013,52 @@
         <v>4.8</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q51">
         <v>-1.25</v>
       </c>
       <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>1.8</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
         <v>2</v>
       </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>1.975</v>
-      </c>
-      <c r="V51">
-        <v>1.825</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5170,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5345,10 +5345,10 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>40</v>
@@ -5523,7 +5523,7 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
         <v>39</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,76 +5612,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K58">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L58">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
         <v>1.75</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
         <v>32</v>
       </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M59">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.75</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>1.75</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6879734</v>
+        <v>6883797</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,73 +5790,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60">
+        <v>2.625</v>
+      </c>
+      <c r="L60">
+        <v>3.5</v>
+      </c>
+      <c r="M60">
+        <v>2.25</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>3.8</v>
+      </c>
+      <c r="P60">
+        <v>1.8</v>
+      </c>
+      <c r="Q60">
+        <v>0.5</v>
+      </c>
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-      <c r="J60" t="s">
-        <v>47</v>
-      </c>
-      <c r="K60">
-        <v>1.25</v>
-      </c>
-      <c r="L60">
-        <v>5</v>
-      </c>
-      <c r="M60">
-        <v>8.5</v>
-      </c>
-      <c r="N60">
-        <v>1.363</v>
-      </c>
-      <c r="O60">
-        <v>5</v>
-      </c>
-      <c r="P60">
-        <v>7.5</v>
-      </c>
-      <c r="Q60">
-        <v>-1.25</v>
-      </c>
-      <c r="R60">
-        <v>1.75</v>
-      </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X60">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6883797</v>
+        <v>6879734</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,73 +5879,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P61">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
+        <v>0.95</v>
+      </c>
+      <c r="AB61">
         <v>1</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6878164</v>
+        <v>6884065</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,10 +5968,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5983,61 +5983,61 @@
         <v>47</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M62">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R62">
+        <v>1.975</v>
+      </c>
+      <c r="S62">
         <v>1.825</v>
       </c>
-      <c r="S62">
-        <v>1.975</v>
-      </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6883852</v>
+        <v>6878164</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
         <v>30</v>
       </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
+        <v>2.75</v>
+      </c>
+      <c r="L63">
         <v>3.4</v>
       </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
       <c r="M63">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N63">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y63">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA63">
+        <v>-0.5</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6883456</v>
+        <v>6883455</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,34 +6161,34 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N64">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6197,7 +6197,7 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6206,10 +6206,10 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6884065</v>
+        <v>6883456</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N65">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O65">
         <v>4.2</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
         <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
         <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X65">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6883455</v>
+        <v>6883852</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N66">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
         <v>1.825</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.975</v>
       </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6416,7 +6416,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6502,10 +6502,10 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" t="s">
         <v>42</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6591,10 +6591,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6883799</v>
+        <v>6884068</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
+        <v>3.75</v>
+      </c>
+      <c r="N70">
+        <v>2.05</v>
+      </c>
+      <c r="O70">
+        <v>3.75</v>
+      </c>
+      <c r="P70">
         <v>3.4</v>
       </c>
-      <c r="M70">
-        <v>2.625</v>
-      </c>
-      <c r="N70">
-        <v>2.3</v>
-      </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>3</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
+        <v>1.975</v>
+      </c>
+      <c r="V70">
         <v>1.825</v>
       </c>
-      <c r="V70">
-        <v>1.975</v>
-      </c>
       <c r="W70">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6884068</v>
+        <v>6883799</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6861,73 +6861,73 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72">
+        <v>2.25</v>
+      </c>
+      <c r="L72">
+        <v>3.4</v>
+      </c>
+      <c r="M72">
+        <v>2.625</v>
+      </c>
+      <c r="N72">
+        <v>2.3</v>
+      </c>
+      <c r="O72">
+        <v>3.5</v>
+      </c>
+      <c r="P72">
         <v>3</v>
       </c>
-      <c r="J72" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72">
-        <v>1.727</v>
-      </c>
-      <c r="L72">
-        <v>3.75</v>
-      </c>
-      <c r="M72">
-        <v>3.75</v>
-      </c>
-      <c r="N72">
-        <v>2.05</v>
-      </c>
-      <c r="O72">
-        <v>3.75</v>
-      </c>
-      <c r="P72">
-        <v>3.4</v>
-      </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
         <v>2.75</v>
       </c>
       <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
         <v>1.975</v>
       </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA72">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6884165</v>
+        <v>6883887</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,49 +6947,49 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
         <v>46</v>
       </c>
       <c r="K73">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
         <v>1.85</v>
@@ -7004,13 +7004,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
         <v>0.8500000000000001</v>
@@ -7036,10 +7036,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
         <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6883887</v>
+        <v>6884165</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,46 +7128,46 @@
         <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N75">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
         <v>1.85</v>
@@ -7182,13 +7182,13 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
         <v>0.8500000000000001</v>
@@ -7214,10 +7214,10 @@
         <v>45205.5</v>
       </c>
       <c r="F76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" t="s">
         <v>37</v>
-      </c>
-      <c r="G76" t="s">
-        <v>38</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6884105</v>
+        <v>6878188</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>2</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6884571</v>
+        <v>6883485</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,10 +7392,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7407,43 +7407,43 @@
         <v>45</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
         <v>1.85</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="T78">
-        <v>3.5</v>
-      </c>
-      <c r="U78">
-        <v>1.875</v>
-      </c>
-      <c r="V78">
-        <v>1.925</v>
-      </c>
       <c r="W78">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,7 +7452,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7461,7 +7461,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6878188</v>
+        <v>6883486</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,76 +7481,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N79">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P79">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
         <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6883485</v>
+        <v>6884105</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,13 +7570,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7585,34 +7585,34 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N80">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7621,7 +7621,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.833</v>
+        <v>0.55</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,7 +7630,7 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6883486</v>
+        <v>6884571</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,13 +7659,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7674,43 +7674,43 @@
         <v>45</v>
       </c>
       <c r="K81">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N81">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="O81">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="Q81">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
         <v>1.95</v>
       </c>
-      <c r="S81">
-        <v>1.85</v>
-      </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>0.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7719,16 +7719,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7926,10 +7926,10 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6883488</v>
+        <v>6884123</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,7 +8107,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8119,31 +8119,31 @@
         <v>45</v>
       </c>
       <c r="K86">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
         <v>1.725</v>
-      </c>
-      <c r="S86">
-        <v>2.075</v>
       </c>
       <c r="T86">
         <v>2.5</v>
@@ -8152,10 +8152,10 @@
         <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W86">
-        <v>0.333</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,10 +8164,10 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.5375000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>0.95</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6883864</v>
+        <v>6883488</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S87">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>0.75</v>
+        <v>0.5375000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6884106</v>
+        <v>6883864</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6884123</v>
+        <v>6884106</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8386,43 +8386,43 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45214.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8549,7 +8549,7 @@
         <v>45219.5</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>33</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6878190</v>
+        <v>6884109</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O93">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
+        <v>1.825</v>
+      </c>
+      <c r="S93">
+        <v>1.975</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
         <v>1.95</v>
       </c>
-      <c r="S93">
+      <c r="V93">
         <v>1.85</v>
       </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>1.8</v>
-      </c>
-      <c r="V93">
-        <v>2</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X93">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA93">
+        <v>-0.5</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB93">
-        <v>-0.5</v>
-      </c>
-      <c r="AC93">
-        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6884109</v>
+        <v>6878190</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>47</v>
+      </c>
+      <c r="K94">
+        <v>1.727</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>3.5</v>
+      </c>
+      <c r="N94">
+        <v>1.75</v>
+      </c>
+      <c r="O94">
+        <v>4.333</v>
+      </c>
+      <c r="P94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.85</v>
+      </c>
+      <c r="T94">
+        <v>2.25</v>
+      </c>
+      <c r="U94">
+        <v>1.8</v>
+      </c>
+      <c r="V94">
         <v>2</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K94">
-        <v>1.25</v>
-      </c>
-      <c r="L94">
-        <v>5</v>
-      </c>
-      <c r="M94">
-        <v>9</v>
-      </c>
-      <c r="N94">
-        <v>1.25</v>
-      </c>
-      <c r="O94">
-        <v>5.75</v>
-      </c>
-      <c r="P94">
-        <v>13</v>
-      </c>
-      <c r="Q94">
-        <v>-1.75</v>
-      </c>
-      <c r="R94">
-        <v>1.825</v>
-      </c>
-      <c r="S94">
-        <v>1.975</v>
-      </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
       <c r="W94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB94">
         <v>-0.5</v>
       </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,10 +8905,10 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9083,10 +9083,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s">
         <v>41</v>
-      </c>
-      <c r="G97" t="s">
-        <v>43</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6883491</v>
+        <v>6883891</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
+        <v>1.65</v>
+      </c>
+      <c r="L98">
+        <v>3.6</v>
+      </c>
+      <c r="M98">
         <v>4.75</v>
       </c>
-      <c r="L98">
-        <v>3.8</v>
-      </c>
-      <c r="M98">
-        <v>1.6</v>
-      </c>
       <c r="N98">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="O98">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q98">
+        <v>-1</v>
+      </c>
+      <c r="R98">
+        <v>1.825</v>
+      </c>
+      <c r="S98">
+        <v>1.975</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
         <v>2</v>
       </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>1.85</v>
-      </c>
-      <c r="T98">
-        <v>3.25</v>
-      </c>
-      <c r="U98">
-        <v>1.7</v>
-      </c>
-      <c r="V98">
-        <v>2.1</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6883492</v>
+        <v>6883491</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,73 +9264,73 @@
         <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N99">
+        <v>9</v>
+      </c>
+      <c r="O99">
+        <v>6</v>
+      </c>
+      <c r="P99">
+        <v>1.2</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
+        <v>1.7</v>
+      </c>
+      <c r="V99">
         <v>2.1</v>
       </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>3.5</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.8</v>
-      </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6883866</v>
+        <v>6883492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,73 +9350,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9442,7 +9442,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6883891</v>
+        <v>6883866</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,73 +9528,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L102">
         <v>3.6</v>
       </c>
       <c r="M102">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O102">
         <v>4.2</v>
       </c>
       <c r="P102">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,73 +9617,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103">
         <v>2</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>47</v>
-      </c>
-      <c r="K103">
-        <v>2.625</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9706,7 +9706,7 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
         <v>39</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6884124</v>
+        <v>6884112</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,73 +9795,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
+        <v>2.4</v>
+      </c>
+      <c r="N105">
         <v>3.1</v>
       </c>
-      <c r="N105">
-        <v>2.05</v>
-      </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q105">
+        <v>0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.775</v>
+      </c>
+      <c r="V105">
+        <v>1.925</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>2.75</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.475</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
       </c>
-      <c r="R105">
-        <v>2</v>
-      </c>
-      <c r="S105">
-        <v>1.8</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>2</v>
-      </c>
-      <c r="V105">
-        <v>1.8</v>
-      </c>
-      <c r="W105">
-        <v>1.05</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>1</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
       <c r="AB105">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9884,7 +9884,7 @@
         <v>45233.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6884160</v>
+        <v>6883458</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,61 +9973,61 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>1.975</v>
+      </c>
+      <c r="V107">
         <v>1.825</v>
       </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10036,13 +10036,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6883458</v>
+        <v>6884160</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,61 +10062,61 @@
         <v>45234.375</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="N108">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P108">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
+        <v>1.975</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
         <v>1.95</v>
       </c>
-      <c r="S108">
+      <c r="V108">
         <v>1.85</v>
       </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10125,13 +10125,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,10 +10151,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6884119</v>
+        <v>6883853</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>4</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6883853</v>
+        <v>6884119</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
         <v>41</v>
       </c>
-      <c r="G111" t="s">
-        <v>32</v>
-      </c>
       <c r="H111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
         <v>3.6</v>
       </c>
       <c r="M111">
+        <v>2.625</v>
+      </c>
+      <c r="N111">
+        <v>2.05</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>3.1</v>
+      </c>
+      <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
         <v>2</v>
-      </c>
-      <c r="N111">
-        <v>2.7</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>2.375</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>2.025</v>
-      </c>
-      <c r="S111">
-        <v>1.775</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10418,7 +10418,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10507,10 +10507,10 @@
         <v>45240.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6883801</v>
+        <v>6883877</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114">
+        <v>1.666</v>
+      </c>
+      <c r="L114">
+        <v>4.1</v>
+      </c>
+      <c r="M114">
         <v>4</v>
       </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
-      <c r="J114" t="s">
-        <v>45</v>
-      </c>
-      <c r="K114">
-        <v>1.8</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>3.5</v>
-      </c>
       <c r="N114">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
         <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>1.95</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6883877</v>
+        <v>6883801</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
+        <v>1.571</v>
+      </c>
+      <c r="O115">
+        <v>4.2</v>
+      </c>
+      <c r="P115">
+        <v>6</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
-      </c>
-      <c r="O115">
-        <v>3.75</v>
-      </c>
-      <c r="P115">
-        <v>3.6</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.95</v>
-      </c>
-      <c r="S115">
-        <v>1.85</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6883459</v>
+        <v>6883460</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,46 +10774,46 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="N116">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P116">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R116">
+        <v>1.75</v>
+      </c>
+      <c r="S116">
         <v>1.95</v>
-      </c>
-      <c r="S116">
-        <v>1.85</v>
       </c>
       <c r="T116">
         <v>2.5</v>
@@ -10825,19 +10825,19 @@
         <v>1.875</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6883460</v>
+        <v>6883459</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,46 +10863,46 @@
         <v>45241.375</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="L117">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
         <v>5.75</v>
       </c>
-      <c r="P117">
-        <v>11</v>
-      </c>
       <c r="Q117">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
@@ -10914,19 +10914,19 @@
         <v>1.875</v>
       </c>
       <c r="W117">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10952,10 +10952,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11041,10 +11041,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11130,7 +11130,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
         <v>33</v>
@@ -11219,10 +11219,10 @@
         <v>45245.375</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -11308,10 +11308,10 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6884120</v>
+        <v>6884074</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6884074</v>
+        <v>6884120</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P124">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z124">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6883462</v>
+        <v>6878167</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6878167</v>
+        <v>6883462</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N126">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O126">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11845,7 +11845,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11931,10 +11931,10 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12020,10 +12020,19 @@
         <v>45352.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>46</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12035,46 +12044,52 @@
         <v>3.2</v>
       </c>
       <c r="N130">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
+        <v>1.775</v>
+      </c>
+      <c r="S130">
+        <v>2.025</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>1.85</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
         <v>1.9</v>
       </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>2.75</v>
-      </c>
-      <c r="U130">
-        <v>1.8</v>
-      </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-      <c r="X130">
-        <v>0</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB130">
+        <v>0.95</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12094,10 +12109,19 @@
         <v>45352.625</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
       </c>
       <c r="K131">
         <v>2.5</v>
@@ -12109,45 +12133,495 @@
         <v>2.3</v>
       </c>
       <c r="N131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O131">
         <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q131">
         <v>0</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.85</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.6</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>-0</v>
+      </c>
+      <c r="AB131">
+        <v>0.95</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6883856</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s">
+        <v>34</v>
+      </c>
+      <c r="K132">
+        <v>2.1</v>
+      </c>
+      <c r="L132">
+        <v>3.4</v>
+      </c>
+      <c r="M132">
+        <v>3.5</v>
+      </c>
+      <c r="N132">
+        <v>2.05</v>
+      </c>
+      <c r="O132">
+        <v>3.5</v>
+      </c>
+      <c r="P132">
+        <v>3.6</v>
+      </c>
+      <c r="Q132">
+        <v>-0.5</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
         <v>1.8</v>
       </c>
-      <c r="V131">
+      <c r="T132">
+        <v>2.75</v>
+      </c>
+      <c r="U132">
+        <v>1.925</v>
+      </c>
+      <c r="V132">
+        <v>1.875</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6883464</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+      <c r="K133">
+        <v>1.333</v>
+      </c>
+      <c r="L133">
+        <v>5</v>
+      </c>
+      <c r="M133">
+        <v>9.5</v>
+      </c>
+      <c r="N133">
+        <v>1.3</v>
+      </c>
+      <c r="O133">
+        <v>5.5</v>
+      </c>
+      <c r="P133">
+        <v>10.5</v>
+      </c>
+      <c r="Q133">
+        <v>-1.5</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
+        <v>1.95</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>6883802</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45353.4375</v>
+      </c>
+      <c r="F134" t="s">
+        <v>44</v>
+      </c>
+      <c r="G134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K134">
+        <v>3.75</v>
+      </c>
+      <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
         <v>2</v>
       </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-      <c r="X131">
-        <v>0</v>
-      </c>
-      <c r="Y131">
-        <v>0</v>
-      </c>
-      <c r="Z131">
-        <v>0</v>
-      </c>
-      <c r="AA131">
+      <c r="N134">
+        <v>3.2</v>
+      </c>
+      <c r="O134">
+        <v>3.4</v>
+      </c>
+      <c r="P134">
+        <v>2.25</v>
+      </c>
+      <c r="Q134">
+        <v>0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>1.925</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>1.8</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>6884121</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45354.27083333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>43</v>
+      </c>
+      <c r="G135" t="s">
+        <v>32</v>
+      </c>
+      <c r="K135">
+        <v>1.25</v>
+      </c>
+      <c r="L135">
+        <v>5.75</v>
+      </c>
+      <c r="M135">
+        <v>13</v>
+      </c>
+      <c r="N135">
+        <v>1.363</v>
+      </c>
+      <c r="O135">
+        <v>5</v>
+      </c>
+      <c r="P135">
+        <v>7.5</v>
+      </c>
+      <c r="Q135">
+        <v>-1.5</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>1.9</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>6884075</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45354.27083333334</v>
+      </c>
+      <c r="F136" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="K136">
+        <v>2.1</v>
+      </c>
+      <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>3.3</v>
+      </c>
+      <c r="N136">
+        <v>2.05</v>
+      </c>
+      <c r="O136">
+        <v>3.6</v>
+      </c>
+      <c r="P136">
+        <v>3.4</v>
+      </c>
+      <c r="Q136">
+        <v>-0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.025</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>1.8</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>6883878</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137">
+        <v>1.6</v>
+      </c>
+      <c r="L137">
+        <v>4.333</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>1.666</v>
+      </c>
+      <c r="O137">
+        <v>4.2</v>
+      </c>
+      <c r="P137">
+        <v>4.5</v>
+      </c>
+      <c r="Q137">
+        <v>-0.75</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>1.975</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>1.925</v>
+      </c>
+      <c r="V137">
+        <v>1.875</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,22 +106,22 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
+    <t>Spisska Nova Ves</t>
+  </si>
+  <si>
+    <t>FK Humenne</t>
+  </si>
+  <si>
     <t>FC Petrzalka</t>
   </si>
   <si>
-    <t>Dolny Kubin</t>
-  </si>
-  <si>
-    <t>Spisska Nova Ves</t>
+    <t>Puchov</t>
   </si>
   <si>
     <t>MSK Povazska Bystrica</t>
   </si>
   <si>
-    <t>Puchov</t>
-  </si>
-  <si>
-    <t>FK Humenne</t>
+    <t>Dolny Kubin</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
@@ -133,19 +133,19 @@
     <t>FK Pohronie</t>
   </si>
   <si>
-    <t>KFC Komarno</t>
+    <t>FC Tatran Presov</t>
   </si>
   <si>
-    <t>FC Tatran Presov</t>
+    <t>KFC Komarno</t>
   </si>
   <si>
     <t>STK Samorin</t>
   </si>
   <si>
-    <t>Slovan Bratislava B</t>
+    <t>MSK Zilina B</t>
   </si>
   <si>
-    <t>MSK Zilina B</t>
+    <t>Slovan Bratislava B</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6982596</v>
+        <v>6883439</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N3">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6884167</v>
+        <v>6883440</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,52 +809,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N4">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -863,19 +863,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6883439</v>
+        <v>6982596</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6884046</v>
+        <v>6883846</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
         <v>3.3</v>
       </c>
       <c r="M6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.75</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <v>0.45</v>
+      </c>
+      <c r="AC6">
         <v>-0.5</v>
-      </c>
-      <c r="AA6">
-        <v>0.4125</v>
-      </c>
-      <c r="AB6">
-        <v>0.925</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6883846</v>
+        <v>6884046</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
         <v>3.3</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB7">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6883440</v>
+        <v>6884167</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,52 +1165,52 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>46</v>
       </c>
       <c r="K8">
+        <v>2.7</v>
+      </c>
+      <c r="L8">
+        <v>3.3</v>
+      </c>
+      <c r="M8">
+        <v>2.25</v>
+      </c>
+      <c r="N8">
         <v>2.6</v>
       </c>
-      <c r="L8">
-        <v>3.2</v>
-      </c>
-      <c r="M8">
-        <v>2.375</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1219,19 +1219,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6884116</v>
+        <v>6884048</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,58 +1518,58 @@
         <v>45143.5</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,16 +1578,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6884048</v>
+        <v>6883441</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,58 +1607,58 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
+        <v>1.825</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
         <v>1.85</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.95</v>
       </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
       <c r="W13">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,16 +1667,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6883441</v>
+        <v>6884116</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,10 +1699,10 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1711,43 +1711,43 @@
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N14">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>0.8500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1765,7 +1765,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6878158</v>
+        <v>6883442</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.875</v>
@@ -1925,25 +1925,25 @@
         <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,46 +1966,46 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.875</v>
@@ -2014,25 +2014,25 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883848</v>
+        <v>6883873</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>1.95</v>
       </c>
       <c r="L19">
+        <v>3.3</v>
+      </c>
+      <c r="M19">
         <v>3.4</v>
       </c>
-      <c r="M19">
-        <v>3.25</v>
-      </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>3</v>
       </c>
-      <c r="U19">
-        <v>1.75</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.8</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883873</v>
+        <v>6883848</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>1.95</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2408,10 +2408,10 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6884061</v>
+        <v>6884060</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,58 +2675,58 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L25">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
       <c r="P25">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2735,13 +2735,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6884060</v>
+        <v>6884061</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,58 +2764,58 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2824,13 +2824,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6884050</v>
+        <v>6883446</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,58 +2942,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N28">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,13 +3002,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6883446</v>
+        <v>6884050</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,58 +3031,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>45</v>
       </c>
       <c r="K29">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,13 +3091,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6878160</v>
+        <v>6883793</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>46</v>
       </c>
       <c r="K30">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>3.5</v>
+      </c>
+      <c r="U30">
         <v>1.9</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.9</v>
       </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.8</v>
-      </c>
-      <c r="V30">
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
         <v>2</v>
       </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>2.2</v>
-      </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.8</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB30">
-        <v>0.8</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6883793</v>
+        <v>7068814</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,73 +3212,73 @@
         <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
+        <v>4.8</v>
+      </c>
+      <c r="N31">
         <v>2.5</v>
       </c>
-      <c r="N31">
-        <v>2.2</v>
-      </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>1.85</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
         <v>2</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.8</v>
       </c>
-      <c r="T31">
-        <v>3.5</v>
-      </c>
-      <c r="U31">
-        <v>1.9</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7068814</v>
+        <v>6878160</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,73 +3298,73 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>1.75</v>
+      </c>
+      <c r="L32">
+        <v>3.6</v>
+      </c>
+      <c r="M32">
+        <v>3.75</v>
+      </c>
+      <c r="N32">
+        <v>2.15</v>
+      </c>
+      <c r="O32">
+        <v>3.75</v>
+      </c>
+      <c r="P32">
+        <v>3.2</v>
+      </c>
+      <c r="Q32">
+        <v>-0.25</v>
+      </c>
+      <c r="R32">
+        <v>1.9</v>
+      </c>
+      <c r="S32">
+        <v>1.9</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>1.8</v>
+      </c>
+      <c r="V32">
         <v>2</v>
       </c>
-      <c r="J32" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32">
-        <v>1.571</v>
-      </c>
-      <c r="L32">
-        <v>3.75</v>
-      </c>
-      <c r="M32">
-        <v>4.8</v>
-      </c>
-      <c r="N32">
-        <v>2.5</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
-      <c r="P32">
-        <v>2.6</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
       <c r="W32">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6883447</v>
+        <v>6883874</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L34">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N34">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6883850</v>
+        <v>6884158</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,73 +3565,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>4</v>
-      </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6883874</v>
+        <v>6883850</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,16 +3654,16 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
         <v>46</v>
@@ -3678,16 +3678,16 @@
         <v>2.2</v>
       </c>
       <c r="N36">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3696,10 +3696,10 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
         <v>1.95</v>
@@ -3711,7 +3711,7 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z36">
         <v>-1</v>
@@ -3720,10 +3720,10 @@
         <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6884158</v>
+        <v>6883447</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,58 +3743,58 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H37">
         <v>4</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N37">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>1.825</v>
+      </c>
+      <c r="V37">
         <v>1.975</v>
       </c>
-      <c r="S37">
-        <v>1.725</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
       <c r="W37">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,13 +3803,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6878161</v>
+        <v>6884051</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3847,40 +3847,40 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N38">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3889,19 +3889,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>3.2</v>
+        <v>0.75</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6884051</v>
+        <v>6878161</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3936,41 +3936,41 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L39">
+        <v>3.5</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>1.8</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>1.5</v>
-      </c>
-      <c r="N39">
-        <v>4.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
+        <v>1.825</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.875</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -3978,19 +3978,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4458,7 +4458,7 @@
         <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4544,10 +4544,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4633,7 +4633,7 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6883851</v>
+        <v>6884063</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,73 +4722,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48">
+        <v>1.533</v>
+      </c>
+      <c r="L48">
         <v>4</v>
       </c>
-      <c r="J48" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48">
-        <v>2.9</v>
-      </c>
-      <c r="L48">
-        <v>3.4</v>
-      </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="N48">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4811,10 +4811,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883451</v>
+        <v>6883851</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6884063</v>
+        <v>6883451</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,16 +4992,16 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>1.533</v>
@@ -5013,52 +5013,52 @@
         <v>4.8</v>
       </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q51">
         <v>-1.25</v>
       </c>
       <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
         <v>2</v>
       </c>
-      <c r="S51">
-        <v>1.8</v>
-      </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>1</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5170,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5523,10 +5523,10 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,73 +5615,73 @@
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M58">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.75</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>1.75</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y58">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,73 +5704,73 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L59">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N59">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.75</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6883797</v>
+        <v>6879734</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,73 +5790,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>0.95</v>
+      </c>
+      <c r="AB60">
         <v>1</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6879734</v>
+        <v>6883797</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,73 +5879,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61">
+        <v>2.625</v>
+      </c>
+      <c r="L61">
+        <v>3.5</v>
+      </c>
+      <c r="M61">
+        <v>2.25</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <v>3.8</v>
+      </c>
+      <c r="P61">
+        <v>1.8</v>
+      </c>
+      <c r="Q61">
+        <v>0.5</v>
+      </c>
+      <c r="R61">
         <v>2</v>
       </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61" t="s">
-        <v>47</v>
-      </c>
-      <c r="K61">
-        <v>1.25</v>
-      </c>
-      <c r="L61">
-        <v>5</v>
-      </c>
-      <c r="M61">
-        <v>8.5</v>
-      </c>
-      <c r="N61">
-        <v>1.363</v>
-      </c>
-      <c r="O61">
-        <v>5</v>
-      </c>
-      <c r="P61">
-        <v>7.5</v>
-      </c>
-      <c r="Q61">
-        <v>-1.25</v>
-      </c>
-      <c r="R61">
-        <v>1.75</v>
-      </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X61">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6884065</v>
+        <v>6878164</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,10 +5968,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5983,61 +5983,61 @@
         <v>47</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L62">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N62">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
+        <v>1.825</v>
+      </c>
+      <c r="S62">
         <v>1.975</v>
       </c>
-      <c r="S62">
-        <v>1.825</v>
-      </c>
       <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.9</v>
+      </c>
+      <c r="V62">
+        <v>1.9</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>2.5</v>
       </c>
-      <c r="U62">
-        <v>1.85</v>
-      </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>3.2</v>
-      </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6878164</v>
+        <v>6884065</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,10 +6057,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6072,61 +6072,61 @@
         <v>47</v>
       </c>
       <c r="K63">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
+        <v>1.975</v>
+      </c>
+      <c r="S63">
         <v>1.825</v>
       </c>
-      <c r="S63">
-        <v>1.975</v>
-      </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
         <v>41</v>
@@ -6235,7 +6235,7 @@
         <v>45192.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6324,10 +6324,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6884066</v>
+        <v>6883876</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6883876</v>
+        <v>6884066</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
+        <v>2.2</v>
+      </c>
+      <c r="L68">
+        <v>3.3</v>
+      </c>
+      <c r="M68">
+        <v>2.8</v>
+      </c>
+      <c r="N68">
+        <v>2.625</v>
+      </c>
+      <c r="O68">
+        <v>3.4</v>
+      </c>
+      <c r="P68">
+        <v>2.6</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
+        <v>1.875</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
         <v>2</v>
       </c>
-      <c r="L68">
-        <v>3.6</v>
-      </c>
-      <c r="M68">
-        <v>3</v>
-      </c>
-      <c r="N68">
-        <v>1.666</v>
-      </c>
-      <c r="O68">
-        <v>4.5</v>
-      </c>
-      <c r="P68">
-        <v>4</v>
-      </c>
-      <c r="Q68">
-        <v>-0.75</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
-      <c r="S68">
-        <v>1.975</v>
-      </c>
-      <c r="T68">
-        <v>3.5</v>
-      </c>
-      <c r="U68">
-        <v>1.85</v>
-      </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6884068</v>
+        <v>6883799</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>2.25</v>
+      </c>
+      <c r="L70">
+        <v>3.4</v>
+      </c>
+      <c r="M70">
+        <v>2.625</v>
+      </c>
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
+        <v>3.5</v>
+      </c>
+      <c r="P70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>46</v>
-      </c>
-      <c r="K70">
-        <v>1.727</v>
-      </c>
-      <c r="L70">
-        <v>3.75</v>
-      </c>
-      <c r="M70">
-        <v>3.75</v>
-      </c>
-      <c r="N70">
-        <v>2.05</v>
-      </c>
-      <c r="O70">
-        <v>3.75</v>
-      </c>
-      <c r="P70">
-        <v>3.4</v>
-      </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="V70">
-        <v>1.825</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6884056</v>
+        <v>6884068</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N71">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6883799</v>
+        <v>6884056</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,43 +6873,43 @@
         <v>45</v>
       </c>
       <c r="K72">
+        <v>1.8</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>3.6</v>
+      </c>
+      <c r="N72">
         <v>2.25</v>
-      </c>
-      <c r="L72">
-        <v>3.4</v>
-      </c>
-      <c r="M72">
-        <v>2.625</v>
-      </c>
-      <c r="N72">
-        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.85</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
         <v>2</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
-      <c r="U72">
-        <v>1.825</v>
-      </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6918,7 +6918,7 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6927,7 +6927,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6883887</v>
+        <v>6878187</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3.5</v>
+      </c>
+      <c r="M73">
         <v>3</v>
       </c>
-      <c r="J73" t="s">
-        <v>46</v>
-      </c>
-      <c r="K73">
-        <v>2.1</v>
-      </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
-        <v>2.875</v>
-      </c>
       <c r="N73">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6878187</v>
+        <v>6883887</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N74">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
         <v>1.85</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.95</v>
       </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
       <c r="W74">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z74">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7128,7 +7128,7 @@
         <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6878188</v>
+        <v>6884571</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
         <v>3.8</v>
       </c>
       <c r="P77">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U77">
+        <v>1.875</v>
+      </c>
+      <c r="V77">
         <v>1.925</v>
       </c>
-      <c r="V77">
-        <v>1.875</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6883485</v>
+        <v>6883486</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,13 +7392,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7407,43 +7407,43 @@
         <v>45</v>
       </c>
       <c r="K78">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N78">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W78">
-        <v>0.833</v>
+        <v>0.3</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6883486</v>
+        <v>6884105</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,13 +7481,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,43 +7496,43 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L79">
         <v>4</v>
       </c>
       <c r="M79">
+        <v>4.8</v>
+      </c>
+      <c r="N79">
+        <v>1.55</v>
+      </c>
+      <c r="O79">
         <v>4.333</v>
       </c>
-      <c r="N79">
-        <v>1.3</v>
-      </c>
-      <c r="O79">
-        <v>5.25</v>
-      </c>
       <c r="P79">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R79">
+        <v>1.75</v>
+      </c>
+      <c r="S79">
         <v>1.95</v>
       </c>
-      <c r="S79">
+      <c r="T79">
+        <v>3</v>
+      </c>
+      <c r="U79">
         <v>1.85</v>
       </c>
-      <c r="T79">
-        <v>2.75</v>
-      </c>
-      <c r="U79">
-        <v>1.7</v>
-      </c>
       <c r="V79">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
+        <v>0.75</v>
+      </c>
+      <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
+        <v>-1</v>
+      </c>
+      <c r="AC79">
         <v>0.95</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
-      </c>
-      <c r="AB79">
-        <v>0.7</v>
-      </c>
-      <c r="AC79">
-        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6884105</v>
+        <v>6878188</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>2</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="N80">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6884571</v>
+        <v>6883485</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,10 +7659,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7674,43 +7674,43 @@
         <v>45</v>
       </c>
       <c r="K81">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N81">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q81">
         <v>-0.5</v>
       </c>
       <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.85</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.95</v>
       </c>
-      <c r="T81">
-        <v>3.5</v>
-      </c>
-      <c r="U81">
-        <v>1.875</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
       <c r="W81">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7719,7 +7719,7 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7728,7 +7728,7 @@
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>45210.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7929,7 +7929,7 @@
         <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8104,10 +8104,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6883488</v>
+        <v>6884106</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,10 +8193,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8208,43 +8208,43 @@
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N87">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="O87">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.333</v>
+        <v>1.5</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.5375000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,10 +8282,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6884106</v>
+        <v>6883488</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8386,43 +8386,43 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N89">
+        <v>1.333</v>
+      </c>
+      <c r="O89">
+        <v>4.75</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-1.25</v>
+      </c>
+      <c r="R89">
+        <v>1.725</v>
+      </c>
+      <c r="S89">
+        <v>2.075</v>
+      </c>
+      <c r="T89">
         <v>2.5</v>
       </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
-      <c r="P89">
-        <v>2.6</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
+      <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>3</v>
-      </c>
-      <c r="U89">
-        <v>1.9</v>
-      </c>
-      <c r="V89">
-        <v>1.9</v>
-      </c>
       <c r="W89">
-        <v>1.5</v>
+        <v>0.333</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.5375000000000001</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45214.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8552,7 +8552,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6884109</v>
+        <v>6878190</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,73 +8730,73 @@
         <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93">
+        <v>1.727</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>3.5</v>
+      </c>
+      <c r="N93">
+        <v>1.75</v>
+      </c>
+      <c r="O93">
+        <v>4.333</v>
+      </c>
+      <c r="P93">
+        <v>4</v>
+      </c>
+      <c r="Q93">
+        <v>-0.75</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
+        <v>1.85</v>
+      </c>
+      <c r="T93">
+        <v>2.25</v>
+      </c>
+      <c r="U93">
+        <v>1.8</v>
+      </c>
+      <c r="V93">
         <v>2</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>45</v>
-      </c>
-      <c r="K93">
-        <v>1.25</v>
-      </c>
-      <c r="L93">
-        <v>5</v>
-      </c>
-      <c r="M93">
-        <v>9</v>
-      </c>
-      <c r="N93">
-        <v>1.25</v>
-      </c>
-      <c r="O93">
-        <v>5.75</v>
-      </c>
-      <c r="P93">
-        <v>13</v>
-      </c>
-      <c r="Q93">
-        <v>-1.75</v>
-      </c>
-      <c r="R93">
-        <v>1.825</v>
-      </c>
-      <c r="S93">
-        <v>1.975</v>
-      </c>
-      <c r="T93">
-        <v>3</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
       <c r="W93">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB93">
         <v>-0.5</v>
       </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6878190</v>
+        <v>6884109</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,73 +8819,73 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M94">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N94">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
         <v>1.95</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="T94">
-        <v>2.25</v>
-      </c>
-      <c r="U94">
-        <v>1.8</v>
-      </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X94">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB94">
-        <v>-0.5</v>
-      </c>
-      <c r="AC94">
-        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6883490</v>
+        <v>6884110</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,73 +8905,73 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
+        <v>2.875</v>
+      </c>
+      <c r="L95">
         <v>3.75</v>
       </c>
-      <c r="L95">
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>2.625</v>
+      </c>
+      <c r="O95">
         <v>4</v>
       </c>
-      <c r="M95">
-        <v>1.666</v>
-      </c>
-      <c r="N95">
-        <v>3.2</v>
-      </c>
-      <c r="O95">
-        <v>3.6</v>
-      </c>
       <c r="P95">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="Q95">
         <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6884110</v>
+        <v>6883490</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,73 +8994,73 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N96">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q96">
         <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z96">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9083,7 +9083,7 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6883891</v>
+        <v>6883491</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>3</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="N98">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P98">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W98">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6883491</v>
+        <v>6883492</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,73 +9264,73 @@
         <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
         <v>2</v>
       </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC99">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6883492</v>
+        <v>6883866</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,73 +9350,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>4</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>4.5</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>1.9</v>
+      </c>
+      <c r="V100">
+        <v>1.9</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>3.5</v>
       </c>
-      <c r="P100">
-        <v>3.5</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.8</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.875</v>
-      </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
-      <c r="W100">
-        <v>1.1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6884111</v>
+        <v>6883891</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,73 +9439,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>
       </c>
       <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101">
+        <v>1.65</v>
+      </c>
+      <c r="L101">
+        <v>3.6</v>
+      </c>
+      <c r="M101">
+        <v>4.75</v>
+      </c>
+      <c r="N101">
+        <v>1.533</v>
+      </c>
+      <c r="O101">
+        <v>4.2</v>
+      </c>
+      <c r="P101">
+        <v>6.5</v>
+      </c>
+      <c r="Q101">
+        <v>-1</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.8</v>
+      </c>
+      <c r="V101">
         <v>2</v>
       </c>
-      <c r="I101">
-        <v>2</v>
-      </c>
-      <c r="J101" t="s">
-        <v>47</v>
-      </c>
-      <c r="K101">
-        <v>2.55</v>
-      </c>
-      <c r="L101">
-        <v>3.5</v>
-      </c>
-      <c r="M101">
-        <v>2.4</v>
-      </c>
-      <c r="N101">
-        <v>2.625</v>
-      </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>2.55</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.95</v>
-      </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
-      <c r="U101">
-        <v>1.95</v>
-      </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6883866</v>
+        <v>6884111</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,73 +9528,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102">
+        <v>2.55</v>
+      </c>
+      <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
+        <v>2.4</v>
+      </c>
+      <c r="N102">
+        <v>2.625</v>
+      </c>
+      <c r="O102">
+        <v>3.6</v>
+      </c>
+      <c r="P102">
+        <v>2.55</v>
+      </c>
+      <c r="Q102">
         <v>0</v>
       </c>
-      <c r="I102">
-        <v>4</v>
-      </c>
-      <c r="J102" t="s">
-        <v>46</v>
-      </c>
-      <c r="K102">
-        <v>1.75</v>
-      </c>
-      <c r="L102">
-        <v>3.6</v>
-      </c>
-      <c r="M102">
-        <v>4</v>
-      </c>
-      <c r="N102">
-        <v>1.7</v>
-      </c>
-      <c r="O102">
-        <v>4.2</v>
-      </c>
-      <c r="P102">
-        <v>4.5</v>
-      </c>
-      <c r="Q102">
-        <v>-0.75</v>
-      </c>
       <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
         <v>1.85</v>
       </c>
-      <c r="S102">
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
         <v>1.95</v>
       </c>
-      <c r="T102">
-        <v>2.75</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
+        <v>-0</v>
+      </c>
+      <c r="AB102">
         <v>0.95</v>
-      </c>
-      <c r="AB102">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9620,7 +9620,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6878191</v>
+        <v>6884112</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O104">
         <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
         <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
         <v>1.925</v>
       </c>
-      <c r="V104">
-        <v>1.875</v>
-      </c>
       <c r="W104">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6884112</v>
+        <v>6878191</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,73 +9795,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N105">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O105">
         <v>3.75</v>
       </c>
       <c r="P105">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
         <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
         <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X105">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9973,10 +9973,10 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10062,10 +10062,10 @@
         <v>45234.375</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10151,10 +10151,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6883853</v>
+        <v>6884119</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
+        <v>2.625</v>
+      </c>
+      <c r="N110">
+        <v>2.05</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>3.1</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
-      </c>
-      <c r="N110">
-        <v>2.7</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>2.375</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>2.025</v>
-      </c>
-      <c r="S110">
-        <v>1.775</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6884119</v>
+        <v>6883853</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>4</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L111">
         <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10421,7 +10421,7 @@
         <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6883877</v>
+        <v>6883801</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
+        <v>1.571</v>
+      </c>
+      <c r="O114">
+        <v>4.2</v>
+      </c>
+      <c r="P114">
+        <v>6</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
         <v>1.95</v>
-      </c>
-      <c r="O114">
-        <v>3.75</v>
-      </c>
-      <c r="P114">
-        <v>3.6</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>1.95</v>
-      </c>
-      <c r="S114">
-        <v>1.85</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X114">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6883801</v>
+        <v>6883877</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K115">
+        <v>1.666</v>
+      </c>
+      <c r="L115">
+        <v>4.1</v>
+      </c>
+      <c r="M115">
         <v>4</v>
       </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115" t="s">
-        <v>45</v>
-      </c>
-      <c r="K115">
-        <v>1.8</v>
-      </c>
-      <c r="L115">
-        <v>4</v>
-      </c>
-      <c r="M115">
-        <v>3.5</v>
-      </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
         <v>1.85</v>
-      </c>
-      <c r="S115">
-        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6883460</v>
+        <v>6883459</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,43 +10777,43 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="L116">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
         <v>5.75</v>
       </c>
-      <c r="P116">
-        <v>11</v>
-      </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
         <v>2.5</v>
@@ -10825,19 +10825,19 @@
         <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6883459</v>
+        <v>6883460</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,43 +10866,43 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P117">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R117">
+        <v>1.75</v>
+      </c>
+      <c r="S117">
         <v>1.95</v>
-      </c>
-      <c r="S117">
-        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
@@ -10914,19 +10914,19 @@
         <v>1.875</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10955,7 +10955,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6884161</v>
+        <v>6884071</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119">
+        <v>3.1</v>
+      </c>
+      <c r="L119">
+        <v>3.7</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>2.75</v>
+      </c>
+      <c r="O119">
+        <v>3.5</v>
+      </c>
+      <c r="P119">
+        <v>2.4</v>
+      </c>
+      <c r="Q119">
         <v>0</v>
       </c>
-      <c r="J119" t="s">
-        <v>45</v>
-      </c>
-      <c r="K119">
-        <v>1.5</v>
-      </c>
-      <c r="L119">
-        <v>4.1</v>
-      </c>
-      <c r="M119">
-        <v>5.5</v>
-      </c>
-      <c r="N119">
-        <v>1.3</v>
-      </c>
-      <c r="O119">
-        <v>6</v>
-      </c>
-      <c r="P119">
-        <v>8.5</v>
-      </c>
-      <c r="Q119">
-        <v>-2</v>
-      </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
         <v>1.775</v>
       </c>
       <c r="T119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W119">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6884071</v>
+        <v>6884161</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L120">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P120">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
         <v>1.775</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6883855</v>
+        <v>6884120</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,55 +11308,55 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>1</v>
-      </c>
-      <c r="I122">
-        <v>6</v>
       </c>
       <c r="J122" t="s">
         <v>46</v>
       </c>
       <c r="K122">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M122">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="N122">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="O122">
         <v>4.75</v>
       </c>
       <c r="P122">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11365,19 +11365,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>5</v>
+        <v>0.571</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6884074</v>
+        <v>6883855</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z123">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6884120</v>
+        <v>6884074</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N124">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="Q124">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6878167</v>
+        <v>6883462</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N125">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O125">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6883462</v>
+        <v>6878167</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N126">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P126">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -12023,7 +12023,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12112,7 +12112,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12198,10 +12198,19 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F132" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" t="s">
         <v>33</v>
       </c>
-      <c r="G132" t="s">
-        <v>34</v>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>47</v>
       </c>
       <c r="K132">
         <v>2.1</v>
@@ -12213,13 +12222,13 @@
         <v>3.5</v>
       </c>
       <c r="N132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O132">
         <v>3.5</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
         <v>-0.5</v>
@@ -12231,7 +12240,7 @@
         <v>1.8</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U132">
         <v>1.925</v>
@@ -12240,19 +12249,25 @@
         <v>1.875</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12272,11 +12287,20 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
         <v>36</v>
       </c>
+      <c r="H133">
+        <v>5</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>45</v>
+      </c>
       <c r="K133">
         <v>1.333</v>
       </c>
@@ -12293,7 +12317,7 @@
         <v>5.5</v>
       </c>
       <c r="P133">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Q133">
         <v>-1.5</v>
@@ -12314,19 +12338,25 @@
         <v>1.95</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC133">
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12349,7 +12379,16 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>46</v>
       </c>
       <c r="K134">
         <v>3.75</v>
@@ -12379,28 +12418,34 @@
         <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12420,10 +12465,10 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K135">
         <v>1.25</v>
@@ -12435,22 +12480,22 @@
         <v>13</v>
       </c>
       <c r="N135">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O135">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P135">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q135">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>3.25</v>
@@ -12509,31 +12554,31 @@
         <v>3.3</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
         <v>2</v>
-      </c>
-      <c r="V136">
-        <v>1.8</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12568,10 +12613,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K137">
         <v>1.6</v>
@@ -12589,7 +12634,7 @@
         <v>4.2</v>
       </c>
       <c r="P137">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q137">
         <v>-0.75</v>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,46 +106,46 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
-    <t>Spisska Nova Ves</t>
+    <t>FK Humenne</t>
   </si>
   <si>
-    <t>FK Humenne</t>
+    <t>Spisska Nova Ves</t>
   </si>
   <si>
     <t>FC Petrzalka</t>
   </si>
   <si>
-    <t>Puchov</t>
+    <t>Dolny Kubin</t>
   </si>
   <si>
     <t>MSK Povazska Bystrica</t>
   </si>
   <si>
-    <t>Dolny Kubin</t>
+    <t>Puchov</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
   </si>
   <si>
+    <t>FK Pohronie</t>
+  </si>
+  <si>
     <t>Spartak Myjava</t>
   </si>
   <si>
-    <t>FK Pohronie</t>
+    <t>KFC Komarno</t>
   </si>
   <si>
     <t>FC Tatran Presov</t>
   </si>
   <si>
-    <t>KFC Komarno</t>
+    <t>Slovan Bratislava B</t>
   </si>
   <si>
     <t>STK Samorin</t>
   </si>
   <si>
     <t>MSK Zilina B</t>
-  </si>
-  <si>
-    <t>Slovan Bratislava B</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6883439</v>
+        <v>6883440</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,61 +732,61 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
+        <v>2.375</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3.25</v>
+      </c>
+      <c r="P3">
+        <v>2.5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>1.75</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>1.5</v>
       </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
-      <c r="O3">
-        <v>4.333</v>
-      </c>
-      <c r="P3">
-        <v>1.5</v>
-      </c>
-      <c r="Q3">
-        <v>1.25</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>1.975</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>0.5</v>
-      </c>
       <c r="Z3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6883440</v>
+        <v>6883439</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,40 +821,40 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -863,19 +863,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA4">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6883846</v>
+        <v>6884167</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,46 +987,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
         <v>3.3</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
         <v>1.9</v>
@@ -1035,25 +1035,25 @@
         <v>1.9</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
+        <v>-0.5</v>
+      </c>
+      <c r="AC6">
         <v>0.45</v>
-      </c>
-      <c r="AC6">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6884167</v>
+        <v>6883846</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,46 +1165,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
         <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
         <v>1.9</v>
@@ -1213,25 +1213,25 @@
         <v>1.9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
+        <v>0.45</v>
+      </c>
+      <c r="AC8">
         <v>-0.5</v>
-      </c>
-      <c r="AC8">
-        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6884047</v>
+        <v>6884059</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,43 +1343,43 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q10">
         <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>3</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y10">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
+        <v>0.8</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB10">
-        <v>0.95</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6884059</v>
+        <v>6884047</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,43 +1432,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q11">
         <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>3</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6884048</v>
+        <v>6884116</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,58 +1518,58 @@
         <v>45143.5</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M12">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N12">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,16 +1578,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6883441</v>
+        <v>6884048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
         <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N13">
+        <v>1.55</v>
+      </c>
+      <c r="O13">
+        <v>4.333</v>
+      </c>
+      <c r="P13">
+        <v>5.75</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
         <v>1.85</v>
       </c>
-      <c r="O13">
-        <v>3.6</v>
-      </c>
-      <c r="P13">
-        <v>4.2</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W13">
+        <v>0.55</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>0.825</v>
-      </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6884116</v>
+        <v>6883441</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,10 +1699,10 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1711,43 +1711,43 @@
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>0.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1765,7 +1765,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6883847</v>
+        <v>6878158</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA15">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6883442</v>
+        <v>6883847</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,70 +1877,70 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.95</v>
+      </c>
+      <c r="AB16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.875</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6878158</v>
+        <v>6883442</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,46 +1966,46 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N17">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
         <v>1.875</v>
@@ -2014,25 +2014,25 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,10 +2052,10 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883873</v>
+        <v>6883848</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,73 +2144,73 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>1.95</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883848</v>
+        <v>6883873</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,73 +2233,73 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>1.95</v>
       </c>
       <c r="L20">
+        <v>3.3</v>
+      </c>
+      <c r="M20">
         <v>3.4</v>
       </c>
-      <c r="M20">
-        <v>3.25</v>
-      </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1.75</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>2.8</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6884049</v>
+        <v>6884117</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,10 +2319,10 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2334,40 +2334,40 @@
         <v>46</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N21">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O21">
         <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q21">
         <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2376,19 +2376,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6884117</v>
+        <v>6884049</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,7 +2408,7 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -2423,40 +2423,40 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
         <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q22">
         <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2465,19 +2465,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2764,10 +2764,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6883849</v>
+        <v>6883446</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,40 +2853,40 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L27">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N27">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O27">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
         <v>1.95</v>
@@ -2895,16 +2895,16 @@
         <v>1.85</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2919,10 +2919,10 @@
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6883446</v>
+        <v>6884050</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,58 +2942,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,13 +3002,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6884050</v>
+        <v>6883849</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3046,19 +3046,19 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3067,19 +3067,19 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>0.5</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6883793</v>
+        <v>7068814</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
+        <v>4.8</v>
+      </c>
+      <c r="N30">
         <v>2.5</v>
       </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>1.95</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
         <v>2</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.8</v>
       </c>
-      <c r="T30">
-        <v>3.5</v>
-      </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7068814</v>
+        <v>6883793</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,73 +3212,73 @@
         <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
+        <v>3.8</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>-0.25</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1.8</v>
+      </c>
+      <c r="T31">
         <v>3.5</v>
       </c>
-      <c r="P31">
-        <v>2.6</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1.85</v>
-      </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
-      </c>
       <c r="U31">
+        <v>1.9</v>
+      </c>
+      <c r="V31">
+        <v>1.9</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
         <v>2</v>
       </c>
-      <c r="V31">
-        <v>1.8</v>
-      </c>
-      <c r="W31">
-        <v>1.5</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -3387,10 +3387,10 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6883874</v>
+        <v>6884158</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
+        <v>2.45</v>
+      </c>
+      <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>2.45</v>
+      </c>
+      <c r="N34">
+        <v>2.45</v>
+      </c>
+      <c r="O34">
+        <v>3.5</v>
+      </c>
+      <c r="P34">
+        <v>2.875</v>
+      </c>
+      <c r="Q34">
+        <v>-0.25</v>
+      </c>
+      <c r="R34">
+        <v>1.975</v>
+      </c>
+      <c r="S34">
+        <v>1.725</v>
+      </c>
+      <c r="T34">
         <v>2.75</v>
       </c>
-      <c r="L34">
-        <v>3.4</v>
-      </c>
-      <c r="M34">
-        <v>2.2</v>
-      </c>
-      <c r="N34">
-        <v>2.7</v>
-      </c>
-      <c r="O34">
-        <v>3.4</v>
-      </c>
-      <c r="P34">
-        <v>2.625</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>1.925</v>
-      </c>
-      <c r="S34">
-        <v>1.875</v>
-      </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6884158</v>
+        <v>6883447</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,58 +3565,58 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R35">
+        <v>1.8</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>1.825</v>
+      </c>
+      <c r="V35">
         <v>1.975</v>
       </c>
-      <c r="S35">
-        <v>1.725</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.9</v>
-      </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
       <c r="W35">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,13 +3625,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3657,7 +3657,7 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6883447</v>
+        <v>6883874</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N37">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4010,10 +4010,10 @@
         <v>45170.54513888889</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4099,10 +4099,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4280,7 +4280,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,7 +4366,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4455,10 +4455,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4544,10 +4544,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4633,10 +4633,10 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6884063</v>
+        <v>6883452</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>2.625</v>
+      </c>
+      <c r="L48">
+        <v>3.3</v>
+      </c>
+      <c r="M48">
+        <v>2.3</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.7</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48">
-        <v>1.533</v>
-      </c>
-      <c r="L48">
-        <v>4</v>
-      </c>
-      <c r="M48">
-        <v>4.8</v>
-      </c>
-      <c r="N48">
-        <v>1.5</v>
-      </c>
-      <c r="O48">
-        <v>4.5</v>
-      </c>
-      <c r="P48">
-        <v>6</v>
-      </c>
-      <c r="Q48">
-        <v>-1.25</v>
-      </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6883452</v>
+        <v>6883451</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
       </c>
       <c r="K49">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="N49">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P49">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,10 +4900,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
         <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6883451</v>
+        <v>6884063</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,16 +4992,16 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>1.533</v>
@@ -5013,52 +5013,52 @@
         <v>4.8</v>
       </c>
       <c r="N51">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q51">
         <v>-1.25</v>
       </c>
       <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>1.8</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
         <v>2</v>
       </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>1.975</v>
-      </c>
-      <c r="V51">
-        <v>1.825</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5345,10 +5345,10 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5523,10 +5523,10 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5701,10 +5701,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
         <v>44</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6878164</v>
+        <v>6883455</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,40 +5968,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
         <v>1.825</v>
@@ -6010,7 +6010,7 @@
         <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
         <v>1.9</v>
@@ -6019,19 +6019,19 @@
         <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X62">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6884065</v>
+        <v>6883456</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
         <v>4.2</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
         <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6883455</v>
+        <v>6878164</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,40 +6146,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N64">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
         <v>1.825</v>
@@ -6188,7 +6188,7 @@
         <v>1.975</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6197,19 +6197,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6883456</v>
+        <v>6883852</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6238,73 +6238,73 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N65">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6883852</v>
+        <v>6884065</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
+        <v>4</v>
+      </c>
+      <c r="N66">
+        <v>1.6</v>
+      </c>
+      <c r="O66">
+        <v>4.2</v>
+      </c>
+      <c r="P66">
+        <v>5.25</v>
+      </c>
+      <c r="Q66">
+        <v>-1</v>
+      </c>
+      <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.825</v>
+      </c>
+      <c r="T66">
+        <v>2.5</v>
+      </c>
+      <c r="U66">
         <v>1.85</v>
       </c>
-      <c r="N66">
-        <v>3.75</v>
-      </c>
-      <c r="O66">
-        <v>3.75</v>
-      </c>
-      <c r="P66">
-        <v>1.909</v>
-      </c>
-      <c r="Q66">
-        <v>0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.9</v>
-      </c>
-      <c r="S66">
-        <v>1.9</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y66">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6883876</v>
+        <v>6884066</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
+        <v>2.2</v>
+      </c>
+      <c r="L67">
+        <v>3.3</v>
+      </c>
+      <c r="M67">
+        <v>2.8</v>
+      </c>
+      <c r="N67">
+        <v>2.625</v>
+      </c>
+      <c r="O67">
+        <v>3.4</v>
+      </c>
+      <c r="P67">
+        <v>2.6</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
+        <v>1.875</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
         <v>2</v>
       </c>
-      <c r="L67">
-        <v>3.6</v>
-      </c>
-      <c r="M67">
-        <v>3</v>
-      </c>
-      <c r="N67">
-        <v>1.666</v>
-      </c>
-      <c r="O67">
-        <v>4.5</v>
-      </c>
-      <c r="P67">
-        <v>4</v>
-      </c>
-      <c r="Q67">
-        <v>-0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.825</v>
-      </c>
-      <c r="S67">
-        <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>3.5</v>
-      </c>
-      <c r="U67">
-        <v>1.85</v>
-      </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y67">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6884066</v>
+        <v>6883876</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,10 +6591,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6883799</v>
+        <v>6884068</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,73 +6683,73 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
+        <v>3.75</v>
+      </c>
+      <c r="N70">
+        <v>2.05</v>
+      </c>
+      <c r="O70">
+        <v>3.75</v>
+      </c>
+      <c r="P70">
         <v>3.4</v>
       </c>
-      <c r="M70">
-        <v>2.625</v>
-      </c>
-      <c r="N70">
-        <v>2.3</v>
-      </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>3</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
+        <v>1.975</v>
+      </c>
+      <c r="V70">
         <v>1.825</v>
       </c>
-      <c r="V70">
-        <v>1.975</v>
-      </c>
       <c r="W70">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6884068</v>
+        <v>6883799</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,73 +6772,73 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
+      <c r="J71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71">
+        <v>2.25</v>
+      </c>
+      <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71">
+        <v>2.625</v>
+      </c>
+      <c r="N71">
+        <v>2.3</v>
+      </c>
+      <c r="O71">
+        <v>3.5</v>
+      </c>
+      <c r="P71">
         <v>3</v>
       </c>
-      <c r="J71" t="s">
-        <v>46</v>
-      </c>
-      <c r="K71">
-        <v>1.727</v>
-      </c>
-      <c r="L71">
-        <v>3.75</v>
-      </c>
-      <c r="M71">
-        <v>3.75</v>
-      </c>
-      <c r="N71">
-        <v>2.05</v>
-      </c>
-      <c r="O71">
-        <v>3.75</v>
-      </c>
-      <c r="P71">
-        <v>3.4</v>
-      </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
         <v>2.75</v>
       </c>
       <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
         <v>1.975</v>
       </c>
-      <c r="V71">
-        <v>1.825</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA71">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6878187</v>
+        <v>6884165</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="N73">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6883887</v>
+        <v>6878187</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="J74" t="s">
-        <v>46</v>
-      </c>
-      <c r="K74">
-        <v>2.1</v>
-      </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>2.875</v>
-      </c>
       <c r="N74">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6884165</v>
+        <v>6883887</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,46 +7128,46 @@
         <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N75">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
         <v>1.85</v>
@@ -7182,13 +7182,13 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
         <v>0.8500000000000001</v>
@@ -7214,10 +7214,10 @@
         <v>45205.5</v>
       </c>
       <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
         <v>38</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6884571</v>
+        <v>6883485</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,10 +7303,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7318,43 +7318,43 @@
         <v>45</v>
       </c>
       <c r="K77">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N77">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q77">
         <v>-0.5</v>
       </c>
       <c r="R77">
+        <v>1.8</v>
+      </c>
+      <c r="S77">
+        <v>2</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
         <v>1.85</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="T77">
-        <v>3.5</v>
-      </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
-      <c r="V77">
-        <v>1.925</v>
-      </c>
       <c r="W77">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,7 +7363,7 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7372,7 +7372,7 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6883486</v>
+        <v>6878188</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,73 +7395,73 @@
         <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="Q78">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6884105</v>
+        <v>6884571</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,13 +7481,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,43 +7496,43 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="N79">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
         <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,7 +7541,7 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7550,7 +7550,7 @@
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6878188</v>
+        <v>6883486</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7573,73 +7573,73 @@
         <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N80">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P80">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
         <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6883485</v>
+        <v>6884105</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7662,10 +7662,10 @@
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7674,34 +7674,34 @@
         <v>45</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N81">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="O81">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P81">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U81">
         <v>1.85</v>
@@ -7710,7 +7710,7 @@
         <v>1.95</v>
       </c>
       <c r="W81">
-        <v>0.833</v>
+        <v>0.55</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7719,7 +7719,7 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7926,10 +7926,10 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6884123</v>
+        <v>6883864</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,31 +8107,31 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L86">
         <v>3.4</v>
       </c>
       <c r="M86">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N86">
         <v>2.4</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
         <v>2.875</v>
@@ -8140,40 +8140,40 @@
         <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>1.75</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
         <v>1.975</v>
       </c>
-      <c r="S86">
-        <v>1.725</v>
-      </c>
-      <c r="T86">
-        <v>2.5</v>
-      </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
       <c r="V86">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6884106</v>
+        <v>6884123</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,10 +8193,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8208,43 +8208,43 @@
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L87">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
+        <v>3.4</v>
+      </c>
+      <c r="N87">
+        <v>2.4</v>
+      </c>
+      <c r="O87">
         <v>3.5</v>
       </c>
-      <c r="N87">
+      <c r="P87">
+        <v>2.875</v>
+      </c>
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
+        <v>1.725</v>
+      </c>
+      <c r="T87">
         <v>2.5</v>
       </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
-      <c r="P87">
-        <v>2.6</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>1.85</v>
-      </c>
-      <c r="S87">
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W87">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6883864</v>
+        <v>6884106</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M88">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>36</v>
@@ -8549,7 +8549,7 @@
         <v>45219.5</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6878190</v>
+        <v>6884109</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,73 +8730,73 @@
         <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O93">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
+        <v>1.825</v>
+      </c>
+      <c r="S93">
+        <v>1.975</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
         <v>1.95</v>
       </c>
-      <c r="S93">
+      <c r="V93">
         <v>1.85</v>
       </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>1.8</v>
-      </c>
-      <c r="V93">
-        <v>2</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X93">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA93">
+        <v>-0.5</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB93">
-        <v>-0.5</v>
-      </c>
-      <c r="AC93">
-        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6884109</v>
+        <v>6883490</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N94">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z94">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6884110</v>
+        <v>6878190</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O95">
+        <v>4.333</v>
+      </c>
+      <c r="P95">
         <v>4</v>
       </c>
-      <c r="P95">
-        <v>2.4</v>
-      </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6883490</v>
+        <v>6884110</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,73 +8994,73 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
+        <v>2.875</v>
+      </c>
+      <c r="L96">
         <v>3.75</v>
       </c>
-      <c r="L96">
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>2.625</v>
+      </c>
+      <c r="O96">
         <v>4</v>
       </c>
-      <c r="M96">
-        <v>1.666</v>
-      </c>
-      <c r="N96">
-        <v>3.2</v>
-      </c>
-      <c r="O96">
-        <v>3.6</v>
-      </c>
       <c r="P96">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="Q96">
         <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9083,10 +9083,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6883491</v>
+        <v>6884111</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,40 +9172,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98">
+        <v>2.55</v>
+      </c>
+      <c r="L98">
+        <v>3.5</v>
+      </c>
+      <c r="M98">
+        <v>2.4</v>
+      </c>
+      <c r="N98">
+        <v>2.625</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>2.55</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
-      </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
-      <c r="J98" t="s">
-        <v>46</v>
-      </c>
-      <c r="K98">
-        <v>4.75</v>
-      </c>
-      <c r="L98">
-        <v>3.8</v>
-      </c>
-      <c r="M98">
-        <v>1.6</v>
-      </c>
-      <c r="N98">
-        <v>9</v>
-      </c>
-      <c r="O98">
-        <v>6</v>
-      </c>
-      <c r="P98">
-        <v>1.2</v>
-      </c>
-      <c r="Q98">
-        <v>2</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9214,34 +9214,34 @@
         <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6883492</v>
+        <v>6883866</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,73 +9261,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>4</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
+        <v>4.2</v>
+      </c>
+      <c r="P99">
+        <v>4.5</v>
+      </c>
+      <c r="Q99">
+        <v>-0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.9</v>
+      </c>
+      <c r="V99">
+        <v>1.9</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>3.5</v>
       </c>
-      <c r="P99">
-        <v>3.5</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.8</v>
-      </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
-      <c r="W99">
-        <v>1.1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6883866</v>
+        <v>6883891</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,73 +9350,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L100">
         <v>3.6</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O100">
         <v>4.2</v>
       </c>
       <c r="P100">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6883891</v>
+        <v>6883491</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M101">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="N101">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P101">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W101">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6884111</v>
+        <v>6883492</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,73 +9528,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>45</v>
+      </c>
+      <c r="K102">
+        <v>2.25</v>
+      </c>
+      <c r="L102">
+        <v>3.3</v>
+      </c>
+      <c r="M102">
+        <v>2.875</v>
+      </c>
+      <c r="N102">
+        <v>2.1</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
+        <v>3.5</v>
+      </c>
+      <c r="Q102">
+        <v>-0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.8</v>
+      </c>
+      <c r="S102">
         <v>2</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
-      <c r="J102" t="s">
-        <v>47</v>
-      </c>
-      <c r="K102">
-        <v>2.55</v>
-      </c>
-      <c r="L102">
-        <v>3.5</v>
-      </c>
-      <c r="M102">
-        <v>2.4</v>
-      </c>
-      <c r="N102">
-        <v>2.625</v>
-      </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
-      <c r="P102">
-        <v>2.55</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.95</v>
-      </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884124</v>
+        <v>6884112</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,73 +9617,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
+        <v>2.4</v>
+      </c>
+      <c r="N103">
         <v>3.1</v>
       </c>
-      <c r="N103">
-        <v>2.05</v>
-      </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.775</v>
+      </c>
+      <c r="V103">
+        <v>1.925</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>2.75</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.475</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.8</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2</v>
-      </c>
-      <c r="V103">
-        <v>1.8</v>
-      </c>
-      <c r="W103">
-        <v>1.05</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>1</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>45</v>
+      </c>
+      <c r="K104">
         <v>2</v>
-      </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
-      <c r="J104" t="s">
-        <v>47</v>
-      </c>
-      <c r="K104">
-        <v>2.625</v>
       </c>
       <c r="L104">
         <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X104">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9798,7 +9798,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>45233.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9973,10 +9973,10 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10062,10 +10062,10 @@
         <v>45234.375</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6884119</v>
+        <v>6883853</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>4</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6883853</v>
+        <v>6884119</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
         <v>3.6</v>
       </c>
       <c r="M111">
+        <v>2.625</v>
+      </c>
+      <c r="N111">
+        <v>2.05</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>3.1</v>
+      </c>
+      <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
         <v>2</v>
-      </c>
-      <c r="N111">
-        <v>2.7</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>2.375</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>2.025</v>
-      </c>
-      <c r="S111">
-        <v>1.775</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10418,7 +10418,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
         <v>34</v>
@@ -10507,7 +10507,7 @@
         <v>45240.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
         <v>32</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6883801</v>
+        <v>6883877</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114">
+        <v>1.666</v>
+      </c>
+      <c r="L114">
+        <v>4.1</v>
+      </c>
+      <c r="M114">
         <v>4</v>
       </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
-      <c r="J114" t="s">
-        <v>45</v>
-      </c>
-      <c r="K114">
-        <v>1.8</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>3.5</v>
-      </c>
       <c r="N114">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
         <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>1.95</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6883877</v>
+        <v>6883801</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
+        <v>1.571</v>
+      </c>
+      <c r="O115">
+        <v>4.2</v>
+      </c>
+      <c r="P115">
+        <v>6</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
-      </c>
-      <c r="O115">
-        <v>3.75</v>
-      </c>
-      <c r="P115">
-        <v>3.6</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.95</v>
-      </c>
-      <c r="S115">
-        <v>1.85</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,10 +10774,10 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10863,10 +10863,10 @@
         <v>45241.375</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10952,10 +10952,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11041,7 +11041,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
         <v>34</v>
@@ -11130,10 +11130,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11219,10 +11219,10 @@
         <v>45245.375</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -11308,10 +11308,10 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6883855</v>
+        <v>6884074</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>2.5</v>
+      </c>
+      <c r="N123">
+        <v>2.8</v>
+      </c>
+      <c r="O123">
         <v>3.75</v>
       </c>
-      <c r="N123">
-        <v>1.45</v>
-      </c>
-      <c r="O123">
-        <v>4.75</v>
-      </c>
       <c r="P123">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6884074</v>
+        <v>6883855</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P124">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z124">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6883462</v>
+        <v>6878167</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6878167</v>
+        <v>6883462</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N126">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O126">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11845,7 +11845,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11931,10 +11931,10 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45352.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12109,7 +12109,7 @@
         <v>45352.625</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
         <v>32</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6883856</v>
+        <v>6883464</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M132">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P132">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X132">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6883464</v>
+        <v>6883856</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="N133">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q133">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
+        <v>3</v>
+      </c>
+      <c r="U133">
+        <v>1.925</v>
+      </c>
+      <c r="V133">
+        <v>1.875</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
         <v>2.5</v>
       </c>
-      <c r="U133">
-        <v>1.85</v>
-      </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
-      <c r="W133">
-        <v>0.3</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6884121</v>
+        <v>6884075</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,58 +12468,73 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
         <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB135">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC135">
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12527,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6884075</v>
+        <v>6884121</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,61 +12554,76 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H136">
+        <v>5</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N136">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
+        <v>1.975</v>
+      </c>
+      <c r="S136">
+        <v>1.825</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
         <v>1.9</v>
       </c>
-      <c r="S136">
+      <c r="V136">
         <v>1.9</v>
       </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.8</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
       <c r="W136">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12613,10 +12643,19 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>45</v>
       </c>
       <c r="K137">
         <v>1.6</v>
@@ -12655,18 +12694,98 @@
         <v>1.875</v>
       </c>
       <c r="W137">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.825</v>
+      </c>
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>0.925</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>6883803</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45360.39583333334</v>
+      </c>
+      <c r="F138" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" t="s">
+        <v>43</v>
+      </c>
+      <c r="K138">
+        <v>2.625</v>
+      </c>
+      <c r="L138">
+        <v>3.4</v>
+      </c>
+      <c r="M138">
+        <v>2.3</v>
+      </c>
+      <c r="N138">
+        <v>2.2</v>
+      </c>
+      <c r="O138">
+        <v>3.4</v>
+      </c>
+      <c r="P138">
+        <v>2.75</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>1.8</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>1.85</v>
+      </c>
+      <c r="V138">
+        <v>1.95</v>
+      </c>
+      <c r="W138">
         <v>0</v>
       </c>
-      <c r="X137">
+      <c r="X138">
         <v>0</v>
       </c>
-      <c r="Y137">
+      <c r="Y138">
         <v>0</v>
       </c>
-      <c r="Z137">
+      <c r="Z138">
         <v>0</v>
       </c>
-      <c r="AA137">
+      <c r="AA138">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,22 +106,22 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
-    <t>FK Humenne</t>
+    <t>MSK Povazska Bystrica</t>
+  </si>
+  <si>
+    <t>Puchov</t>
   </si>
   <si>
     <t>Spisska Nova Ves</t>
+  </si>
+  <si>
+    <t>FK Humenne</t>
   </si>
   <si>
     <t>FC Petrzalka</t>
   </si>
   <si>
     <t>Dolny Kubin</t>
-  </si>
-  <si>
-    <t>MSK Povazska Bystrica</t>
-  </si>
-  <si>
-    <t>Puchov</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
@@ -133,13 +133,10 @@
     <t>Spartak Myjava</t>
   </si>
   <si>
-    <t>KFC Komarno</t>
-  </si>
-  <si>
     <t>FC Tatran Presov</t>
   </si>
   <si>
-    <t>Slovan Bratislava B</t>
+    <t>KFC Komarno</t>
   </si>
   <si>
     <t>STK Samorin</t>
@@ -148,16 +145,19 @@
     <t>MSK Zilina B</t>
   </si>
   <si>
+    <t>Slovan Bratislava B</t>
+  </si>
+  <si>
     <t>FK Tatran Liptovsky Mikulas</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6883440</v>
+        <v>6884046</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
+        <v>3.1</v>
+      </c>
+      <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
+        <v>1.825</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
+        <v>1.875</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>2.5</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>2.05</v>
-      </c>
-      <c r="S3">
-        <v>1.75</v>
-      </c>
-      <c r="T3">
-        <v>2.25</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6883439</v>
+        <v>6883846</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
+        <v>0.45</v>
+      </c>
+      <c r="AC4">
         <v>-0.5</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
-      <c r="AC4">
-        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6982596</v>
+        <v>6883439</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6884167</v>
+        <v>6883440</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,52 +987,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N6">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1041,19 +1041,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6884046</v>
+        <v>6982596</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6883846</v>
+        <v>6884167</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,46 +1165,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L8">
         <v>3.3</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
         <v>1.9</v>
@@ -1213,25 +1213,25 @@
         <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
+        <v>-0.5</v>
+      </c>
+      <c r="AC8">
         <v>0.45</v>
-      </c>
-      <c r="AC8">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>1.444</v>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>1.666</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6884116</v>
+        <v>6883441</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1533,43 +1533,43 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L12">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>0.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1587,7 +1587,7 @@
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6884048</v>
+        <v>6884116</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,58 +1607,58 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M13">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N13">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,16 +1667,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6883441</v>
+        <v>6884048</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45143.5</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
         <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N14">
+        <v>1.55</v>
+      </c>
+      <c r="O14">
+        <v>4.333</v>
+      </c>
+      <c r="P14">
+        <v>5.75</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
         <v>1.85</v>
       </c>
-      <c r="O14">
-        <v>3.6</v>
-      </c>
-      <c r="P14">
-        <v>4.2</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14">
+        <v>0.55</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>0.825</v>
-      </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6878158</v>
+        <v>6883847</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N15">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z15">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6883847</v>
+        <v>6883442</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,70 +1877,70 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <v>2.4</v>
+      </c>
+      <c r="L16">
+        <v>3.2</v>
+      </c>
+      <c r="M16">
+        <v>2.6</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <v>2.25</v>
-      </c>
-      <c r="L16">
-        <v>3.3</v>
-      </c>
-      <c r="M16">
-        <v>2.7</v>
-      </c>
-      <c r="N16">
-        <v>2.05</v>
-      </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,46 +1966,46 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.875</v>
@@ -2014,25 +2014,25 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6883443</v>
+        <v>6884049</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O18">
         <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
         <v>1.975</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.95</v>
-      </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
       <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>1.55</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
         <v>0.95</v>
       </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883848</v>
+        <v>6883873</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,10 +2144,10 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2159,58 +2159,58 @@
         <v>1.95</v>
       </c>
       <c r="L19">
+        <v>3.3</v>
+      </c>
+      <c r="M19">
         <v>3.4</v>
       </c>
-      <c r="M19">
-        <v>3.25</v>
-      </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>3</v>
       </c>
-      <c r="U19">
-        <v>1.75</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.8</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883873</v>
+        <v>6883848</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,13 +2230,13 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2248,58 +2248,58 @@
         <v>1.95</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,10 +2319,10 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6884049</v>
+        <v>6883443</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N22">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
+        <v>1.825</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
-      <c r="U22">
-        <v>1.975</v>
-      </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>4.2</v>
@@ -2586,7 +2586,7 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>1.95</v>
@@ -2678,7 +2678,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2767,7 +2767,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2853,10 +2853,10 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6884050</v>
+        <v>6883849</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,13 +2942,13 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2957,19 +2957,19 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1.5</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
         <v>6.5</v>
@@ -2978,19 +2978,19 @@
         <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>0.5</v>
@@ -3002,16 +3002,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6883849</v>
+        <v>6884050</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3046,19 +3046,19 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3067,19 +3067,19 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>0.5</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7068814</v>
+        <v>6878160</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,70 +3123,70 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30">
+        <v>1.75</v>
+      </c>
+      <c r="L30">
+        <v>3.6</v>
+      </c>
+      <c r="M30">
+        <v>3.75</v>
+      </c>
+      <c r="N30">
+        <v>2.15</v>
+      </c>
+      <c r="O30">
+        <v>3.75</v>
+      </c>
+      <c r="P30">
+        <v>3.2</v>
+      </c>
+      <c r="Q30">
+        <v>-0.25</v>
+      </c>
+      <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.9</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.8</v>
+      </c>
+      <c r="V30">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30">
-        <v>1.571</v>
-      </c>
-      <c r="L30">
-        <v>3.75</v>
-      </c>
-      <c r="M30">
-        <v>4.8</v>
-      </c>
-      <c r="N30">
-        <v>2.5</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>2.6</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>1.85</v>
-      </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
-      <c r="V30">
-        <v>1.8</v>
-      </c>
       <c r="W30">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3209,7 +3209,7 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3221,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.3</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6878160</v>
+        <v>7068814</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,73 +3298,73 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>1.571</v>
+      </c>
+      <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>4.8</v>
+      </c>
+      <c r="N32">
+        <v>2.5</v>
+      </c>
+      <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>2.6</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>7</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32">
-        <v>1.75</v>
-      </c>
-      <c r="L32">
-        <v>3.6</v>
-      </c>
-      <c r="M32">
-        <v>3.75</v>
-      </c>
-      <c r="N32">
-        <v>2.15</v>
-      </c>
-      <c r="O32">
-        <v>3.75</v>
-      </c>
-      <c r="P32">
-        <v>3.2</v>
-      </c>
-      <c r="Q32">
-        <v>-0.25</v>
-      </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
         <v>1.8</v>
       </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3399,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.45</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6884158</v>
+        <v>6883850</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>4</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N34">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6883447</v>
+        <v>6883874</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>43</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6883850</v>
+        <v>6884158</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,73 +3654,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6883874</v>
+        <v>6883447</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N37">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6884051</v>
+        <v>6878161</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3844,44 +3844,44 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>1.8</v>
+      </c>
+      <c r="O38">
         <v>4</v>
       </c>
-      <c r="M38">
-        <v>1.5</v>
-      </c>
-      <c r="N38">
-        <v>4.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
+        <v>1.825</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="S38">
-        <v>1.95</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>1.925</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
@@ -3889,19 +3889,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6878161</v>
+        <v>6884051</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3933,43 +3933,43 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N39">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3978,19 +3978,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.2</v>
+        <v>0.75</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>3.1</v>
@@ -4102,7 +4102,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4200,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>2.75</v>
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6883450</v>
+        <v>6884159</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,70 +4458,70 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
+        <v>2.75</v>
+      </c>
+      <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
         <v>2.25</v>
       </c>
-      <c r="L45">
-        <v>3.3</v>
-      </c>
-      <c r="M45">
-        <v>2.75</v>
-      </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z45">
         <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6884159</v>
+        <v>6883450</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>46</v>
       </c>
       <c r="K46">
+        <v>2.25</v>
+      </c>
+      <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
         <v>2.75</v>
       </c>
-      <c r="L46">
+      <c r="N46">
+        <v>2.375</v>
+      </c>
+      <c r="O46">
         <v>3.5</v>
       </c>
-      <c r="M46">
-        <v>2.25</v>
-      </c>
-      <c r="N46">
-        <v>4.333</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
       <c r="P46">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4633,10 +4633,10 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6883452</v>
+        <v>6883851</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
       </c>
       <c r="K48">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6883451</v>
+        <v>6884063</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,16 +4814,16 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.533</v>
@@ -4835,52 +4835,52 @@
         <v>4.8</v>
       </c>
       <c r="N49">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q49">
         <v>-1.25</v>
       </c>
       <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
         <v>1.8</v>
       </c>
-      <c r="S49">
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
+        <v>1.8</v>
+      </c>
+      <c r="V49">
         <v>2</v>
       </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X49">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883851</v>
+        <v>6883451</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="N50">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P50">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y50">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6884063</v>
+        <v>6883452</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51">
+        <v>2.625</v>
+      </c>
+      <c r="L51">
+        <v>3.3</v>
+      </c>
+      <c r="M51">
+        <v>2.3</v>
+      </c>
+      <c r="N51">
+        <v>2.7</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
+        <v>2.7</v>
+      </c>
+      <c r="Q51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51">
-        <v>1.533</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
-      <c r="M51">
-        <v>4.8</v>
-      </c>
-      <c r="N51">
-        <v>1.5</v>
-      </c>
-      <c r="O51">
-        <v>4.5</v>
-      </c>
-      <c r="P51">
-        <v>6</v>
-      </c>
-      <c r="Q51">
-        <v>-1.25</v>
-      </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6878163</v>
+        <v>6884566</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N52">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6884566</v>
+        <v>6878163</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L53">
         <v>3.6</v>
       </c>
       <c r="M53">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N53">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P53">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5348,7 +5348,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.1</v>
@@ -5437,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5523,10 +5523,10 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>2.625</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5627,61 +5627,61 @@
         <v>47</v>
       </c>
       <c r="K58">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L58">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
         <v>1.75</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,13 +5701,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5716,61 +5716,61 @@
         <v>46</v>
       </c>
       <c r="K59">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M59">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.75</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>1.75</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6879734</v>
+        <v>6883797</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,73 +5790,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60">
+        <v>2.625</v>
+      </c>
+      <c r="L60">
+        <v>3.5</v>
+      </c>
+      <c r="M60">
+        <v>2.25</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>3.8</v>
+      </c>
+      <c r="P60">
+        <v>1.8</v>
+      </c>
+      <c r="Q60">
+        <v>0.5</v>
+      </c>
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-      <c r="J60" t="s">
-        <v>47</v>
-      </c>
-      <c r="K60">
-        <v>1.25</v>
-      </c>
-      <c r="L60">
-        <v>5</v>
-      </c>
-      <c r="M60">
-        <v>8.5</v>
-      </c>
-      <c r="N60">
-        <v>1.363</v>
-      </c>
-      <c r="O60">
-        <v>5</v>
-      </c>
-      <c r="P60">
-        <v>7.5</v>
-      </c>
-      <c r="Q60">
-        <v>-1.25</v>
-      </c>
-      <c r="R60">
-        <v>1.75</v>
-      </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X60">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6883797</v>
+        <v>6879734</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,73 +5879,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P61">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
+        <v>0.95</v>
+      </c>
+      <c r="AB61">
         <v>1</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5968,10 +5968,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6057,7 +6057,7 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6878164</v>
+        <v>6884065</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,10 +6146,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6158,64 +6158,64 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M64">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>1.975</v>
-      </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,10 +6235,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
         <v>31</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>3.4</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6884065</v>
+        <v>6878164</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,10 +6324,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6336,64 +6336,64 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N66">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
         <v>1.975</v>
       </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
       <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.9</v>
+      </c>
+      <c r="V66">
+        <v>1.9</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
         <v>2.5</v>
       </c>
-      <c r="U66">
-        <v>1.85</v>
-      </c>
-      <c r="V66">
-        <v>1.95</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>3.2</v>
-      </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6502,10 +6502,10 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s">
         <v>43</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6594,7 +6594,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6884068</v>
+        <v>6884056</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6883799</v>
+        <v>6884068</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,73 +6772,73 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L71">
+        <v>3.75</v>
+      </c>
+      <c r="M71">
+        <v>3.75</v>
+      </c>
+      <c r="N71">
+        <v>2.05</v>
+      </c>
+      <c r="O71">
+        <v>3.75</v>
+      </c>
+      <c r="P71">
         <v>3.4</v>
       </c>
-      <c r="M71">
-        <v>2.625</v>
-      </c>
-      <c r="N71">
-        <v>2.3</v>
-      </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
-      <c r="P71">
-        <v>3</v>
-      </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
         <v>2.75</v>
       </c>
       <c r="U71">
+        <v>1.975</v>
+      </c>
+      <c r="V71">
         <v>1.825</v>
       </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
       <c r="W71">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6884056</v>
+        <v>6883799</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,43 +6873,43 @@
         <v>45</v>
       </c>
       <c r="K72">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N72">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6918,7 +6918,7 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6927,7 +6927,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,10 +6947,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6959,7 +6959,7 @@
         <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>4.75</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6878187</v>
+        <v>6883887</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N74">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
         <v>1.85</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.95</v>
       </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
       <c r="W74">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z74">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6883887</v>
+        <v>6878187</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>45</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
         <v>3</v>
       </c>
-      <c r="J75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K75">
-        <v>2.1</v>
-      </c>
-      <c r="L75">
-        <v>3.4</v>
-      </c>
-      <c r="M75">
-        <v>2.875</v>
-      </c>
       <c r="N75">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6883485</v>
+        <v>6878188</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6878188</v>
+        <v>6883485</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" t="s">
         <v>31</v>
       </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78">
+        <v>1.727</v>
+      </c>
+      <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>1.833</v>
+      </c>
+      <c r="O78">
+        <v>3.75</v>
+      </c>
+      <c r="P78">
+        <v>4.2</v>
+      </c>
+      <c r="Q78">
+        <v>-0.5</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
         <v>2</v>
       </c>
-      <c r="J78" t="s">
-        <v>46</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>3.6</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78">
-        <v>3.6</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
-      <c r="P78">
-        <v>1.909</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6884571</v>
+        <v>6883486</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,13 +7481,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,43 +7496,43 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N79">
+        <v>1.3</v>
+      </c>
+      <c r="O79">
+        <v>5.25</v>
+      </c>
+      <c r="P79">
+        <v>11</v>
+      </c>
+      <c r="Q79">
+        <v>-1.75</v>
+      </c>
+      <c r="R79">
+        <v>1.95</v>
+      </c>
+      <c r="S79">
         <v>1.85</v>
       </c>
-      <c r="O79">
-        <v>3.8</v>
-      </c>
-      <c r="P79">
-        <v>3.75</v>
-      </c>
-      <c r="Q79">
-        <v>-0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.85</v>
-      </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W79">
-        <v>0.8500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6883486</v>
+        <v>6884105</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,13 +7570,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F80" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" t="s">
         <v>30</v>
       </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
       <c r="H80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7585,43 +7585,43 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L80">
         <v>4</v>
       </c>
       <c r="M80">
+        <v>4.8</v>
+      </c>
+      <c r="N80">
+        <v>1.55</v>
+      </c>
+      <c r="O80">
         <v>4.333</v>
       </c>
-      <c r="N80">
-        <v>1.3</v>
-      </c>
-      <c r="O80">
-        <v>5.25</v>
-      </c>
       <c r="P80">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q80">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R80">
+        <v>1.75</v>
+      </c>
+      <c r="S80">
         <v>1.95</v>
       </c>
-      <c r="S80">
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
         <v>1.85</v>
       </c>
-      <c r="T80">
-        <v>2.75</v>
-      </c>
-      <c r="U80">
-        <v>1.7</v>
-      </c>
       <c r="V80">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,16 +7630,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
+        <v>0.75</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.95</v>
-      </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>0.7</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6884105</v>
+        <v>6884571</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,13 +7659,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7674,43 +7674,43 @@
         <v>45</v>
       </c>
       <c r="K81">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="N81">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O81">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
         <v>1.95</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7719,7 +7719,7 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7728,7 +7728,7 @@
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>2.25</v>
@@ -7837,10 +7837,10 @@
         <v>45210.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7929,7 +7929,7 @@
         <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.666</v>
@@ -8018,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>4.333</v>
@@ -8104,10 +8104,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>2.25</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6884123</v>
+        <v>6883488</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8196,7 +8196,7 @@
         <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8208,31 +8208,31 @@
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S87">
-        <v>1.725</v>
+        <v>2.075</v>
       </c>
       <c r="T87">
         <v>2.5</v>
@@ -8241,10 +8241,10 @@
         <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>1.4</v>
+        <v>0.333</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,10 +8253,10 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.5375000000000001</v>
       </c>
       <c r="AB87">
         <v>0.95</v>
@@ -8282,10 +8282,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6883488</v>
+        <v>6884123</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8386,31 +8386,31 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
         <v>1.725</v>
-      </c>
-      <c r="S89">
-        <v>2.075</v>
       </c>
       <c r="T89">
         <v>2.5</v>
@@ -8419,10 +8419,10 @@
         <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W89">
-        <v>0.333</v>
+        <v>1.4</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,10 +8431,10 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.5375000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>0.95</v>
@@ -8460,7 +8460,7 @@
         <v>45214.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8552,7 +8552,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>2.1</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6884109</v>
+        <v>6884110</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,58 +8727,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>45</v>
       </c>
       <c r="K93">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O93">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
+        <v>1.775</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
+        <v>2.25</v>
+      </c>
+      <c r="U93">
         <v>1.825</v>
       </c>
-      <c r="S93">
+      <c r="V93">
         <v>1.975</v>
       </c>
-      <c r="T93">
-        <v>3</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
       <c r="W93">
-        <v>0.25</v>
+        <v>1.625</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6883490</v>
+        <v>6884109</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94">
+        <v>1.25</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>9</v>
+      </c>
+      <c r="N94">
+        <v>1.25</v>
+      </c>
+      <c r="O94">
+        <v>5.75</v>
+      </c>
+      <c r="P94">
+        <v>13</v>
+      </c>
+      <c r="Q94">
+        <v>-1.75</v>
+      </c>
+      <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
         <v>3</v>
       </c>
-      <c r="J94" t="s">
-        <v>46</v>
-      </c>
-      <c r="K94">
-        <v>3.75</v>
-      </c>
-      <c r="L94">
-        <v>4</v>
-      </c>
-      <c r="M94">
-        <v>1.666</v>
-      </c>
-      <c r="N94">
-        <v>3.2</v>
-      </c>
-      <c r="O94">
-        <v>3.6</v>
-      </c>
-      <c r="P94">
-        <v>2.15</v>
-      </c>
-      <c r="Q94">
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
         <v>0.25</v>
       </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
-      <c r="S94">
-        <v>1.875</v>
-      </c>
-      <c r="T94">
-        <v>2.25</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>1.9</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA94">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,10 +8905,10 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8917,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>1.727</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6884110</v>
+        <v>6883490</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,73 +8994,73 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N96">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q96">
         <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z96">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9083,10 +9083,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s">
         <v>41</v>
-      </c>
-      <c r="G97" t="s">
-        <v>42</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2.2</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6884111</v>
+        <v>6883491</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,40 +9172,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P98">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9214,34 +9214,34 @@
         <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6883866</v>
+        <v>6883492</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,73 +9261,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9350,10 +9350,10 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6883491</v>
+        <v>6883866</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,55 +9439,55 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L101">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="O101">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
         <v>1.95</v>
       </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6883492</v>
+        <v>6884111</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,73 +9528,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N102">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,73 +9617,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103">
         <v>2</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>47</v>
-      </c>
-      <c r="K103">
-        <v>2.625</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6884124</v>
+        <v>6884112</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
         <v>3.4</v>
       </c>
       <c r="M104">
+        <v>2.4</v>
+      </c>
+      <c r="N104">
         <v>3.1</v>
       </c>
-      <c r="N104">
-        <v>2.05</v>
-      </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
+        <v>1.925</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.75</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>0.475</v>
+      </c>
+      <c r="AA104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2</v>
-      </c>
-      <c r="V104">
-        <v>1.8</v>
-      </c>
-      <c r="W104">
-        <v>1.05</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>1</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9795,10 +9795,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9973,10 +9973,10 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10062,10 +10062,10 @@
         <v>45234.375</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10151,10 +10151,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>2.5</v>
@@ -10240,10 +10240,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10252,7 +10252,7 @@
         <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10421,7 +10421,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.3</v>
@@ -10510,7 +10510,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10519,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.625</v>
@@ -10596,7 +10596,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>1.666</v>
@@ -10774,10 +10774,10 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>1.533</v>
@@ -10863,10 +10863,10 @@
         <v>45241.375</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10955,7 +10955,7 @@
         <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11041,10 +11041,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11053,7 +11053,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>3.1</v>
@@ -11130,10 +11130,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11219,7 +11219,7 @@
         <v>45245.375</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
         <v>37</v>
@@ -11308,10 +11308,10 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>7.5</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6884074</v>
+        <v>6883855</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z123">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6883855</v>
+        <v>6884074</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
+        <v>2.5</v>
+      </c>
+      <c r="N124">
+        <v>2.8</v>
+      </c>
+      <c r="O124">
         <v>3.75</v>
       </c>
-      <c r="N124">
-        <v>1.45</v>
-      </c>
-      <c r="O124">
-        <v>4.75</v>
-      </c>
       <c r="P124">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,10 +11575,10 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>5</v>
@@ -11667,7 +11667,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>2.625</v>
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>2.4</v>
@@ -11931,7 +11931,7 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>37</v>
@@ -11943,7 +11943,7 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>3.5</v>
@@ -12023,7 +12023,7 @@
         <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12112,7 +12112,7 @@
         <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2.5</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6883464</v>
+        <v>6883856</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="N132">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
+        <v>3</v>
+      </c>
+      <c r="U132">
+        <v>1.925</v>
+      </c>
+      <c r="V132">
+        <v>1.875</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
         <v>2.5</v>
       </c>
-      <c r="U132">
-        <v>1.85</v>
-      </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
-      <c r="W132">
-        <v>0.3</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6883856</v>
+        <v>6883464</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M133">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P133">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>3.75</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6884075</v>
+        <v>6884121</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,70 +12468,70 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M135">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N135">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O135">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P135">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X135">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6884121</v>
+        <v>6884075</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
         <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.925</v>
+      </c>
+      <c r="AB136">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12643,10 +12643,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6883803</v>
+        <v>6878177</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,49 +12729,49 @@
         <v>28</v>
       </c>
       <c r="E138" s="2">
-        <v>45360.39583333334</v>
+        <v>45361.27083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K138">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N138">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12786,6 +12786,80 @@
         <v>0</v>
       </c>
       <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>6884077</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" t="s">
+        <v>38</v>
+      </c>
+      <c r="K139">
+        <v>3.1</v>
+      </c>
+      <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>3.4</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>1.85</v>
+      </c>
+      <c r="Q139">
+        <v>0.5</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
+        <v>1.85</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
-    <t>MSK Povazska Bystrica</t>
-  </si>
-  <si>
     <t>Puchov</t>
   </si>
   <si>
@@ -118,28 +115,28 @@
     <t>FK Humenne</t>
   </si>
   <si>
+    <t>Dolny Kubin</t>
+  </si>
+  <si>
     <t>FC Petrzalka</t>
   </si>
   <si>
-    <t>Dolny Kubin</t>
+    <t>MSK Povazska Bystrica</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
   </si>
   <si>
-    <t>FK Pohronie</t>
-  </si>
-  <si>
     <t>Spartak Myjava</t>
   </si>
   <si>
-    <t>FC Tatran Presov</t>
+    <t>FK Pohronie</t>
   </si>
   <si>
     <t>KFC Komarno</t>
   </si>
   <si>
-    <t>STK Samorin</t>
+    <t>FC Tatran Presov</t>
   </si>
   <si>
     <t>MSK Zilina B</t>
@@ -148,16 +145,19 @@
     <t>Slovan Bratislava B</t>
   </si>
   <si>
+    <t>STK Samorin</t>
+  </si>
+  <si>
     <t>FK Tatran Liptovsky Mikulas</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6884046</v>
+        <v>6883846</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
         <v>3.3</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
+        <v>0.45</v>
+      </c>
+      <c r="AC3">
         <v>-0.5</v>
-      </c>
-      <c r="AA3">
-        <v>0.4125</v>
-      </c>
-      <c r="AB3">
-        <v>0.925</v>
-      </c>
-      <c r="AC3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6883846</v>
+        <v>6883439</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6883439</v>
+        <v>6883440</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,64 +907,64 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
+        <v>2.375</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
+        <v>2.5</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5">
+        <v>2.25</v>
+      </c>
+      <c r="U5">
+        <v>1.8</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
         <v>1.5</v>
       </c>
-      <c r="N5">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>4.333</v>
-      </c>
-      <c r="P5">
-        <v>1.5</v>
-      </c>
-      <c r="Q5">
-        <v>1.25</v>
-      </c>
-      <c r="R5">
-        <v>1.825</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>1.85</v>
-      </c>
-      <c r="V5">
-        <v>1.95</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>0.5</v>
-      </c>
       <c r="Z5">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6883440</v>
+        <v>6884167</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,52 +987,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
+        <v>2.7</v>
+      </c>
+      <c r="L6">
+        <v>3.3</v>
+      </c>
+      <c r="M6">
+        <v>2.25</v>
+      </c>
+      <c r="N6">
         <v>2.6</v>
       </c>
-      <c r="L6">
-        <v>3.2</v>
-      </c>
-      <c r="M6">
-        <v>2.375</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1041,19 +1041,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6884167</v>
+        <v>6884046</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,10 +1165,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1177,61 +1177,61 @@
         <v>47</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
         <v>3.3</v>
       </c>
       <c r="M8">
+        <v>2.75</v>
+      </c>
+      <c r="N8">
         <v>2.25</v>
       </c>
-      <c r="N8">
-        <v>2.6</v>
-      </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y8">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6884059</v>
+        <v>6884047</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,43 +1343,43 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
         <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6884047</v>
+        <v>6884059</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,43 +1432,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O11">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>3</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y11">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
+        <v>0.8</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB11">
-        <v>0.95</v>
-      </c>
-      <c r="AC11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6883441</v>
+        <v>6884048</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45143.5</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N12">
+        <v>1.55</v>
+      </c>
+      <c r="O12">
+        <v>4.333</v>
+      </c>
+      <c r="P12">
+        <v>5.75</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
         <v>1.85</v>
       </c>
-      <c r="O12">
-        <v>3.6</v>
-      </c>
-      <c r="P12">
-        <v>4.2</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W12">
+        <v>0.55</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>0.825</v>
-      </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,10 +1607,10 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6884048</v>
+        <v>6883441</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45143.5</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
+        <v>2.5</v>
+      </c>
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.95</v>
       </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6883847</v>
+        <v>6883442</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,70 +1788,70 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>2.4</v>
+      </c>
+      <c r="L15">
+        <v>3.2</v>
+      </c>
+      <c r="M15">
+        <v>2.6</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15">
-        <v>2.25</v>
-      </c>
-      <c r="L15">
-        <v>3.3</v>
-      </c>
-      <c r="M15">
-        <v>2.7</v>
-      </c>
-      <c r="N15">
-        <v>2.05</v>
-      </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.875</v>
@@ -1925,25 +1925,25 @@
         <v>1.925</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6878158</v>
+        <v>6883847</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N17">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z17">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6884049</v>
+        <v>6883443</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N18">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O18">
         <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.975</v>
+      </c>
+      <c r="S18">
+        <v>1.825</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
+        <v>1.95</v>
+      </c>
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="S18">
-        <v>1.95</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883873</v>
+        <v>6883848</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,13 +2141,13 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2159,58 +2159,58 @@
         <v>1.95</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883848</v>
+        <v>6884117</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,73 +2233,73 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
         <v>3.4</v>
       </c>
       <c r="M20">
+        <v>1.85</v>
+      </c>
+      <c r="N20">
+        <v>2.9</v>
+      </c>
+      <c r="O20">
+        <v>3.5</v>
+      </c>
+      <c r="P20">
+        <v>2.4</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>3.25</v>
       </c>
-      <c r="N20">
-        <v>1.75</v>
-      </c>
-      <c r="O20">
-        <v>3.8</v>
-      </c>
-      <c r="P20">
-        <v>4.5</v>
-      </c>
-      <c r="Q20">
-        <v>-0.75</v>
-      </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
       <c r="U20">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6884117</v>
+        <v>6884049</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,10 +2319,10 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2331,43 +2331,43 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O21">
         <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q21">
         <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2376,19 +2376,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6883443</v>
+        <v>6883873</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,73 +2411,73 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6883444</v>
+        <v>6878159</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,56 +2497,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.875</v>
+      </c>
+      <c r="V23">
         <v>1.925</v>
       </c>
-      <c r="V23">
-        <v>1.875</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2554,19 +2554,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6878159</v>
+        <v>6883444</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,56 +2586,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
+        <v>4.2</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>1.6</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>1.45</v>
+      </c>
+      <c r="Q24">
+        <v>1.25</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
         <v>1.95</v>
-      </c>
-      <c r="L24">
-        <v>3.4</v>
-      </c>
-      <c r="M24">
-        <v>3.25</v>
-      </c>
-      <c r="N24">
-        <v>1.909</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>3.75</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
+        <v>1.925</v>
+      </c>
+      <c r="V24">
         <v>1.875</v>
       </c>
-      <c r="V24">
-        <v>1.925</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6884060</v>
+        <v>6884061</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,55 +2678,55 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2735,13 +2735,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6884061</v>
+        <v>6884060</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,55 +2767,55 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L26">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2824,13 +2824,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2853,10 +2853,10 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6883849</v>
+        <v>6884050</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,13 +2942,13 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2957,19 +2957,19 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>1.5</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P28">
         <v>6.5</v>
@@ -2978,19 +2978,19 @@
         <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
         <v>0.5</v>
@@ -3002,16 +3002,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6884050</v>
+        <v>6883849</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,10 +3034,10 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3046,19 +3046,19 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3067,19 +3067,19 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>0.5</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6878160</v>
+        <v>6883793</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,73 +3123,73 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>3.5</v>
+      </c>
+      <c r="U30">
         <v>1.9</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.9</v>
       </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.8</v>
-      </c>
-      <c r="V30">
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
         <v>2</v>
       </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>2.2</v>
-      </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
+        <v>0.8</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB30">
-        <v>0.8</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6883793</v>
+        <v>6878160</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,56 +3209,56 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L31">
         <v>3.6</v>
       </c>
       <c r="M31">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N31">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.9</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1.8</v>
+      </c>
+      <c r="V31">
         <v>2</v>
       </c>
-      <c r="S31">
-        <v>1.8</v>
-      </c>
-      <c r="T31">
-        <v>3.5</v>
-      </c>
-      <c r="U31">
-        <v>1.9</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3266,19 +3266,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB31">
         <v>0.8</v>
       </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,10 +3298,10 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3387,10 +3387,10 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>2.45</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6883850</v>
+        <v>6883447</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3565,10 +3565,10 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>2.75</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6884158</v>
+        <v>6883850</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,73 +3654,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6883447</v>
+        <v>6884158</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,58 +3743,58 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H37">
         <v>4</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L37">
+        <v>3.3</v>
+      </c>
+      <c r="M37">
+        <v>2.45</v>
+      </c>
+      <c r="N37">
+        <v>2.45</v>
+      </c>
+      <c r="O37">
         <v>3.5</v>
       </c>
-      <c r="M37">
-        <v>3.6</v>
-      </c>
-      <c r="N37">
-        <v>1.533</v>
-      </c>
-      <c r="O37">
-        <v>4.75</v>
-      </c>
       <c r="P37">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,13 +3803,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6878161</v>
+        <v>6884051</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3844,43 +3844,43 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N38">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3889,19 +3889,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>3.2</v>
+        <v>0.75</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6884051</v>
+        <v>6878161</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3933,44 +3933,44 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L39">
+        <v>3.5</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>1.8</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>1.5</v>
-      </c>
-      <c r="N39">
-        <v>4.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
+        <v>1.825</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.875</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -3978,19 +3978,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,10 +4010,10 @@
         <v>45170.54513888889</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>3.1</v>
@@ -4099,10 +4099,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4200,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>2.75</v>
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,7 +4366,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6884159</v>
+        <v>6883450</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,73 +4455,73 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
+        <v>2.25</v>
+      </c>
+      <c r="L45">
+        <v>3.3</v>
+      </c>
+      <c r="M45">
         <v>2.75</v>
       </c>
-      <c r="L45">
+      <c r="N45">
+        <v>2.375</v>
+      </c>
+      <c r="O45">
         <v>3.5</v>
       </c>
-      <c r="M45">
-        <v>2.25</v>
-      </c>
-      <c r="N45">
-        <v>4.333</v>
-      </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
       <c r="P45">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6883450</v>
+        <v>6884159</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,70 +4547,70 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>46</v>
       </c>
       <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
         <v>2.25</v>
       </c>
-      <c r="L46">
-        <v>3.3</v>
-      </c>
-      <c r="M46">
-        <v>2.75</v>
-      </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z46">
         <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4633,10 +4633,10 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6883851</v>
+        <v>6884063</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,73 +4722,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48">
+        <v>1.533</v>
+      </c>
+      <c r="L48">
         <v>4</v>
       </c>
-      <c r="J48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48">
-        <v>2.9</v>
-      </c>
-      <c r="L48">
-        <v>3.4</v>
-      </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="N48">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6884063</v>
+        <v>6883851</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,73 +4811,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>4</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4900,10 +4900,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1.533</v>
@@ -4989,10 +4989,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>2.625</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6884566</v>
+        <v>6878163</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6878163</v>
+        <v>6884566</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
         <v>3.6</v>
       </c>
       <c r="M53">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N53">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O53">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5345,10 +5345,10 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>2.1</v>
@@ -5434,10 +5434,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5523,10 +5523,10 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>2.625</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
         <v>31</v>
       </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5627,61 +5627,61 @@
         <v>47</v>
       </c>
       <c r="K58">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M58">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.75</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>1.75</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y58">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,7 +5707,7 @@
         <v>32</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5716,61 +5716,61 @@
         <v>46</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L59">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N59">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.75</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6883797</v>
+        <v>6879734</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,73 +5790,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>0.95</v>
+      </c>
+      <c r="AB60">
         <v>1</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6879734</v>
+        <v>6883797</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,73 +5879,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61">
+        <v>2.625</v>
+      </c>
+      <c r="L61">
+        <v>3.5</v>
+      </c>
+      <c r="M61">
+        <v>2.25</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <v>3.8</v>
+      </c>
+      <c r="P61">
+        <v>1.8</v>
+      </c>
+      <c r="Q61">
+        <v>0.5</v>
+      </c>
+      <c r="R61">
         <v>2</v>
       </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61" t="s">
-        <v>46</v>
-      </c>
-      <c r="K61">
-        <v>1.25</v>
-      </c>
-      <c r="L61">
-        <v>5</v>
-      </c>
-      <c r="M61">
-        <v>8.5</v>
-      </c>
-      <c r="N61">
-        <v>1.363</v>
-      </c>
-      <c r="O61">
-        <v>5</v>
-      </c>
-      <c r="P61">
-        <v>7.5</v>
-      </c>
-      <c r="Q61">
-        <v>-1.25</v>
-      </c>
-      <c r="R61">
-        <v>1.75</v>
-      </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X61">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6883455</v>
+        <v>6883456</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,13 +5968,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5983,34 +5983,34 @@
         <v>45</v>
       </c>
       <c r="K62">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N62">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
         <v>1.9</v>
@@ -6019,7 +6019,7 @@
         <v>1.9</v>
       </c>
       <c r="W62">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6028,10 +6028,10 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6883456</v>
+        <v>6883455</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,13 +6057,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6072,34 +6072,34 @@
         <v>45</v>
       </c>
       <c r="K63">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N63">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P63">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6108,7 +6108,7 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6117,10 +6117,10 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6884065</v>
+        <v>6883852</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6161,61 +6161,61 @@
         <v>46</v>
       </c>
       <c r="K64">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L64">
+        <v>3.6</v>
+      </c>
+      <c r="M64">
+        <v>1.85</v>
+      </c>
+      <c r="N64">
         <v>3.75</v>
       </c>
-      <c r="M64">
-        <v>4</v>
-      </c>
-      <c r="N64">
-        <v>1.6</v>
-      </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P64">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
+        <v>1.9</v>
+      </c>
+      <c r="S64">
+        <v>1.9</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
         <v>1.975</v>
       </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.85</v>
-      </c>
-      <c r="V64">
-        <v>1.95</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6883852</v>
+        <v>6878164</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,13 +6235,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6250,61 +6250,61 @@
         <v>47</v>
       </c>
       <c r="K65">
+        <v>2.75</v>
+      </c>
+      <c r="L65">
         <v>3.4</v>
       </c>
-      <c r="L65">
-        <v>3.6</v>
-      </c>
       <c r="M65">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N65">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q65">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y65">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA65">
+        <v>-0.5</v>
+      </c>
+      <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
-      <c r="AC65">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6878164</v>
+        <v>6884065</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,10 +6324,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6336,64 +6336,64 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P66">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
         <v>1.825</v>
       </c>
-      <c r="S66">
-        <v>1.975</v>
-      </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6416,7 +6416,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6502,10 +6502,10 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
         <v>42</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6591,10 +6591,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6884056</v>
+        <v>6884068</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N70">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6884068</v>
+        <v>6883799</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
+      <c r="J71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71">
+        <v>2.25</v>
+      </c>
+      <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71">
+        <v>2.625</v>
+      </c>
+      <c r="N71">
+        <v>2.3</v>
+      </c>
+      <c r="O71">
+        <v>3.5</v>
+      </c>
+      <c r="P71">
         <v>3</v>
       </c>
-      <c r="J71" t="s">
-        <v>47</v>
-      </c>
-      <c r="K71">
-        <v>1.727</v>
-      </c>
-      <c r="L71">
-        <v>3.75</v>
-      </c>
-      <c r="M71">
-        <v>3.75</v>
-      </c>
-      <c r="N71">
-        <v>2.05</v>
-      </c>
-      <c r="O71">
-        <v>3.75</v>
-      </c>
-      <c r="P71">
-        <v>3.4</v>
-      </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
         <v>2.75</v>
       </c>
       <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
         <v>1.975</v>
       </c>
-      <c r="V71">
-        <v>1.825</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA71">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6883799</v>
+        <v>6884056</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
         <v>31</v>
       </c>
-      <c r="G72" t="s">
-        <v>44</v>
-      </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,43 +6873,43 @@
         <v>45</v>
       </c>
       <c r="K72">
+        <v>1.8</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>3.6</v>
+      </c>
+      <c r="N72">
         <v>2.25</v>
-      </c>
-      <c r="L72">
-        <v>3.4</v>
-      </c>
-      <c r="M72">
-        <v>2.625</v>
-      </c>
-      <c r="N72">
-        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.85</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
         <v>2</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
-      <c r="U72">
-        <v>1.825</v>
-      </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6918,7 +6918,7 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6927,7 +6927,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6884165</v>
+        <v>6878187</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,10 +7036,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>2.1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6878187</v>
+        <v>6884165</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="N75">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z75">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,10 +7214,10 @@
         <v>45205.5</v>
       </c>
       <c r="F76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" t="s">
         <v>37</v>
-      </c>
-      <c r="G76" t="s">
-        <v>38</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6878188</v>
+        <v>6883486</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,73 +7306,73 @@
         <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P77">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6883485</v>
+        <v>6884105</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,10 +7395,10 @@
         <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7407,34 +7407,34 @@
         <v>45</v>
       </c>
       <c r="K78">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N78">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U78">
         <v>1.85</v>
@@ -7443,7 +7443,7 @@
         <v>1.95</v>
       </c>
       <c r="W78">
-        <v>0.833</v>
+        <v>0.55</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,7 +7452,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6883486</v>
+        <v>6884571</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,13 +7481,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,43 +7496,43 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N79">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="O79">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="Q79">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
+        <v>1.85</v>
+      </c>
+      <c r="S79">
         <v>1.95</v>
       </c>
-      <c r="S79">
-        <v>1.85</v>
-      </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>0.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6884105</v>
+        <v>6883485</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,7 +7576,7 @@
         <v>30</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7585,34 +7585,34 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
+        <v>3.5</v>
+      </c>
+      <c r="M80">
         <v>4</v>
       </c>
-      <c r="M80">
-        <v>4.8</v>
-      </c>
       <c r="N80">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7621,7 +7621,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.55</v>
+        <v>0.833</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,7 +7630,7 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6884571</v>
+        <v>6878188</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <v>3.6</v>
       </c>
       <c r="M81">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
         <v>3.8</v>
       </c>
       <c r="P81">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
+        <v>1.925</v>
+      </c>
+      <c r="V81">
         <v>1.875</v>
       </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
       <c r="W81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>2.25</v>
@@ -7837,10 +7837,10 @@
         <v>45210.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7926,10 +7926,10 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>1.666</v>
@@ -8018,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>4.333</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6883864</v>
+        <v>6884106</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M86">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N86">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
         <v>36</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6884106</v>
+        <v>6883864</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,73 +8285,73 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,10 +8371,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8549,10 +8549,10 @@
         <v>45219.5</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>2.1</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6884110</v>
+        <v>6883490</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,73 +8727,73 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q93">
         <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z93">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8816,7 +8816,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -8905,7 +8905,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
@@ -8917,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>1.727</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6883490</v>
+        <v>6884110</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,73 +8994,73 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
+        <v>2.875</v>
+      </c>
+      <c r="L96">
         <v>3.75</v>
       </c>
-      <c r="L96">
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>2.625</v>
+      </c>
+      <c r="O96">
         <v>4</v>
       </c>
-      <c r="M96">
-        <v>1.666</v>
-      </c>
-      <c r="N96">
-        <v>3.2</v>
-      </c>
-      <c r="O96">
-        <v>3.6</v>
-      </c>
       <c r="P96">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="Q96">
         <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9083,10 +9083,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s">
         <v>43</v>
-      </c>
-      <c r="G97" t="s">
-        <v>41</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>2.2</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6883491</v>
+        <v>6883492</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N98">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
         <v>2</v>
       </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>1.85</v>
-      </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC98">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6883492</v>
+        <v>6883491</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,73 +9264,73 @@
         <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N99">
+        <v>9</v>
+      </c>
+      <c r="O99">
+        <v>6</v>
+      </c>
+      <c r="P99">
+        <v>1.2</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
+        <v>1.7</v>
+      </c>
+      <c r="V99">
         <v>2.1</v>
       </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>3.5</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.8</v>
-      </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6883891</v>
+        <v>6884111</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,73 +9350,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>47</v>
+      </c>
+      <c r="K100">
+        <v>2.55</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.4</v>
+      </c>
+      <c r="N100">
+        <v>2.625</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
+        <v>2.55</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100" t="s">
-        <v>45</v>
-      </c>
-      <c r="K100">
-        <v>1.65</v>
-      </c>
-      <c r="L100">
-        <v>3.6</v>
-      </c>
-      <c r="M100">
-        <v>4.75</v>
-      </c>
-      <c r="N100">
-        <v>1.533</v>
-      </c>
-      <c r="O100">
-        <v>4.2</v>
-      </c>
-      <c r="P100">
-        <v>6.5</v>
-      </c>
-      <c r="Q100">
-        <v>-1</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9439,10 +9439,10 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>1.75</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6884111</v>
+        <v>6883891</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,73 +9528,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
       </c>
       <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>45</v>
+      </c>
+      <c r="K102">
+        <v>1.65</v>
+      </c>
+      <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>4.75</v>
+      </c>
+      <c r="N102">
+        <v>1.533</v>
+      </c>
+      <c r="O102">
+        <v>4.2</v>
+      </c>
+      <c r="P102">
+        <v>6.5</v>
+      </c>
+      <c r="Q102">
+        <v>-1</v>
+      </c>
+      <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
+        <v>1.8</v>
+      </c>
+      <c r="V102">
         <v>2</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
-      <c r="J102" t="s">
-        <v>46</v>
-      </c>
-      <c r="K102">
-        <v>2.55</v>
-      </c>
-      <c r="L102">
-        <v>3.5</v>
-      </c>
-      <c r="M102">
-        <v>2.4</v>
-      </c>
-      <c r="N102">
-        <v>2.625</v>
-      </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
-      <c r="P102">
-        <v>2.55</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.95</v>
-      </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884124</v>
+        <v>6884112</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,73 +9617,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
+        <v>2.4</v>
+      </c>
+      <c r="N103">
         <v>3.1</v>
       </c>
-      <c r="N103">
-        <v>2.05</v>
-      </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.775</v>
+      </c>
+      <c r="V103">
+        <v>1.925</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>2.75</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.475</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.8</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2</v>
-      </c>
-      <c r="V103">
-        <v>1.8</v>
-      </c>
-      <c r="W103">
-        <v>1.05</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>1</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6884112</v>
+        <v>6878191</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O104">
         <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q104">
         <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X104">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6878191</v>
+        <v>6884124</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,10 +9795,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9810,43 +9810,43 @@
         <v>45</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L105">
+        <v>3.4</v>
+      </c>
+      <c r="M105">
+        <v>3.1</v>
+      </c>
+      <c r="N105">
+        <v>2.05</v>
+      </c>
+      <c r="O105">
         <v>3.6</v>
       </c>
-      <c r="M105">
-        <v>2.05</v>
-      </c>
-      <c r="N105">
-        <v>2.8</v>
-      </c>
-      <c r="O105">
-        <v>3.75</v>
-      </c>
       <c r="P105">
+        <v>3.5</v>
+      </c>
+      <c r="Q105">
+        <v>-0.5</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
         <v>2.25</v>
       </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.825</v>
-      </c>
-      <c r="S105">
-        <v>1.975</v>
-      </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
       <c r="U105">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,13 +9855,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9884,7 +9884,7 @@
         <v>45233.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9973,10 +9973,10 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10062,10 +10062,10 @@
         <v>45234.375</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
         <v>34</v>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>2.5</v>
@@ -10240,10 +10240,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10252,7 +10252,7 @@
         <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10418,10 +10418,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>2.3</v>
@@ -10507,7 +10507,7 @@
         <v>45240.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
         <v>34</v>
@@ -10519,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>2.625</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6883877</v>
+        <v>6883801</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
+        <v>1.571</v>
+      </c>
+      <c r="O114">
+        <v>4.2</v>
+      </c>
+      <c r="P114">
+        <v>6</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
         <v>1.95</v>
-      </c>
-      <c r="O114">
-        <v>3.75</v>
-      </c>
-      <c r="P114">
-        <v>3.6</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>1.95</v>
-      </c>
-      <c r="S114">
-        <v>1.85</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X114">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6883801</v>
+        <v>6883877</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K115">
+        <v>1.666</v>
+      </c>
+      <c r="L115">
+        <v>4.1</v>
+      </c>
+      <c r="M115">
         <v>4</v>
       </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115" t="s">
-        <v>45</v>
-      </c>
-      <c r="K115">
-        <v>1.8</v>
-      </c>
-      <c r="L115">
-        <v>4</v>
-      </c>
-      <c r="M115">
-        <v>3.5</v>
-      </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
         <v>1.85</v>
-      </c>
-      <c r="S115">
-        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,10 +10774,10 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>1.533</v>
@@ -10863,10 +10863,10 @@
         <v>45241.375</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10952,10 +10952,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11041,10 +11041,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11053,7 +11053,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>3.1</v>
@@ -11130,10 +11130,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11219,10 +11219,10 @@
         <v>45245.375</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6884120</v>
+        <v>6883855</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,55 +11308,55 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="L122">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
         <v>4.75</v>
       </c>
       <c r="P122">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11365,19 +11365,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.571</v>
+        <v>5</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6883855</v>
+        <v>6884120</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,52 +11400,52 @@
         <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>6</v>
-      </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="N123">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="O123">
         <v>4.75</v>
       </c>
       <c r="P123">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11454,19 +11454,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>5</v>
+        <v>0.571</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11489,7 +11489,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>2.4</v>
@@ -11578,7 +11578,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>5</v>
@@ -11667,7 +11667,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>2.625</v>
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>2.4</v>
@@ -11845,7 +11845,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11931,10 +11931,10 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11943,7 +11943,7 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>3.5</v>
@@ -12020,10 +12020,10 @@
         <v>45352.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12109,7 +12109,7 @@
         <v>45352.625</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>2.5</v>
@@ -12198,10 +12198,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F132" t="s">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s">
         <v>30</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132">
         <v>2.1</v>
@@ -12287,7 +12287,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>36</v>
@@ -12379,7 +12379,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>3.75</v>
@@ -12465,10 +12465,10 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>5</v>
@@ -12554,7 +12554,7 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12566,7 +12566,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>2.1</v>
@@ -12643,10 +12643,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6878177</v>
+        <v>6883803</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,64 +12729,79 @@
         <v>28</v>
       </c>
       <c r="E138" s="2">
-        <v>45361.27083333334</v>
+        <v>45360.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>5</v>
+      </c>
+      <c r="J138" t="s">
+        <v>46</v>
       </c>
       <c r="K138">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N138">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="O138">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T138">
         <v>3.25</v>
       </c>
       <c r="U138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="AB138">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12794,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6884077</v>
+        <v>7923546</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12803,64 +12818,613 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45361.45833333334</v>
+        <v>45360.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
         <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N139">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O139">
         <v>3.5</v>
       </c>
       <c r="P139">
+        <v>2.375</v>
+      </c>
+      <c r="Q139">
+        <v>0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.775</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.8</v>
+      </c>
+      <c r="V139">
+        <v>2</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>1.375</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>1.025</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>6884078</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" t="s">
+        <v>38</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>46</v>
+      </c>
+      <c r="K140">
+        <v>4.333</v>
+      </c>
+      <c r="L140">
+        <v>3.75</v>
+      </c>
+      <c r="M140">
+        <v>1.615</v>
+      </c>
+      <c r="N140">
+        <v>5</v>
+      </c>
+      <c r="O140">
+        <v>4.2</v>
+      </c>
+      <c r="P140">
+        <v>1.6</v>
+      </c>
+      <c r="Q140">
+        <v>0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
+        <v>1.75</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>1.875</v>
+      </c>
+      <c r="V140">
+        <v>1.925</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z140">
+        <v>-0.5</v>
+      </c>
+      <c r="AA140">
+        <v>0.375</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>6884076</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>35</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>46</v>
+      </c>
+      <c r="K141">
+        <v>2.625</v>
+      </c>
+      <c r="L141">
+        <v>3.4</v>
+      </c>
+      <c r="M141">
+        <v>2.3</v>
+      </c>
+      <c r="N141">
+        <v>2.625</v>
+      </c>
+      <c r="O141">
+        <v>3.4</v>
+      </c>
+      <c r="P141">
+        <v>2.625</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.9</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>1.625</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB141">
+        <v>0.8</v>
+      </c>
+      <c r="AC141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>6883465</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>32</v>
+      </c>
+      <c r="G142" t="s">
+        <v>42</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>45</v>
+      </c>
+      <c r="K142">
+        <v>1.909</v>
+      </c>
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
+        <v>3.5</v>
+      </c>
+      <c r="N142">
+        <v>1.533</v>
+      </c>
+      <c r="O142">
+        <v>4.2</v>
+      </c>
+      <c r="P142">
+        <v>6</v>
+      </c>
+      <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
+        <v>1.925</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
         <v>1.85</v>
       </c>
-      <c r="Q139">
-        <v>0.5</v>
-      </c>
-      <c r="R139">
+      <c r="W142">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0.875</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>6883466</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" t="s">
+        <v>39</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>45</v>
+      </c>
+      <c r="K143">
+        <v>2.1</v>
+      </c>
+      <c r="L143">
+        <v>3.3</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>1.8</v>
+      </c>
+      <c r="O143">
+        <v>3.5</v>
+      </c>
+      <c r="P143">
+        <v>4.75</v>
+      </c>
+      <c r="Q143">
+        <v>-0.75</v>
+      </c>
+      <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
+        <v>1.975</v>
+      </c>
+      <c r="W143">
+        <v>0.8</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.95</v>
+      </c>
+      <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>6878177</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45361.27083333334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>47</v>
+      </c>
+      <c r="K144">
+        <v>1.5</v>
+      </c>
+      <c r="L144">
+        <v>3.75</v>
+      </c>
+      <c r="M144">
+        <v>5.5</v>
+      </c>
+      <c r="N144">
+        <v>1.444</v>
+      </c>
+      <c r="O144">
+        <v>5</v>
+      </c>
+      <c r="P144">
+        <v>6.5</v>
+      </c>
+      <c r="Q144">
+        <v>-1.5</v>
+      </c>
+      <c r="R144">
+        <v>1.925</v>
+      </c>
+      <c r="S144">
+        <v>1.775</v>
+      </c>
+      <c r="T144">
+        <v>3.5</v>
+      </c>
+      <c r="U144">
+        <v>1.925</v>
+      </c>
+      <c r="V144">
+        <v>1.775</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>4</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>6884077</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F145" t="s">
+        <v>33</v>
+      </c>
+      <c r="G145" t="s">
+        <v>37</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>45</v>
+      </c>
+      <c r="K145">
+        <v>3.1</v>
+      </c>
+      <c r="L145">
+        <v>3.4</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>1.7</v>
+      </c>
+      <c r="Q145">
+        <v>0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>1.85</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
         <v>1.9</v>
       </c>
-      <c r="S139">
+      <c r="V145">
         <v>1.9</v>
       </c>
-      <c r="T139">
-        <v>3</v>
-      </c>
-      <c r="U139">
-        <v>1.95</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
-      </c>
-      <c r="Y139">
-        <v>0</v>
-      </c>
-      <c r="Z139">
-        <v>0</v>
-      </c>
-      <c r="AA139">
-        <v>0</v>
+      <c r="W145">
+        <v>4</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.95</v>
+      </c>
+      <c r="AA145">
+        <v>-1</v>
+      </c>
+      <c r="AB145">
+        <v>0.45</v>
+      </c>
+      <c r="AC145">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -109,19 +109,19 @@
     <t>Puchov</t>
   </si>
   <si>
-    <t>Spisska Nova Ves</t>
-  </si>
-  <si>
-    <t>FK Humenne</t>
+    <t>MSK Povazska Bystrica</t>
   </si>
   <si>
     <t>Dolny Kubin</t>
   </si>
   <si>
+    <t>Spisska Nova Ves</t>
+  </si>
+  <si>
     <t>FC Petrzalka</t>
   </si>
   <si>
-    <t>MSK Povazska Bystrica</t>
+    <t>FK Humenne</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
@@ -139,10 +139,10 @@
     <t>FC Tatran Presov</t>
   </si>
   <si>
-    <t>MSK Zilina B</t>
+    <t>Slovan Bratislava B</t>
   </si>
   <si>
-    <t>Slovan Bratislava B</t>
+    <t>MSK Zilina B</t>
   </si>
   <si>
     <t>STK Samorin</t>
@@ -154,10 +154,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6883439</v>
+        <v>6884046</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
+        <v>1.975</v>
+      </c>
+      <c r="S4">
         <v>1.825</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
+        <v>-0.5</v>
+      </c>
+      <c r="AA4">
         <v>0.4125</v>
       </c>
-      <c r="AA4">
-        <v>-0.5</v>
-      </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6883440</v>
+        <v>6884167</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,52 +898,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5">
+        <v>2.7</v>
+      </c>
+      <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>2.25</v>
+      </c>
+      <c r="N5">
         <v>2.6</v>
       </c>
-      <c r="L5">
-        <v>3.2</v>
-      </c>
-      <c r="M5">
-        <v>2.375</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -952,19 +952,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6884167</v>
+        <v>6883439</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,53 +987,53 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N6">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
+        <v>1.825</v>
+      </c>
+      <c r="S6">
+        <v>1.975</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
-      <c r="U6">
-        <v>1.9</v>
-      </c>
-      <c r="V6">
-        <v>1.9</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
@@ -1041,19 +1041,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6884046</v>
+        <v>6883440</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
+        <v>2.6</v>
+      </c>
+      <c r="L8">
+        <v>3.2</v>
+      </c>
+      <c r="M8">
+        <v>2.375</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3.25</v>
+      </c>
+      <c r="P8">
+        <v>2.5</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.75</v>
+      </c>
+      <c r="T8">
         <v>2.25</v>
       </c>
-      <c r="L8">
-        <v>3.3</v>
-      </c>
-      <c r="M8">
-        <v>2.75</v>
-      </c>
-      <c r="N8">
-        <v>2.25</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>3.1</v>
-      </c>
-      <c r="Q8">
-        <v>-0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.975</v>
-      </c>
-      <c r="S8">
-        <v>1.825</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1352,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>1.666</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>1.444</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6884048</v>
+        <v>6884116</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,58 +1518,58 @@
         <v>45143.5</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M12">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N12">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,16 +1578,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6884116</v>
+        <v>6884048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,58 +1607,58 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,16 +1667,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.875</v>
@@ -1836,25 +1836,25 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6878158</v>
+        <v>6883442</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.875</v>
@@ -1925,25 +1925,25 @@
         <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1975,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6883443</v>
+        <v>6884117</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N18">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O18">
         <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q18">
+        <v>0.25</v>
+      </c>
+      <c r="R18">
+        <v>1.775</v>
+      </c>
+      <c r="S18">
+        <v>2.025</v>
+      </c>
+      <c r="T18">
+        <v>3.25</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
+        <v>1.875</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>1.4</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>1.025</v>
+      </c>
+      <c r="AB18">
         <v>-0.5</v>
       </c>
-      <c r="R18">
-        <v>1.975</v>
-      </c>
-      <c r="S18">
-        <v>1.825</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.95</v>
-      </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
-      <c r="W18">
-        <v>0.95</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883848</v>
+        <v>6884049</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
         <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6884117</v>
+        <v>6883873</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L20">
+        <v>3.3</v>
+      </c>
+      <c r="M20">
         <v>3.4</v>
       </c>
-      <c r="M20">
-        <v>1.85</v>
-      </c>
       <c r="N20">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
         <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6884049</v>
+        <v>6883848</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N21">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>1.95</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y21">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.95</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6883873</v>
+        <v>6883443</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6878159</v>
+        <v>6883444</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,56 +2497,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
+        <v>4.2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.6</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>1.45</v>
+      </c>
+      <c r="Q23">
+        <v>1.25</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>3.25</v>
-      </c>
-      <c r="N23">
-        <v>1.909</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>3.75</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.925</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2554,19 +2554,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6883444</v>
+        <v>6878159</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,56 +2586,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="V24">
-        <v>1.875</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2767,7 +2767,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6883446</v>
+        <v>6884050</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,58 +2853,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2913,13 +2913,13 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6884050</v>
+        <v>6883446</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,58 +2942,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N28">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,13 +3002,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6883793</v>
+        <v>7068814</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,73 +3123,73 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
+        <v>4.8</v>
+      </c>
+      <c r="N30">
         <v>2.5</v>
       </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>1.95</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
         <v>2</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.8</v>
       </c>
-      <c r="T30">
-        <v>3.5</v>
-      </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>1.75</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7068814</v>
+        <v>6883793</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,73 +3301,73 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
+        <v>3.8</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>-0.25</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
         <v>3.5</v>
       </c>
-      <c r="P32">
-        <v>2.6</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
       <c r="U32">
+        <v>1.9</v>
+      </c>
+      <c r="V32">
+        <v>1.9</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
         <v>2</v>
       </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
-      <c r="W32">
-        <v>1.5</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3399,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.45</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6883447</v>
+        <v>6884158</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>4</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>2.45</v>
+      </c>
+      <c r="N34">
+        <v>2.45</v>
+      </c>
+      <c r="O34">
         <v>3.5</v>
       </c>
-      <c r="M34">
-        <v>3.6</v>
-      </c>
-      <c r="N34">
-        <v>1.533</v>
-      </c>
-      <c r="O34">
-        <v>4.75</v>
-      </c>
       <c r="P34">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,13 +3536,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6883874</v>
+        <v>6883850</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,19 +3565,19 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>2.75</v>
@@ -3589,16 +3589,16 @@
         <v>2.2</v>
       </c>
       <c r="N35">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3607,10 +3607,10 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
         <v>1.95</v>
@@ -3622,7 +3622,7 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z35">
         <v>-1</v>
@@ -3631,10 +3631,10 @@
         <v>0.875</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6883850</v>
+        <v>6883874</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,19 +3654,19 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>2.75</v>
@@ -3678,16 +3678,16 @@
         <v>2.2</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3696,10 +3696,10 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
         <v>1.95</v>
@@ -3711,7 +3711,7 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z36">
         <v>-1</v>
@@ -3720,10 +3720,10 @@
         <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6884158</v>
+        <v>6883447</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,58 +3743,58 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37">
         <v>4</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N37">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>1.825</v>
+      </c>
+      <c r="V37">
         <v>1.975</v>
       </c>
-      <c r="S37">
-        <v>1.725</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
       <c r="W37">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,13 +3803,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6884051</v>
+        <v>6878161</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3844,44 +3844,44 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>1.8</v>
+      </c>
+      <c r="O38">
         <v>4</v>
       </c>
-      <c r="M38">
-        <v>1.5</v>
-      </c>
-      <c r="N38">
-        <v>4.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
+        <v>1.825</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="S38">
-        <v>1.95</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>1.925</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
@@ -3889,19 +3889,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6878161</v>
+        <v>6884051</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3933,43 +3933,43 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N39">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3978,19 +3978,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.2</v>
+        <v>0.75</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>3.1</v>
@@ -4102,7 +4102,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4200,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>2.75</v>
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.25</v>
@@ -4544,7 +4544,7 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4556,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>2.75</v>
@@ -4633,7 +4633,7 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6884063</v>
+        <v>6883452</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48">
+        <v>2.625</v>
+      </c>
+      <c r="L48">
+        <v>3.3</v>
+      </c>
+      <c r="M48">
+        <v>2.3</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.7</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48">
-        <v>1.533</v>
-      </c>
-      <c r="L48">
-        <v>4</v>
-      </c>
-      <c r="M48">
-        <v>4.8</v>
-      </c>
-      <c r="N48">
-        <v>1.5</v>
-      </c>
-      <c r="O48">
-        <v>4.5</v>
-      </c>
-      <c r="P48">
-        <v>6</v>
-      </c>
-      <c r="Q48">
-        <v>-1.25</v>
-      </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6883851</v>
+        <v>6883451</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>46</v>
       </c>
       <c r="K49">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P49">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883451</v>
+        <v>6884063</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,19 +4900,19 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.533</v>
@@ -4924,52 +4924,52 @@
         <v>4.8</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q50">
         <v>-1.25</v>
       </c>
       <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>1.8</v>
       </c>
-      <c r="S50">
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>1.8</v>
+      </c>
+      <c r="V50">
         <v>2</v>
       </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.975</v>
-      </c>
-      <c r="V50">
-        <v>1.825</v>
-      </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6883452</v>
+        <v>6883851</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,73 +4992,73 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
       <c r="K51">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5348,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.1</v>
@@ -5523,7 +5523,7 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>39</v>
@@ -5535,7 +5535,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>2.625</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
         <v>35</v>
       </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5627,61 +5627,61 @@
         <v>47</v>
       </c>
       <c r="K58">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L58">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
         <v>1.75</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,13 +5701,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5716,61 +5716,61 @@
         <v>46</v>
       </c>
       <c r="K59">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M59">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.75</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>1.75</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6879734</v>
+        <v>6883797</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,73 +5790,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60">
+        <v>2.625</v>
+      </c>
+      <c r="L60">
+        <v>3.5</v>
+      </c>
+      <c r="M60">
+        <v>2.25</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>3.8</v>
+      </c>
+      <c r="P60">
+        <v>1.8</v>
+      </c>
+      <c r="Q60">
+        <v>0.5</v>
+      </c>
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-      <c r="J60" t="s">
-        <v>47</v>
-      </c>
-      <c r="K60">
-        <v>1.25</v>
-      </c>
-      <c r="L60">
-        <v>5</v>
-      </c>
-      <c r="M60">
-        <v>8.5</v>
-      </c>
-      <c r="N60">
-        <v>1.363</v>
-      </c>
-      <c r="O60">
-        <v>5</v>
-      </c>
-      <c r="P60">
-        <v>7.5</v>
-      </c>
-      <c r="Q60">
-        <v>-1.25</v>
-      </c>
-      <c r="R60">
-        <v>1.75</v>
-      </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X60">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6883797</v>
+        <v>6879734</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,73 +5879,73 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P61">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
+        <v>0.95</v>
+      </c>
+      <c r="AB61">
         <v>1</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6883456</v>
+        <v>6883455</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,13 +5968,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5983,34 +5983,34 @@
         <v>45</v>
       </c>
       <c r="K62">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L62">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N62">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P62">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
         <v>1.9</v>
@@ -6019,7 +6019,7 @@
         <v>1.9</v>
       </c>
       <c r="W62">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6028,10 +6028,10 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6883455</v>
+        <v>6883456</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,13 +6057,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6072,34 +6072,34 @@
         <v>45</v>
       </c>
       <c r="K63">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6108,7 +6108,7 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6117,10 +6117,10 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
         <v>-1</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6883852</v>
+        <v>6878164</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6161,61 +6161,61 @@
         <v>46</v>
       </c>
       <c r="K64">
+        <v>2.75</v>
+      </c>
+      <c r="L64">
         <v>3.4</v>
       </c>
-      <c r="L64">
-        <v>3.6</v>
-      </c>
       <c r="M64">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N64">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y64">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA64">
+        <v>-0.5</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6878164</v>
+        <v>6884065</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,10 +6235,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6247,64 +6247,64 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
         <v>1.825</v>
       </c>
-      <c r="S65">
-        <v>1.975</v>
-      </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6884065</v>
+        <v>6883852</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,13 +6324,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6339,61 +6339,61 @@
         <v>47</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>1.85</v>
+      </c>
+      <c r="N66">
         <v>3.75</v>
       </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66">
-        <v>1.6</v>
-      </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.825</v>
+      </c>
+      <c r="V66">
         <v>1.975</v>
       </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>1.85</v>
-      </c>
-      <c r="V66">
-        <v>1.95</v>
-      </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6884066</v>
+        <v>6883876</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
       </c>
       <c r="K67">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6883876</v>
+        <v>6884066</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>46</v>
       </c>
       <c r="K68">
+        <v>2.2</v>
+      </c>
+      <c r="L68">
+        <v>3.3</v>
+      </c>
+      <c r="M68">
+        <v>2.8</v>
+      </c>
+      <c r="N68">
+        <v>2.625</v>
+      </c>
+      <c r="O68">
+        <v>3.4</v>
+      </c>
+      <c r="P68">
+        <v>2.6</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
+        <v>1.875</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
         <v>2</v>
       </c>
-      <c r="L68">
-        <v>3.6</v>
-      </c>
-      <c r="M68">
-        <v>3</v>
-      </c>
-      <c r="N68">
-        <v>1.666</v>
-      </c>
-      <c r="O68">
-        <v>4.5</v>
-      </c>
-      <c r="P68">
-        <v>4</v>
-      </c>
-      <c r="Q68">
-        <v>-0.75</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
-      <c r="S68">
-        <v>1.975</v>
-      </c>
-      <c r="T68">
-        <v>3.5</v>
-      </c>
-      <c r="U68">
-        <v>1.85</v>
-      </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6884068</v>
+        <v>6884056</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
       </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6883799</v>
+        <v>6884068</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L71">
+        <v>3.75</v>
+      </c>
+      <c r="M71">
+        <v>3.75</v>
+      </c>
+      <c r="N71">
+        <v>2.05</v>
+      </c>
+      <c r="O71">
+        <v>3.75</v>
+      </c>
+      <c r="P71">
         <v>3.4</v>
       </c>
-      <c r="M71">
-        <v>2.625</v>
-      </c>
-      <c r="N71">
-        <v>2.3</v>
-      </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
-      <c r="P71">
-        <v>3</v>
-      </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
         <v>2.75</v>
       </c>
       <c r="U71">
+        <v>1.975</v>
+      </c>
+      <c r="V71">
         <v>1.825</v>
       </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
       <c r="W71">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6884056</v>
+        <v>6883799</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,43 +6873,43 @@
         <v>45</v>
       </c>
       <c r="K72">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N72">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6918,7 +6918,7 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6927,7 +6927,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6878187</v>
+        <v>6883887</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N73">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
+        <v>1.825</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
         <v>1.85</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.95</v>
       </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
-      <c r="U73">
-        <v>1.9</v>
-      </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
       <c r="W73">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6883887</v>
+        <v>6884165</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,49 +7036,49 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N74">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
         <v>1.85</v>
@@ -7093,13 +7093,13 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>0.8500000000000001</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6884165</v>
+        <v>6878187</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>4</v>
-      </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7303,10 +7303,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
         <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6884105</v>
+        <v>6883485</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,13 +7392,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7407,34 +7407,34 @@
         <v>45</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
         <v>4</v>
       </c>
-      <c r="M78">
-        <v>4.8</v>
-      </c>
       <c r="N78">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>1.85</v>
@@ -7443,7 +7443,7 @@
         <v>1.95</v>
       </c>
       <c r="W78">
-        <v>0.55</v>
+        <v>0.833</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,7 +7452,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6884571</v>
+        <v>6878188</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,76 +7481,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="O79">
         <v>3.8</v>
       </c>
       <c r="P79">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
+        <v>1.925</v>
+      </c>
+      <c r="V79">
         <v>1.875</v>
       </c>
-      <c r="V79">
-        <v>1.925</v>
-      </c>
       <c r="W79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6883485</v>
+        <v>6884105</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,13 +7570,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7585,34 +7585,34 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N80">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7621,7 +7621,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.833</v>
+        <v>0.55</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,7 +7630,7 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6878188</v>
+        <v>6884571</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L81">
         <v>3.6</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="N81">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="O81">
         <v>3.8</v>
       </c>
       <c r="P81">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
+        <v>1.875</v>
+      </c>
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="V81">
-        <v>1.875</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>2.25</v>
@@ -7837,7 +7837,7 @@
         <v>45210.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>40</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7929,7 +7929,7 @@
         <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.666</v>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>4.333</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6884106</v>
+        <v>6884123</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,10 +8104,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8119,43 +8119,43 @@
         <v>45</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
+        <v>3.4</v>
+      </c>
+      <c r="N86">
+        <v>2.4</v>
+      </c>
+      <c r="O86">
         <v>3.5</v>
       </c>
-      <c r="N86">
+      <c r="P86">
+        <v>2.875</v>
+      </c>
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
+        <v>1.725</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="O86">
-        <v>3.6</v>
-      </c>
-      <c r="P86">
-        <v>2.6</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.85</v>
-      </c>
-      <c r="S86">
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W86">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6883488</v>
+        <v>6884106</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,10 +8193,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8208,43 +8208,43 @@
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N87">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="O87">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.333</v>
+        <v>1.5</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.5375000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>2.25</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6884123</v>
+        <v>6883488</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8386,31 +8386,31 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>2.075</v>
       </c>
       <c r="T89">
         <v>2.5</v>
@@ -8419,10 +8419,10 @@
         <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>1.4</v>
+        <v>0.333</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,10 +8431,10 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.5375000000000001</v>
       </c>
       <c r="AB89">
         <v>0.95</v>
@@ -8552,7 +8552,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>2.1</v>
@@ -8638,7 +8638,7 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
         <v>30</v>
@@ -8727,10 +8727,10 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8739,7 +8739,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>3.75</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6884109</v>
+        <v>6878190</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94">
+        <v>1.727</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>3.5</v>
+      </c>
+      <c r="N94">
+        <v>1.75</v>
+      </c>
+      <c r="O94">
+        <v>4.333</v>
+      </c>
+      <c r="P94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.85</v>
+      </c>
+      <c r="T94">
+        <v>2.25</v>
+      </c>
+      <c r="U94">
+        <v>1.8</v>
+      </c>
+      <c r="V94">
         <v>2</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K94">
-        <v>1.25</v>
-      </c>
-      <c r="L94">
-        <v>5</v>
-      </c>
-      <c r="M94">
-        <v>9</v>
-      </c>
-      <c r="N94">
-        <v>1.25</v>
-      </c>
-      <c r="O94">
-        <v>5.75</v>
-      </c>
-      <c r="P94">
-        <v>13</v>
-      </c>
-      <c r="Q94">
-        <v>-1.75</v>
-      </c>
-      <c r="R94">
-        <v>1.825</v>
-      </c>
-      <c r="S94">
-        <v>1.975</v>
-      </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
       <c r="W94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB94">
         <v>-0.5</v>
       </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6878190</v>
+        <v>6884109</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R95">
+        <v>1.825</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>3</v>
+      </c>
+      <c r="U95">
         <v>1.95</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
-        <v>1.8</v>
-      </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB95">
-        <v>-0.5</v>
-      </c>
-      <c r="AC95">
-        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9095,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2.2</v>
@@ -9172,7 +9172,7 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9261,7 +9261,7 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>40</v>
@@ -9273,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>4.75</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.55</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6883866</v>
+        <v>6883891</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,73 +9439,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L101">
         <v>3.6</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N101">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O101">
         <v>4.2</v>
       </c>
       <c r="P101">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6883891</v>
+        <v>6883866</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,73 +9528,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L102">
         <v>3.6</v>
       </c>
       <c r="M102">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O102">
         <v>4.2</v>
       </c>
       <c r="P102">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,73 +9617,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103">
         <v>2</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>47</v>
-      </c>
-      <c r="K103">
-        <v>2.625</v>
       </c>
       <c r="L103">
         <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6878191</v>
+        <v>6884112</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O104">
         <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
         <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
         <v>1.925</v>
       </c>
-      <c r="V104">
-        <v>1.875</v>
-      </c>
       <c r="W104">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6884124</v>
+        <v>6878191</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,10 +9795,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9810,44 +9810,44 @@
         <v>45</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N105">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
+        <v>1.975</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.925</v>
+      </c>
+      <c r="V105">
+        <v>1.875</v>
+      </c>
+      <c r="W105">
         <v>1.8</v>
       </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>2</v>
-      </c>
-      <c r="V105">
-        <v>1.8</v>
-      </c>
-      <c r="W105">
-        <v>1.05</v>
-      </c>
       <c r="X105">
         <v>-1</v>
       </c>
@@ -9855,13 +9855,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9976,7 +9976,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10065,7 +10065,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
         <v>34</v>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>2.5</v>
@@ -10240,7 +10240,7 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
         <v>30</v>
@@ -10252,7 +10252,7 @@
         <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>3</v>
@@ -10421,7 +10421,7 @@
         <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.3</v>
@@ -10519,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.625</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6883801</v>
+        <v>6883877</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>46</v>
+      </c>
+      <c r="K114">
+        <v>1.666</v>
+      </c>
+      <c r="L114">
+        <v>4.1</v>
+      </c>
+      <c r="M114">
         <v>4</v>
       </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
-      <c r="J114" t="s">
-        <v>45</v>
-      </c>
-      <c r="K114">
-        <v>1.8</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>3.5</v>
-      </c>
       <c r="N114">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
         <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>1.95</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6883877</v>
+        <v>6883801</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
+        <v>1.571</v>
+      </c>
+      <c r="O115">
+        <v>4.2</v>
+      </c>
+      <c r="P115">
+        <v>6</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
-      </c>
-      <c r="O115">
-        <v>3.75</v>
-      </c>
-      <c r="P115">
-        <v>3.6</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.95</v>
-      </c>
-      <c r="S115">
-        <v>1.85</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6883459</v>
+        <v>6883460</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,46 +10774,46 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="N116">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P116">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R116">
+        <v>1.75</v>
+      </c>
+      <c r="S116">
         <v>1.95</v>
-      </c>
-      <c r="S116">
-        <v>1.85</v>
       </c>
       <c r="T116">
         <v>2.5</v>
@@ -10825,19 +10825,19 @@
         <v>1.875</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6883460</v>
+        <v>6883459</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,46 +10863,46 @@
         <v>45241.375</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>1.2</v>
+        <v>1.533</v>
       </c>
       <c r="L117">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
         <v>5.75</v>
       </c>
-      <c r="P117">
-        <v>11</v>
-      </c>
       <c r="Q117">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
@@ -10914,19 +10914,19 @@
         <v>1.875</v>
       </c>
       <c r="W117">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6884071</v>
+        <v>6884161</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L119">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N119">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P119">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
         <v>1.775</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6884161</v>
+        <v>6884071</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
+      <c r="J120" t="s">
+        <v>47</v>
+      </c>
+      <c r="K120">
+        <v>3.1</v>
+      </c>
+      <c r="L120">
+        <v>3.7</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2.75</v>
+      </c>
+      <c r="O120">
+        <v>3.5</v>
+      </c>
+      <c r="P120">
+        <v>2.4</v>
+      </c>
+      <c r="Q120">
         <v>0</v>
       </c>
-      <c r="J120" t="s">
-        <v>45</v>
-      </c>
-      <c r="K120">
-        <v>1.5</v>
-      </c>
-      <c r="L120">
-        <v>4.1</v>
-      </c>
-      <c r="M120">
-        <v>5.5</v>
-      </c>
-      <c r="N120">
-        <v>1.3</v>
-      </c>
-      <c r="O120">
-        <v>6</v>
-      </c>
-      <c r="P120">
-        <v>8.5</v>
-      </c>
-      <c r="Q120">
-        <v>-2</v>
-      </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
         <v>1.775</v>
       </c>
       <c r="T120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W120">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6883855</v>
+        <v>6884120</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,55 +11308,55 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>1</v>
       </c>
-      <c r="I122">
-        <v>6</v>
-      </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M122">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="N122">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="O122">
         <v>4.75</v>
       </c>
       <c r="P122">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11365,19 +11365,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>5</v>
+        <v>0.571</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6884120</v>
+        <v>6884074</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" t="s">
         <v>31</v>
-      </c>
-      <c r="G123" t="s">
-        <v>39</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>46</v>
       </c>
       <c r="K123">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6884074</v>
+        <v>6883855</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P124">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z124">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11578,7 +11578,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H125">
         <v>5</v>
@@ -11676,7 +11676,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>2.625</v>
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>2.4</v>
@@ -11931,7 +11931,7 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -11943,7 +11943,7 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>3.5</v>
@@ -12023,7 +12023,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2.5</v>
@@ -12198,7 +12198,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>2.1</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>3.75</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6884121</v>
+        <v>6884075</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
         <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.925</v>
+      </c>
+      <c r="AB135">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6884075</v>
+        <v>6884121</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N136">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X136">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12643,10 +12643,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -12732,7 +12732,7 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12744,7 +12744,7 @@
         <v>5</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>3.1</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7923546</v>
+        <v>6883465</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M139">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N139">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6884078</v>
+        <v>6884076</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,55 +12910,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s">
         <v>31</v>
       </c>
-      <c r="G140" t="s">
-        <v>38</v>
-      </c>
       <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>47</v>
+      </c>
+      <c r="K140">
+        <v>2.625</v>
+      </c>
+      <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
+        <v>2.3</v>
+      </c>
+      <c r="N140">
+        <v>2.625</v>
+      </c>
+      <c r="O140">
+        <v>3.4</v>
+      </c>
+      <c r="P140">
+        <v>2.625</v>
+      </c>
+      <c r="Q140">
         <v>0</v>
       </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-      <c r="J140" t="s">
-        <v>46</v>
-      </c>
-      <c r="K140">
-        <v>4.333</v>
-      </c>
-      <c r="L140">
-        <v>3.75</v>
-      </c>
-      <c r="M140">
-        <v>1.615</v>
-      </c>
-      <c r="N140">
-        <v>5</v>
-      </c>
-      <c r="O140">
-        <v>4.2</v>
-      </c>
-      <c r="P140">
-        <v>1.6</v>
-      </c>
-      <c r="Q140">
-        <v>0.75</v>
-      </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12967,19 +12967,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.6000000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6884076</v>
+        <v>7923546</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,49 +12999,49 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
         <v>3.4</v>
       </c>
       <c r="M141">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N141">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
         <v>1.8</v>
@@ -13056,19 +13056,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6883465</v>
+        <v>6884078</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="N142">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O142">
         <v>4.2</v>
       </c>
       <c r="P142">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z142">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K144">
         <v>1.5</v>
@@ -13355,7 +13355,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13425,6 +13425,540 @@
       </c>
       <c r="AC145">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>6883879</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45366.45833333334</v>
+      </c>
+      <c r="F146" t="s">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s">
+        <v>33</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>45</v>
+      </c>
+      <c r="K146">
+        <v>1.363</v>
+      </c>
+      <c r="L146">
+        <v>5</v>
+      </c>
+      <c r="M146">
+        <v>6</v>
+      </c>
+      <c r="N146">
+        <v>1.7</v>
+      </c>
+      <c r="O146">
+        <v>4.5</v>
+      </c>
+      <c r="P146">
+        <v>4</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.875</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.8</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>0.7</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>0.875</v>
+      </c>
+      <c r="AA146">
+        <v>-1</v>
+      </c>
+      <c r="AB146">
+        <v>0.8</v>
+      </c>
+      <c r="AC146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>6883467</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>46</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
+        <v>3.25</v>
+      </c>
+      <c r="M147">
+        <v>2.6</v>
+      </c>
+      <c r="N147">
+        <v>2.375</v>
+      </c>
+      <c r="O147">
+        <v>3.4</v>
+      </c>
+      <c r="P147">
+        <v>3</v>
+      </c>
+      <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>2.025</v>
+      </c>
+      <c r="S147">
+        <v>1.775</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.875</v>
+      </c>
+      <c r="V147">
+        <v>1.925</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>2.4</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>-0.5</v>
+      </c>
+      <c r="AA147">
+        <v>0.3875</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>6884079</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45367.4375</v>
+      </c>
+      <c r="F148" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>46</v>
+      </c>
+      <c r="K148">
+        <v>1.25</v>
+      </c>
+      <c r="L148">
+        <v>5</v>
+      </c>
+      <c r="M148">
+        <v>10</v>
+      </c>
+      <c r="N148">
+        <v>1.3</v>
+      </c>
+      <c r="O148">
+        <v>5.25</v>
+      </c>
+      <c r="P148">
+        <v>11</v>
+      </c>
+      <c r="Q148">
+        <v>-1.5</v>
+      </c>
+      <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
+        <v>1.85</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>4.25</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>1</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>6883804</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45367.4375</v>
+      </c>
+      <c r="F149" t="s">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>38</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" t="s">
+        <v>45</v>
+      </c>
+      <c r="K149">
+        <v>1.9</v>
+      </c>
+      <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>3.75</v>
+      </c>
+      <c r="N149">
+        <v>1.833</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4.2</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>3</v>
+      </c>
+      <c r="U149">
+        <v>1.975</v>
+      </c>
+      <c r="V149">
+        <v>1.825</v>
+      </c>
+      <c r="W149">
+        <v>0.833</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.825</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>6883858</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45367.4375</v>
+      </c>
+      <c r="F150" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>1.65</v>
+      </c>
+      <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
+        <v>4.8</v>
+      </c>
+      <c r="N150">
+        <v>1.666</v>
+      </c>
+      <c r="O150">
+        <v>4</v>
+      </c>
+      <c r="P150">
+        <v>5</v>
+      </c>
+      <c r="Q150">
+        <v>-1</v>
+      </c>
+      <c r="R150">
+        <v>2.025</v>
+      </c>
+      <c r="S150">
+        <v>1.775</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.875</v>
+      </c>
+      <c r="V150">
+        <v>1.925</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>4</v>
+      </c>
+      <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB150">
+        <v>0.4375</v>
+      </c>
+      <c r="AC150">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>6878178</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45367.4375</v>
+      </c>
+      <c r="F151" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>45</v>
+      </c>
+      <c r="K151">
+        <v>2.25</v>
+      </c>
+      <c r="L151">
+        <v>3.5</v>
+      </c>
+      <c r="M151">
+        <v>2.75</v>
+      </c>
+      <c r="N151">
+        <v>2.3</v>
+      </c>
+      <c r="O151">
+        <v>3.7</v>
+      </c>
+      <c r="P151">
+        <v>2.875</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.7</v>
+      </c>
+      <c r="S151">
+        <v>2.1</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.8</v>
+      </c>
+      <c r="V151">
+        <v>2</v>
+      </c>
+      <c r="W151">
+        <v>1.3</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.7</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>0.8</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,19 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
+    <t>MSK Povazska Bystrica</t>
+  </si>
+  <si>
+    <t>Puchov</t>
+  </si>
+  <si>
     <t>FK Humenne</t>
   </si>
   <si>
     <t>Dolny Kubin</t>
   </si>
   <si>
-    <t>MSK Povazska Bystrica</t>
-  </si>
-  <si>
     <t>FC Petrzalka</t>
-  </si>
-  <si>
-    <t>Puchov</t>
   </si>
   <si>
     <t>Spisska Nova Ves</t>
@@ -127,16 +127,19 @@
     <t>OFK Malzenice</t>
   </si>
   <si>
+    <t>Spartak Myjava</t>
+  </si>
+  <si>
     <t>FK Pohronie</t>
   </si>
   <si>
-    <t>Spartak Myjava</t>
+    <t>KFC Komarno</t>
   </si>
   <si>
     <t>FC Tatran Presov</t>
   </si>
   <si>
-    <t>KFC Komarno</t>
+    <t>STK Samorin</t>
   </si>
   <si>
     <t>Slovan Bratislava B</t>
@@ -145,19 +148,16 @@
     <t>MSK Zilina B</t>
   </si>
   <si>
-    <t>STK Samorin</t>
-  </si>
-  <si>
     <t>FK Tatran Liptovsky Mikulas</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6883440</v>
+        <v>6884046</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
+        <v>3.1</v>
+      </c>
+      <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
+        <v>1.825</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
+        <v>1.875</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>2.5</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>2.05</v>
-      </c>
-      <c r="S3">
-        <v>1.75</v>
-      </c>
-      <c r="T3">
-        <v>2.25</v>
-      </c>
-      <c r="U3">
-        <v>1.8</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6884167</v>
+        <v>6883846</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,46 +809,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
         <v>3.3</v>
       </c>
       <c r="M4">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>1.9</v>
@@ -857,25 +857,25 @@
         <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
+        <v>0.45</v>
+      </c>
+      <c r="AC4">
         <v>-0.5</v>
-      </c>
-      <c r="AC4">
-        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6884046</v>
+        <v>6883440</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
+        <v>2.6</v>
+      </c>
+      <c r="L5">
+        <v>3.2</v>
+      </c>
+      <c r="M5">
+        <v>2.375</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
+        <v>2.5</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5">
         <v>2.25</v>
       </c>
-      <c r="L5">
-        <v>3.3</v>
-      </c>
-      <c r="M5">
-        <v>2.75</v>
-      </c>
-      <c r="N5">
-        <v>2.25</v>
-      </c>
-      <c r="O5">
-        <v>3.5</v>
-      </c>
-      <c r="P5">
-        <v>3.1</v>
-      </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>1.975</v>
-      </c>
-      <c r="S5">
-        <v>1.825</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6982596</v>
+        <v>6884167</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
+        <v>2.7</v>
+      </c>
+      <c r="L6">
+        <v>3.3</v>
+      </c>
+      <c r="M6">
+        <v>2.25</v>
+      </c>
+      <c r="N6">
         <v>2.6</v>
       </c>
-      <c r="L6">
-        <v>3.2</v>
-      </c>
-      <c r="M6">
-        <v>2.4</v>
-      </c>
-      <c r="N6">
-        <v>2.625</v>
-      </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6883846</v>
+        <v>6982596</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,49 +1082,49 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>45</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>1.625</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1133,16 +1133,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>5.5</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6884059</v>
+        <v>6884047</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,43 +1343,43 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
         <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6884047</v>
+        <v>6884059</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,43 +1432,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O11">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>3</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y11">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
+        <v>0.8</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB11">
-        <v>0.95</v>
-      </c>
-      <c r="AC11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6883441</v>
+        <v>6884116</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1533,43 +1533,43 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.8500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1587,7 +1587,7 @@
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6884116</v>
+        <v>6884048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,58 +1607,58 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,16 +1667,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6884048</v>
+        <v>6883441</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45143.5</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
+        <v>2.5</v>
+      </c>
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.95</v>
       </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6878158</v>
+        <v>6883847</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N15">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z15">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.875</v>
@@ -1925,25 +1925,25 @@
         <v>1.925</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6883847</v>
+        <v>6883442</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,70 +1966,70 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17">
+        <v>2.6</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>2.25</v>
-      </c>
-      <c r="L17">
-        <v>3.3</v>
-      </c>
-      <c r="M17">
-        <v>2.7</v>
-      </c>
-      <c r="N17">
-        <v>2.05</v>
-      </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6883848</v>
+        <v>6884117</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
+        <v>1.85</v>
+      </c>
+      <c r="N18">
+        <v>2.9</v>
+      </c>
+      <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
+        <v>2.4</v>
+      </c>
+      <c r="Q18">
+        <v>0.25</v>
+      </c>
+      <c r="R18">
+        <v>1.775</v>
+      </c>
+      <c r="S18">
+        <v>2.025</v>
+      </c>
+      <c r="T18">
         <v>3.25</v>
       </c>
-      <c r="N18">
-        <v>1.75</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
-      <c r="P18">
-        <v>4.5</v>
-      </c>
-      <c r="Q18">
-        <v>-0.75</v>
-      </c>
-      <c r="R18">
-        <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883873</v>
+        <v>6884049</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O19">
         <v>3.5</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883443</v>
+        <v>6883873</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L20">
         <v>3.3</v>
       </c>
       <c r="M20">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
         <v>3.5</v>
       </c>
       <c r="P20">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6884117</v>
+        <v>6883848</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
+        <v>3.25</v>
+      </c>
+      <c r="N21">
+        <v>1.75</v>
+      </c>
+      <c r="O21">
+        <v>3.8</v>
+      </c>
+      <c r="P21">
+        <v>4.5</v>
+      </c>
+      <c r="Q21">
+        <v>-0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
       </c>
-      <c r="N21">
-        <v>2.9</v>
-      </c>
-      <c r="O21">
-        <v>3.5</v>
-      </c>
-      <c r="P21">
-        <v>2.4</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.775</v>
-      </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6884049</v>
+        <v>6883443</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N22">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
+        <v>1.825</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
-      <c r="U22">
-        <v>1.975</v>
-      </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,10 +2497,10 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>1.95</v>
@@ -2589,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>4.2</v>
@@ -2675,10 +2675,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2764,7 +2764,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2853,10 +2853,10 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2942,7 +2942,7 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -3031,7 +3031,7 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
@@ -3120,10 +3120,10 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>1.75</v>
@@ -3209,7 +3209,7 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3221,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.3</v>
@@ -3298,10 +3298,10 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -3387,10 +3387,10 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.45</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6883874</v>
+        <v>6883850</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,19 +3476,19 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>2.75</v>
@@ -3500,16 +3500,16 @@
         <v>2.2</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
         <v>1.925</v>
@@ -3518,10 +3518,10 @@
         <v>1.875</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
         <v>1.95</v>
@@ -3533,7 +3533,7 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z34">
         <v>-1</v>
@@ -3542,10 +3542,10 @@
         <v>0.875</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6883850</v>
+        <v>6883447</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,73 +3565,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P35">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6883447</v>
+        <v>6883874</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,10 +3743,10 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3924,7 +3924,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4010,10 +4010,10 @@
         <v>45170.54513888889</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>3.1</v>
@@ -4099,7 +4099,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -4188,7 +4188,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4200,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>2.75</v>
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
         <v>34</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4455,10 +4455,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4467,7 +4467,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>2.75</v>
@@ -4544,10 +4544,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4556,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>2.25</v>
@@ -4636,7 +4636,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6884063</v>
+        <v>6883851</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,73 +4722,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>4</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6883452</v>
+        <v>6883451</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49">
+        <v>1.533</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>4.8</v>
+      </c>
+      <c r="N49">
+        <v>1.25</v>
+      </c>
+      <c r="O49">
+        <v>5.5</v>
+      </c>
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>-1.25</v>
+      </c>
+      <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>1.975</v>
+      </c>
+      <c r="V49">
+        <v>1.825</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>4.5</v>
+      </c>
+      <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49">
-        <v>2.625</v>
-      </c>
-      <c r="L49">
-        <v>3.3</v>
-      </c>
-      <c r="M49">
-        <v>2.3</v>
-      </c>
-      <c r="N49">
-        <v>2.7</v>
-      </c>
-      <c r="O49">
-        <v>3.2</v>
-      </c>
-      <c r="P49">
-        <v>2.7</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>1.9</v>
-      </c>
-      <c r="S49">
-        <v>1.9</v>
-      </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.925</v>
-      </c>
-      <c r="V49">
-        <v>1.875</v>
-      </c>
-      <c r="W49">
-        <v>-1</v>
-      </c>
-      <c r="X49">
-        <v>2.2</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>-0</v>
-      </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883451</v>
+        <v>6883452</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6883851</v>
+        <v>6884063</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,73 +4989,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51">
+        <v>1.533</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>46</v>
-      </c>
-      <c r="K51">
-        <v>2.9</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
       <c r="M51">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5170,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5345,10 +5345,10 @@
         <v>45184.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.1</v>
@@ -5434,10 +5434,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5523,10 +5523,10 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>2.625</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
         <v>32</v>
       </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5627,61 +5627,61 @@
         <v>47</v>
       </c>
       <c r="K58">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L58">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
         <v>1.75</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,13 +5701,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5716,61 +5716,61 @@
         <v>46</v>
       </c>
       <c r="K59">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M59">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.75</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>1.75</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5802,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>1.25</v>
@@ -5879,7 +5879,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>44</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6883852</v>
+        <v>6884065</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,13 +5968,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -5983,61 +5983,61 @@
         <v>46</v>
       </c>
       <c r="K62">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>1.6</v>
+      </c>
+      <c r="O62">
+        <v>4.2</v>
+      </c>
+      <c r="P62">
+        <v>5.25</v>
+      </c>
+      <c r="Q62">
+        <v>-1</v>
+      </c>
+      <c r="R62">
+        <v>1.975</v>
+      </c>
+      <c r="S62">
+        <v>1.825</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
         <v>1.85</v>
       </c>
-      <c r="N62">
-        <v>3.75</v>
-      </c>
-      <c r="O62">
-        <v>3.75</v>
-      </c>
-      <c r="P62">
-        <v>1.909</v>
-      </c>
-      <c r="Q62">
-        <v>0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.9</v>
-      </c>
-      <c r="S62">
-        <v>1.9</v>
-      </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
-      <c r="U62">
-        <v>1.825</v>
-      </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6884065</v>
+        <v>6883456</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
         <v>4.2</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q63">
         <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6883456</v>
+        <v>6883455</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,34 +6161,34 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N64">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6197,7 +6197,7 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.5329999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6206,10 +6206,10 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6883455</v>
+        <v>6878164</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,40 +6235,40 @@
         <v>45192.4375</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N65">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
         <v>1.825</v>
@@ -6277,7 +6277,7 @@
         <v>1.975</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.9</v>
@@ -6286,19 +6286,19 @@
         <v>1.9</v>
       </c>
       <c r="W65">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6878164</v>
+        <v>6883852</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,13 +6324,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
         <v>31</v>
       </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6339,61 +6339,61 @@
         <v>47</v>
       </c>
       <c r="K66">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
         <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z66">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6883876</v>
+        <v>6884066</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>46</v>
       </c>
       <c r="K67">
+        <v>2.2</v>
+      </c>
+      <c r="L67">
+        <v>3.3</v>
+      </c>
+      <c r="M67">
+        <v>2.8</v>
+      </c>
+      <c r="N67">
+        <v>2.625</v>
+      </c>
+      <c r="O67">
+        <v>3.4</v>
+      </c>
+      <c r="P67">
+        <v>2.6</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
+        <v>1.875</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
         <v>2</v>
       </c>
-      <c r="L67">
-        <v>3.6</v>
-      </c>
-      <c r="M67">
-        <v>3</v>
-      </c>
-      <c r="N67">
-        <v>1.666</v>
-      </c>
-      <c r="O67">
-        <v>4.5</v>
-      </c>
-      <c r="P67">
-        <v>4</v>
-      </c>
-      <c r="Q67">
-        <v>-0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.825</v>
-      </c>
-      <c r="S67">
-        <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>3.5</v>
-      </c>
-      <c r="U67">
-        <v>1.85</v>
-      </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y67">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6884066</v>
+        <v>6883876</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
         <v>47</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,10 +6591,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6884056</v>
+        <v>6883799</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,13 +6680,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6695,43 +6695,43 @@
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N70">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
         <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6740,7 +6740,7 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6749,7 +6749,7 @@
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6884068</v>
+        <v>6884056</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S71">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6883799</v>
+        <v>6884068</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L72">
+        <v>3.75</v>
+      </c>
+      <c r="M72">
+        <v>3.75</v>
+      </c>
+      <c r="N72">
+        <v>2.05</v>
+      </c>
+      <c r="O72">
+        <v>3.75</v>
+      </c>
+      <c r="P72">
         <v>3.4</v>
       </c>
-      <c r="M72">
-        <v>2.625</v>
-      </c>
-      <c r="N72">
-        <v>2.3</v>
-      </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>3</v>
-      </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T72">
         <v>2.75</v>
       </c>
       <c r="U72">
+        <v>1.975</v>
+      </c>
+      <c r="V72">
         <v>1.825</v>
       </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6884165</v>
+        <v>6878187</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,10 +7036,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6878187</v>
+        <v>6884165</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="N75">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z75">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,10 +7214,10 @@
         <v>45205.5</v>
       </c>
       <c r="F76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" t="s">
         <v>37</v>
-      </c>
-      <c r="G76" t="s">
-        <v>38</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6878188</v>
+        <v>6884571</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
         <v>3.8</v>
       </c>
       <c r="P77">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U77">
+        <v>1.875</v>
+      </c>
+      <c r="V77">
         <v>1.925</v>
       </c>
-      <c r="V77">
-        <v>1.875</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6883485</v>
+        <v>6878188</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6884105</v>
+        <v>6883485</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,10 +7484,10 @@
         <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,34 +7496,34 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L79">
+        <v>3.5</v>
+      </c>
+      <c r="M79">
         <v>4</v>
       </c>
-      <c r="M79">
-        <v>4.8</v>
-      </c>
       <c r="N79">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>1.85</v>
@@ -7532,7 +7532,7 @@
         <v>1.95</v>
       </c>
       <c r="W79">
-        <v>0.55</v>
+        <v>0.833</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,7 +7541,7 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6884571</v>
+        <v>6884105</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,13 +7570,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7585,43 +7585,43 @@
         <v>45</v>
       </c>
       <c r="K80">
+        <v>1.533</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>4.8</v>
+      </c>
+      <c r="N80">
+        <v>1.55</v>
+      </c>
+      <c r="O80">
+        <v>4.333</v>
+      </c>
+      <c r="P80">
+        <v>5.5</v>
+      </c>
+      <c r="Q80">
+        <v>-1</v>
+      </c>
+      <c r="R80">
         <v>1.75</v>
-      </c>
-      <c r="L80">
-        <v>3.6</v>
-      </c>
-      <c r="M80">
-        <v>3.8</v>
-      </c>
-      <c r="N80">
-        <v>1.85</v>
-      </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
-      <c r="P80">
-        <v>3.75</v>
-      </c>
-      <c r="Q80">
-        <v>-0.5</v>
-      </c>
-      <c r="R80">
-        <v>1.85</v>
       </c>
       <c r="S80">
         <v>1.95</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.8500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,7 +7630,7 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7639,7 +7639,7 @@
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7659,10 +7659,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>5</v>
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>2.25</v>
@@ -7837,10 +7837,10 @@
         <v>45210.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7926,10 +7926,10 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.666</v>
@@ -8018,7 +8018,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>4.333</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6884106</v>
+        <v>6884123</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,10 +8104,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8119,43 +8119,43 @@
         <v>45</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
+        <v>3.4</v>
+      </c>
+      <c r="N86">
+        <v>2.4</v>
+      </c>
+      <c r="O86">
         <v>3.5</v>
       </c>
-      <c r="N86">
+      <c r="P86">
+        <v>2.875</v>
+      </c>
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
+        <v>1.725</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="O86">
-        <v>3.6</v>
-      </c>
-      <c r="P86">
-        <v>2.6</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.85</v>
-      </c>
-      <c r="S86">
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W86">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6883864</v>
+        <v>6883488</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S87">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>0.75</v>
+        <v>0.5375000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6883488</v>
+        <v>6883864</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.5375000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6884123</v>
+        <v>6884106</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8386,43 +8386,43 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N89">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45214.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8549,10 +8549,10 @@
         <v>45219.5</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>2.1</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6878190</v>
+        <v>6884110</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L93">
+        <v>3.75</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>2.625</v>
+      </c>
+      <c r="O93">
         <v>4</v>
       </c>
-      <c r="M93">
-        <v>3.5</v>
-      </c>
-      <c r="N93">
-        <v>1.75</v>
-      </c>
-      <c r="O93">
-        <v>4.333</v>
-      </c>
       <c r="P93">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X93">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6883490</v>
+        <v>6884109</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94">
+        <v>1.25</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>9</v>
+      </c>
+      <c r="N94">
+        <v>1.25</v>
+      </c>
+      <c r="O94">
+        <v>5.75</v>
+      </c>
+      <c r="P94">
+        <v>13</v>
+      </c>
+      <c r="Q94">
+        <v>-1.75</v>
+      </c>
+      <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
         <v>3</v>
       </c>
-      <c r="J94" t="s">
-        <v>46</v>
-      </c>
-      <c r="K94">
-        <v>3.75</v>
-      </c>
-      <c r="L94">
-        <v>4</v>
-      </c>
-      <c r="M94">
-        <v>1.666</v>
-      </c>
-      <c r="N94">
-        <v>3.2</v>
-      </c>
-      <c r="O94">
-        <v>3.6</v>
-      </c>
-      <c r="P94">
-        <v>2.15</v>
-      </c>
-      <c r="Q94">
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
         <v>0.25</v>
       </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
-      <c r="S94">
-        <v>1.875</v>
-      </c>
-      <c r="T94">
-        <v>2.25</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>1.9</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA94">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6884110</v>
+        <v>6878190</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O95">
+        <v>4.333</v>
+      </c>
+      <c r="P95">
         <v>4</v>
       </c>
-      <c r="P95">
-        <v>2.4</v>
-      </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6884109</v>
+        <v>6883490</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N96">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>13</v>
+        <v>2.15</v>
       </c>
       <c r="Q96">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z96">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,10 +9083,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s">
         <v>41</v>
-      </c>
-      <c r="G97" t="s">
-        <v>43</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2.2</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6883866</v>
+        <v>6884111</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,73 +9172,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>46</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L98">
+        <v>3.5</v>
+      </c>
+      <c r="M98">
+        <v>2.4</v>
+      </c>
+      <c r="N98">
+        <v>2.625</v>
+      </c>
+      <c r="O98">
         <v>3.6</v>
       </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>1.7</v>
-      </c>
-      <c r="O98">
-        <v>4.2</v>
-      </c>
       <c r="P98">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
         <v>1.85</v>
       </c>
-      <c r="S98">
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="T98">
-        <v>2.75</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
+        <v>-0</v>
+      </c>
+      <c r="AB98">
         <v>0.95</v>
-      </c>
-      <c r="AB98">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6883492</v>
+        <v>6883491</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="N99">
+        <v>9</v>
+      </c>
+      <c r="O99">
+        <v>6</v>
+      </c>
+      <c r="P99">
+        <v>1.2</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
+        <v>1.7</v>
+      </c>
+      <c r="V99">
         <v>2.1</v>
       </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>3.5</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.8</v>
-      </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6883491</v>
+        <v>6883492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N100">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
         <v>2</v>
       </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6883891</v>
+        <v>6883866</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,73 +9439,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L101">
         <v>3.6</v>
       </c>
       <c r="M101">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O101">
         <v>4.2</v>
       </c>
       <c r="P101">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6884111</v>
+        <v>6883891</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,73 +9528,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
       </c>
       <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>45</v>
+      </c>
+      <c r="K102">
+        <v>1.65</v>
+      </c>
+      <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>4.75</v>
+      </c>
+      <c r="N102">
+        <v>1.533</v>
+      </c>
+      <c r="O102">
+        <v>4.2</v>
+      </c>
+      <c r="P102">
+        <v>6.5</v>
+      </c>
+      <c r="Q102">
+        <v>-1</v>
+      </c>
+      <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
+        <v>1.8</v>
+      </c>
+      <c r="V102">
         <v>2</v>
       </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
-      <c r="J102" t="s">
-        <v>47</v>
-      </c>
-      <c r="K102">
-        <v>2.55</v>
-      </c>
-      <c r="L102">
-        <v>3.5</v>
-      </c>
-      <c r="M102">
-        <v>2.4</v>
-      </c>
-      <c r="N102">
-        <v>2.625</v>
-      </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
-      <c r="P102">
-        <v>2.55</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.95</v>
-      </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9617,10 +9617,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9795,10 +9795,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9807,7 +9807,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.625</v>
@@ -9884,7 +9884,7 @@
         <v>45233.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6884160</v>
+        <v>6883458</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,58 +9976,58 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>1.975</v>
+      </c>
+      <c r="V107">
         <v>1.825</v>
       </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10036,13 +10036,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6883458</v>
+        <v>6884160</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,58 +10065,58 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="N108">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P108">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
+        <v>1.975</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
         <v>1.95</v>
       </c>
-      <c r="S108">
+      <c r="V108">
         <v>1.85</v>
       </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10125,13 +10125,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.825</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,10 +10151,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>2.5</v>
@@ -10240,10 +10240,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10252,7 +10252,7 @@
         <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10418,10 +10418,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.3</v>
@@ -10507,10 +10507,10 @@
         <v>45240.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10519,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.625</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6883877</v>
+        <v>6883801</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
+        <v>1.571</v>
+      </c>
+      <c r="O114">
+        <v>4.2</v>
+      </c>
+      <c r="P114">
+        <v>6</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
         <v>1.95</v>
-      </c>
-      <c r="O114">
-        <v>3.75</v>
-      </c>
-      <c r="P114">
-        <v>3.6</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>1.95</v>
-      </c>
-      <c r="S114">
-        <v>1.85</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X114">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6883801</v>
+        <v>6883877</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>46</v>
+      </c>
+      <c r="K115">
+        <v>1.666</v>
+      </c>
+      <c r="L115">
+        <v>4.1</v>
+      </c>
+      <c r="M115">
         <v>4</v>
       </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115" t="s">
-        <v>45</v>
-      </c>
-      <c r="K115">
-        <v>1.8</v>
-      </c>
-      <c r="L115">
-        <v>4</v>
-      </c>
-      <c r="M115">
-        <v>3.5</v>
-      </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
         <v>1.85</v>
-      </c>
-      <c r="S115">
-        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
         <v>35</v>
@@ -10863,10 +10863,10 @@
         <v>45241.375</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K117">
         <v>1.533</v>
@@ -10952,10 +10952,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11041,10 +11041,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11130,10 +11130,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>3.1</v>
@@ -11219,10 +11219,10 @@
         <v>45245.375</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -11308,10 +11308,10 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11320,7 +11320,7 @@
         <v>6</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11400,7 +11400,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>2.4</v>
@@ -11489,7 +11489,7 @@
         <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11498,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>7.5</v>
@@ -11575,10 +11575,10 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>5</v>
@@ -11667,7 +11667,7 @@
         <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>2.625</v>
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>2.4</v>
@@ -11845,7 +11845,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11931,10 +11931,10 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11943,7 +11943,7 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>3.5</v>
@@ -12020,10 +12020,10 @@
         <v>45352.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12109,10 +12109,10 @@
         <v>45352.625</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2.5</v>
@@ -12198,7 +12198,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
@@ -12287,10 +12287,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12379,7 +12379,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>3.75</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6884121</v>
+        <v>6884075</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
         <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.925</v>
+      </c>
+      <c r="AB135">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6884075</v>
+        <v>6884121</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12557,70 +12557,70 @@
         <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N136">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X136">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12643,10 +12643,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -12732,7 +12732,7 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12744,7 +12744,7 @@
         <v>5</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>3.1</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6884078</v>
+        <v>7923546</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>47</v>
+      </c>
+      <c r="K139">
+        <v>2.5</v>
+      </c>
+      <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
+        <v>2.4</v>
+      </c>
+      <c r="N139">
+        <v>2.875</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>2.375</v>
+      </c>
+      <c r="Q139">
+        <v>0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.775</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.8</v>
+      </c>
+      <c r="V139">
+        <v>2</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>1.375</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>1.025</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>1</v>
-      </c>
-      <c r="J139" t="s">
-        <v>46</v>
-      </c>
-      <c r="K139">
-        <v>4.333</v>
-      </c>
-      <c r="L139">
-        <v>3.75</v>
-      </c>
-      <c r="M139">
-        <v>1.615</v>
-      </c>
-      <c r="N139">
-        <v>5</v>
-      </c>
-      <c r="O139">
-        <v>4.2</v>
-      </c>
-      <c r="P139">
-        <v>1.6</v>
-      </c>
-      <c r="Q139">
-        <v>0.75</v>
-      </c>
-      <c r="R139">
-        <v>1.95</v>
-      </c>
-      <c r="S139">
-        <v>1.75</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.875</v>
-      </c>
-      <c r="V139">
-        <v>1.925</v>
-      </c>
-      <c r="W139">
-        <v>-1</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="Z139">
-        <v>-0.5</v>
-      </c>
-      <c r="AA139">
-        <v>0.375</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
-      <c r="AC139">
-        <v>0.925</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,10 +12910,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13002,7 +13002,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>2.625</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7923546</v>
+        <v>6884078</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,55 +13088,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13145,19 +13145,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.375</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>0.375</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13177,10 +13177,10 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F143" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" t="s">
         <v>39</v>
-      </c>
-      <c r="G143" t="s">
-        <v>40</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13266,10 +13266,10 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K144">
         <v>1.5</v>
@@ -13355,10 +13355,10 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>45366.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13533,10 +13533,10 @@
         <v>45366.625</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>2.5</v>
@@ -13622,10 +13622,10 @@
         <v>45367.4375</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6883858</v>
+        <v>6883804</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,76 +13711,76 @@
         <v>45367.4375</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="N149">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P149">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6883804</v>
+        <v>6884079</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45367.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>46</v>
+      </c>
+      <c r="K150">
+        <v>1.25</v>
+      </c>
+      <c r="L150">
         <v>5</v>
       </c>
-      <c r="I150">
+      <c r="M150">
+        <v>10</v>
+      </c>
+      <c r="N150">
+        <v>1.3</v>
+      </c>
+      <c r="O150">
+        <v>5.25</v>
+      </c>
+      <c r="P150">
+        <v>11</v>
+      </c>
+      <c r="Q150">
+        <v>-1.5</v>
+      </c>
+      <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
         <v>2</v>
       </c>
-      <c r="J150" t="s">
-        <v>45</v>
-      </c>
-      <c r="K150">
-        <v>1.9</v>
-      </c>
-      <c r="L150">
-        <v>3.4</v>
-      </c>
-      <c r="M150">
-        <v>3.75</v>
-      </c>
-      <c r="N150">
-        <v>1.833</v>
-      </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>4.2</v>
-      </c>
-      <c r="Q150">
-        <v>-0.5</v>
-      </c>
-      <c r="R150">
-        <v>1.825</v>
-      </c>
-      <c r="S150">
-        <v>1.975</v>
-      </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6884079</v>
+        <v>6883858</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45367.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>47</v>
       </c>
       <c r="K151">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>4.8</v>
+      </c>
+      <c r="N151">
+        <v>1.666</v>
+      </c>
+      <c r="O151">
+        <v>4</v>
+      </c>
+      <c r="P151">
         <v>5</v>
       </c>
-      <c r="M151">
-        <v>10</v>
-      </c>
-      <c r="N151">
-        <v>1.3</v>
-      </c>
-      <c r="O151">
-        <v>5.25</v>
-      </c>
-      <c r="P151">
-        <v>11</v>
-      </c>
       <c r="Q151">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6883468</v>
+        <v>6884162</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,40 +13978,40 @@
         <v>45368.27083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>4.8</v>
+        <v>1.571</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="N152">
+        <v>1.571</v>
+      </c>
+      <c r="O152">
+        <v>4.5</v>
+      </c>
+      <c r="P152">
         <v>5.25</v>
       </c>
-      <c r="O152">
-        <v>4.2</v>
-      </c>
-      <c r="P152">
-        <v>1.615</v>
-      </c>
       <c r="Q152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R152">
         <v>1.8</v>
@@ -14020,34 +14020,34 @@
         <v>2</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC152">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6884162</v>
+        <v>6883468</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14070,37 +14070,37 @@
         <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>4.8</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M153">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="N153">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="O153">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R153">
         <v>1.8</v>
@@ -14109,34 +14109,34 @@
         <v>2</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z153">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6884163</v>
+        <v>6884081</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,40 +14156,40 @@
         <v>45374.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K154">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="N154">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P154">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="Q154">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R154">
         <v>1.875</v>
@@ -14198,19 +14198,19 @@
         <v>1.925</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14222,10 +14222,10 @@
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,10 +14245,10 @@
         <v>45374.4375</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6884081</v>
+        <v>6884163</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,40 +14334,40 @@
         <v>45374.4375</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K156">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>1.615</v>
+        <v>5.5</v>
       </c>
       <c r="N156">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P156">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="Q156">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
         <v>1.875</v>
@@ -14376,19 +14376,19 @@
         <v>1.925</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X156">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
@@ -14400,10 +14400,10 @@
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,10 +14423,10 @@
         <v>45374.4375</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14601,10 +14601,10 @@
         <v>45375.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -14693,7 +14693,7 @@
         <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H160">
         <v>3</v>
@@ -14779,10 +14779,10 @@
         <v>45375.4375</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K161">
         <v>4</v>
@@ -14849,6 +14849,569 @@
       </c>
       <c r="AC161">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>6883471</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45379.45833333334</v>
+      </c>
+      <c r="F162" t="s">
+        <v>30</v>
+      </c>
+      <c r="G162" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162" t="s">
+        <v>47</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>3.4</v>
+      </c>
+      <c r="M162">
+        <v>3.1</v>
+      </c>
+      <c r="N162">
+        <v>1.833</v>
+      </c>
+      <c r="O162">
+        <v>3.6</v>
+      </c>
+      <c r="P162">
+        <v>4.2</v>
+      </c>
+      <c r="Q162">
+        <v>-0.5</v>
+      </c>
+      <c r="R162">
+        <v>1.825</v>
+      </c>
+      <c r="S162">
+        <v>1.975</v>
+      </c>
+      <c r="T162">
+        <v>2.5</v>
+      </c>
+      <c r="U162">
+        <v>1.9</v>
+      </c>
+      <c r="V162">
+        <v>1.9</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>3.2</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB162">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>6883472</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45380.27083333334</v>
+      </c>
+      <c r="F163" t="s">
+        <v>42</v>
+      </c>
+      <c r="G163" t="s">
+        <v>40</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>46</v>
+      </c>
+      <c r="K163">
+        <v>6</v>
+      </c>
+      <c r="L163">
+        <v>4.75</v>
+      </c>
+      <c r="M163">
+        <v>1.363</v>
+      </c>
+      <c r="N163">
+        <v>7.5</v>
+      </c>
+      <c r="O163">
+        <v>5</v>
+      </c>
+      <c r="P163">
+        <v>1.4</v>
+      </c>
+      <c r="Q163">
+        <v>1.5</v>
+      </c>
+      <c r="R163">
+        <v>1.75</v>
+      </c>
+      <c r="S163">
+        <v>1.95</v>
+      </c>
+      <c r="T163">
+        <v>3</v>
+      </c>
+      <c r="U163">
+        <v>1.8</v>
+      </c>
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>4</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
+        <v>0.75</v>
+      </c>
+      <c r="AA163">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>6878180</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45380.33333333334</v>
+      </c>
+      <c r="F164" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164" t="s">
+        <v>47</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>3.6</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3.6</v>
+      </c>
+      <c r="O164">
+        <v>3.8</v>
+      </c>
+      <c r="P164">
+        <v>1.95</v>
+      </c>
+      <c r="Q164">
+        <v>0.5</v>
+      </c>
+      <c r="R164">
+        <v>1.825</v>
+      </c>
+      <c r="S164">
+        <v>1.975</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
+        <v>1.975</v>
+      </c>
+      <c r="V164">
+        <v>1.825</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>0.95</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+      <c r="AC164">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>6884083</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45380.54166666666</v>
+      </c>
+      <c r="F165" t="s">
+        <v>38</v>
+      </c>
+      <c r="G165" t="s">
+        <v>39</v>
+      </c>
+      <c r="K165">
+        <v>4</v>
+      </c>
+      <c r="L165">
+        <v>3.5</v>
+      </c>
+      <c r="M165">
+        <v>1.727</v>
+      </c>
+      <c r="N165">
+        <v>7</v>
+      </c>
+      <c r="O165">
+        <v>4.2</v>
+      </c>
+      <c r="P165">
+        <v>1.5</v>
+      </c>
+      <c r="Q165">
+        <v>1.25</v>
+      </c>
+      <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
+        <v>1.8</v>
+      </c>
+      <c r="V165">
+        <v>2</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7172264</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F166" t="s">
+        <v>44</v>
+      </c>
+      <c r="G166" t="s">
+        <v>37</v>
+      </c>
+      <c r="K166">
+        <v>1.9</v>
+      </c>
+      <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>3.6</v>
+      </c>
+      <c r="N166">
+        <v>1.85</v>
+      </c>
+      <c r="O166">
+        <v>3.6</v>
+      </c>
+      <c r="P166">
+        <v>4.333</v>
+      </c>
+      <c r="Q166">
+        <v>-0.5</v>
+      </c>
+      <c r="R166">
+        <v>1.85</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
+        <v>1.9</v>
+      </c>
+      <c r="V166">
+        <v>1.9</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>6884122</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F167" t="s">
+        <v>41</v>
+      </c>
+      <c r="G167" t="s">
+        <v>35</v>
+      </c>
+      <c r="K167">
+        <v>1.45</v>
+      </c>
+      <c r="L167">
+        <v>4.333</v>
+      </c>
+      <c r="M167">
+        <v>6</v>
+      </c>
+      <c r="N167">
+        <v>1.533</v>
+      </c>
+      <c r="O167">
+        <v>4.333</v>
+      </c>
+      <c r="P167">
+        <v>6</v>
+      </c>
+      <c r="Q167">
+        <v>-1</v>
+      </c>
+      <c r="R167">
+        <v>1.9</v>
+      </c>
+      <c r="S167">
+        <v>1.9</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
+        <v>1.9</v>
+      </c>
+      <c r="V167">
+        <v>1.9</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>6884567</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45382.22916666666</v>
+      </c>
+      <c r="F168" t="s">
+        <v>43</v>
+      </c>
+      <c r="G168" t="s">
+        <v>36</v>
+      </c>
+      <c r="K168">
+        <v>1.55</v>
+      </c>
+      <c r="L168">
+        <v>4.2</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <v>1.55</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>6</v>
+      </c>
+      <c r="Q168">
+        <v>-1</v>
+      </c>
+      <c r="R168">
+        <v>1.85</v>
+      </c>
+      <c r="S168">
+        <v>1.95</v>
+      </c>
+      <c r="T168">
+        <v>2.75</v>
+      </c>
+      <c r="U168">
+        <v>1.8</v>
+      </c>
+      <c r="V168">
+        <v>2</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Dolny Kubin</t>
   </si>
   <si>
-    <t>FC Petrzalka</t>
+    <t>Spisska Nova Ves</t>
   </si>
   <si>
-    <t>Spisska Nova Ves</t>
+    <t>FC Petrzalka</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
@@ -142,10 +142,10 @@
     <t>STK Samorin</t>
   </si>
   <si>
-    <t>Slovan Bratislava B</t>
+    <t>MSK Zilina B</t>
   </si>
   <si>
-    <t>MSK Zilina B</t>
+    <t>Slovan Bratislava B</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6982596</v>
+        <v>6883439</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z7">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6883439</v>
+        <v>6982596</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6878158</v>
+        <v>6883442</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.875</v>
@@ -1925,25 +1925,25 @@
         <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6883442</v>
+        <v>6878158</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,46 +1966,46 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.875</v>
@@ -2014,25 +2014,25 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,10 +2052,10 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>37</v>
@@ -2767,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3298,7 +3298,7 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6883850</v>
+        <v>6883447</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6883447</v>
+        <v>6883850</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,73 +3565,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
+        <v>2.2</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
         <v>3.6</v>
       </c>
-      <c r="N35">
-        <v>1.533</v>
-      </c>
-      <c r="O35">
-        <v>4.75</v>
-      </c>
       <c r="P35">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3654,10 +3654,10 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
         <v>30</v>
@@ -4102,7 +4102,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>45171.22916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4369,7 +4369,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4455,7 +4455,7 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>39</v>
@@ -4633,7 +4633,7 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6883851</v>
+        <v>6883452</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48">
+        <v>2.625</v>
+      </c>
+      <c r="L48">
+        <v>3.3</v>
+      </c>
+      <c r="M48">
+        <v>2.3</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.7</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="J48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48">
-        <v>2.9</v>
-      </c>
-      <c r="L48">
-        <v>3.4</v>
-      </c>
-      <c r="M48">
-        <v>2.1</v>
-      </c>
-      <c r="N48">
-        <v>3.1</v>
-      </c>
-      <c r="O48">
-        <v>3.5</v>
-      </c>
-      <c r="P48">
+      <c r="R48">
+        <v>1.9</v>
+      </c>
+      <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
+        <v>1.925</v>
+      </c>
+      <c r="V48">
+        <v>1.875</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
         <v>2.2</v>
       </c>
-      <c r="Q48">
-        <v>0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.925</v>
-      </c>
-      <c r="T48">
-        <v>3</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
-      <c r="W48">
-        <v>-1</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
       <c r="Y48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6883451</v>
+        <v>6883851</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="N49">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O49">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883452</v>
+        <v>6883451</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="N50">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P50">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5170,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>45185.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
         <v>39</v>
@@ -5704,7 +5704,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -6238,7 +6238,7 @@
         <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -6502,10 +6502,10 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s">
         <v>43</v>
-      </c>
-      <c r="G68" t="s">
-        <v>42</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6772,7 +6772,7 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6878187</v>
+        <v>6883887</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N73">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
+        <v>1.825</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
         <v>1.85</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.95</v>
       </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
-      <c r="U73">
-        <v>1.9</v>
-      </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
       <c r="W73">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6883887</v>
+        <v>6878187</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="J74" t="s">
-        <v>47</v>
-      </c>
-      <c r="K74">
-        <v>2.1</v>
-      </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>2.875</v>
-      </c>
       <c r="N74">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>41</v>
@@ -7392,10 +7392,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" t="s">
         <v>35</v>
-      </c>
-      <c r="G78" t="s">
-        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8374,7 +8374,7 @@
         <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8460,7 +8460,7 @@
         <v>45214.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8638,7 +8638,7 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
         <v>31</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6884110</v>
+        <v>6884109</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,59 +8727,59 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>45</v>
       </c>
       <c r="K93">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="Q93">
+        <v>-1.75</v>
+      </c>
+      <c r="R93">
+        <v>1.825</v>
+      </c>
+      <c r="S93">
+        <v>1.975</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
+        <v>1.85</v>
+      </c>
+      <c r="W93">
         <v>0.25</v>
       </c>
-      <c r="R93">
-        <v>1.775</v>
-      </c>
-      <c r="S93">
-        <v>2.025</v>
-      </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>1.825</v>
-      </c>
-      <c r="V93">
-        <v>1.975</v>
-      </c>
-      <c r="W93">
-        <v>1.625</v>
-      </c>
       <c r="X93">
         <v>-1</v>
       </c>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6884109</v>
+        <v>6884110</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,58 +8816,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>45</v>
       </c>
       <c r="K94">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
+        <v>1.775</v>
+      </c>
+      <c r="S94">
+        <v>2.025</v>
+      </c>
+      <c r="T94">
+        <v>2.25</v>
+      </c>
+      <c r="U94">
         <v>1.825</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.975</v>
       </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
       <c r="W94">
-        <v>0.25</v>
+        <v>1.625</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9083,7 +9083,7 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9175,7 +9175,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9531,7 +9531,7 @@
         <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6878191</v>
+        <v>6884124</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,10 +9617,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" t="s">
         <v>34</v>
-      </c>
-      <c r="G103" t="s">
-        <v>39</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9632,43 +9632,43 @@
         <v>45</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L103">
+        <v>3.4</v>
+      </c>
+      <c r="M103">
+        <v>3.1</v>
+      </c>
+      <c r="N103">
+        <v>2.05</v>
+      </c>
+      <c r="O103">
         <v>3.6</v>
       </c>
-      <c r="M103">
-        <v>2.05</v>
-      </c>
-      <c r="N103">
-        <v>2.8</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
       <c r="P103">
+        <v>3.5</v>
+      </c>
+      <c r="Q103">
+        <v>-0.5</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
         <v>2.25</v>
       </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.825</v>
-      </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,13 +9677,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6884124</v>
+        <v>6884112</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
         <v>3.4</v>
       </c>
       <c r="M104">
+        <v>2.4</v>
+      </c>
+      <c r="N104">
         <v>3.1</v>
       </c>
-      <c r="N104">
-        <v>2.05</v>
-      </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
+        <v>1.925</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.75</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>0.475</v>
+      </c>
+      <c r="AA104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2</v>
-      </c>
-      <c r="V104">
-        <v>1.8</v>
-      </c>
-      <c r="W104">
-        <v>1.05</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>1</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6884112</v>
+        <v>6878191</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,73 +9795,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N105">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O105">
         <v>3.75</v>
       </c>
       <c r="P105">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
         <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
         <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X105">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -10151,10 +10151,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10510,7 +10510,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10685,7 +10685,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -10777,7 +10777,7 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -11041,7 +11041,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11486,7 +11486,7 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6878167</v>
+        <v>6883462</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N125">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O125">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6883462</v>
+        <v>6878167</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N126">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P126">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6884075</v>
+        <v>6884121</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M135">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N135">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O135">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P135">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X135">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6884121</v>
+        <v>6884075</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
         <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.925</v>
+      </c>
+      <c r="AB136">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12643,7 +12643,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -12732,7 +12732,7 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6883465</v>
+        <v>6884078</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="N140">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O140">
         <v>4.2</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z140">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6884076</v>
+        <v>6883465</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N141">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6884078</v>
+        <v>6884076</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,55 +13088,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>47</v>
       </c>
       <c r="K142">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13145,19 +13145,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.6000000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13444,10 +13444,10 @@
         <v>45366.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>3</v>
@@ -13625,7 +13625,7 @@
         <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6884162</v>
+        <v>6883468</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,40 +13978,40 @@
         <v>45368.27083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.571</v>
+        <v>4.8</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="N152">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="O152">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R152">
         <v>1.8</v>
@@ -14020,34 +14020,34 @@
         <v>2</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z152">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6883468</v>
+        <v>6884162</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,40 +14067,40 @@
         <v>45368.27083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>4.8</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="N153">
+        <v>1.571</v>
+      </c>
+      <c r="O153">
+        <v>4.5</v>
+      </c>
+      <c r="P153">
         <v>5.25</v>
       </c>
-      <c r="O153">
-        <v>4.2</v>
-      </c>
-      <c r="P153">
-        <v>1.615</v>
-      </c>
       <c r="Q153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R153">
         <v>1.8</v>
@@ -14109,34 +14109,34 @@
         <v>2</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>45374.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
         <v>37</v>
@@ -14337,7 +14337,7 @@
         <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14601,7 +14601,7 @@
         <v>45375.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -14693,7 +14693,7 @@
         <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H160">
         <v>3</v>
@@ -14957,7 +14957,7 @@
         <v>45380.27083333334</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
         <v>40</v>
@@ -15049,7 +15049,7 @@
         <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6884083</v>
+        <v>7172264</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15132,34 +15132,34 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45380.54166666666</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K165">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="L165">
         <v>3.5</v>
       </c>
       <c r="M165">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N165">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q165">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
         <v>1.85</v>
@@ -15168,13 +15168,13 @@
         <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15197,7 +15197,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7172264</v>
+        <v>6884122</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15206,40 +15206,40 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45381.41666666666</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K166">
+        <v>1.45</v>
+      </c>
+      <c r="L166">
+        <v>4.333</v>
+      </c>
+      <c r="M166">
+        <v>6</v>
+      </c>
+      <c r="N166">
+        <v>1.533</v>
+      </c>
+      <c r="O166">
+        <v>4.333</v>
+      </c>
+      <c r="P166">
+        <v>6</v>
+      </c>
+      <c r="Q166">
+        <v>-1</v>
+      </c>
+      <c r="R166">
         <v>1.9</v>
       </c>
-      <c r="L166">
-        <v>3.5</v>
-      </c>
-      <c r="M166">
-        <v>3.6</v>
-      </c>
-      <c r="N166">
-        <v>1.85</v>
-      </c>
-      <c r="O166">
-        <v>3.6</v>
-      </c>
-      <c r="P166">
-        <v>4.333</v>
-      </c>
-      <c r="Q166">
-        <v>-0.5</v>
-      </c>
-      <c r="R166">
-        <v>1.85</v>
-      </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.75</v>
@@ -15271,7 +15271,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6884122</v>
+        <v>6884567</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15280,28 +15280,28 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45381.45833333334</v>
+        <v>45382.22916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K167">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N167">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O167">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
         <v>6</v>
@@ -15310,19 +15310,19 @@
         <v>-1</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15337,80 +15337,6 @@
         <v>0</v>
       </c>
       <c r="AA167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>6884567</v>
-      </c>
-      <c r="C168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D168" t="s">
-        <v>28</v>
-      </c>
-      <c r="E168" s="2">
-        <v>45382.22916666666</v>
-      </c>
-      <c r="F168" t="s">
-        <v>43</v>
-      </c>
-      <c r="G168" t="s">
-        <v>36</v>
-      </c>
-      <c r="K168">
-        <v>1.55</v>
-      </c>
-      <c r="L168">
-        <v>4.2</v>
-      </c>
-      <c r="M168">
-        <v>5</v>
-      </c>
-      <c r="N168">
-        <v>1.55</v>
-      </c>
-      <c r="O168">
-        <v>4.2</v>
-      </c>
-      <c r="P168">
-        <v>6</v>
-      </c>
-      <c r="Q168">
-        <v>-1</v>
-      </c>
-      <c r="R168">
-        <v>1.85</v>
-      </c>
-      <c r="S168">
-        <v>1.95</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.8</v>
-      </c>
-      <c r="V168">
-        <v>2</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="X168">
-        <v>0</v>
-      </c>
-      <c r="Y168">
-        <v>0</v>
-      </c>
-      <c r="Z168">
-        <v>0</v>
-      </c>
-      <c r="AA168">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC167"/>
+  <dimension ref="A1:AC165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6884049</v>
+        <v>6883873</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L19">
+        <v>3.3</v>
+      </c>
+      <c r="M19">
         <v>3.4</v>
       </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
       <c r="N19">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
         <v>3.5</v>
       </c>
       <c r="P19">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>3</v>
       </c>
-      <c r="U19">
-        <v>1.975</v>
-      </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>1.55</v>
-      </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883873</v>
+        <v>6884049</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O20">
         <v>3.5</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6878159</v>
+        <v>6883444</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,56 +2497,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="K23">
+        <v>4.2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.6</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>1.45</v>
+      </c>
+      <c r="Q23">
+        <v>1.25</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>3.25</v>
-      </c>
-      <c r="N23">
-        <v>1.909</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>3.75</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.925</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2554,19 +2554,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6883444</v>
+        <v>6878159</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,56 +2586,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="V24">
-        <v>1.875</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6883446</v>
+        <v>6884050</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,58 +2853,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2913,13 +2913,13 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6883849</v>
+        <v>6883446</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,40 +2942,40 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L28">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N28">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
         <v>1.95</v>
@@ -2984,16 +2984,16 @@
         <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3008,10 +3008,10 @@
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6884050</v>
+        <v>6883849</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3046,19 +3046,19 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3067,19 +3067,19 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>0.5</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6883793</v>
+        <v>7068814</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
+        <v>4.8</v>
+      </c>
+      <c r="N31">
         <v>2.5</v>
       </c>
-      <c r="N31">
-        <v>2.2</v>
-      </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>1.85</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
         <v>2</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.8</v>
       </c>
-      <c r="T31">
-        <v>3.5</v>
-      </c>
-      <c r="U31">
-        <v>1.9</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7068814</v>
+        <v>6883793</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
+        <v>3.8</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>-0.25</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
         <v>3.5</v>
       </c>
-      <c r="P32">
-        <v>2.6</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
       <c r="U32">
+        <v>1.9</v>
+      </c>
+      <c r="V32">
+        <v>1.9</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
         <v>2</v>
       </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
-      <c r="W32">
-        <v>1.5</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6883452</v>
+        <v>6883851</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6883851</v>
+        <v>6883451</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49">
+        <v>1.533</v>
+      </c>
+      <c r="L49">
         <v>4</v>
       </c>
-      <c r="J49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49">
-        <v>2.9</v>
-      </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P49">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>3</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883451</v>
+        <v>6883452</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6883456</v>
+        <v>6883852</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="N63">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6883852</v>
+        <v>6883456</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
+        <v>4.2</v>
+      </c>
+      <c r="N66">
+        <v>1.533</v>
+      </c>
+      <c r="O66">
+        <v>4.2</v>
+      </c>
+      <c r="P66">
+        <v>6.5</v>
+      </c>
+      <c r="Q66">
+        <v>-1</v>
+      </c>
+      <c r="R66">
         <v>1.85</v>
       </c>
-      <c r="N66">
-        <v>3.75</v>
-      </c>
-      <c r="O66">
-        <v>3.75</v>
-      </c>
-      <c r="P66">
-        <v>1.909</v>
-      </c>
-      <c r="Q66">
-        <v>0.5</v>
-      </c>
-      <c r="R66">
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
+        <v>2.5</v>
+      </c>
+      <c r="U66">
         <v>1.9</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.9</v>
       </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
+        <v>-0</v>
+      </c>
+      <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6883887</v>
+        <v>6878187</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3.5</v>
+      </c>
+      <c r="M73">
         <v>3</v>
       </c>
-      <c r="J73" t="s">
-        <v>47</v>
-      </c>
-      <c r="K73">
-        <v>2.1</v>
-      </c>
-      <c r="L73">
-        <v>3.4</v>
-      </c>
-      <c r="M73">
-        <v>2.875</v>
-      </c>
       <c r="N73">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6878187</v>
+        <v>6883887</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N74">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
         <v>1.85</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.95</v>
       </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
       <c r="W74">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z74">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6884109</v>
+        <v>6884110</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,58 +8727,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>45</v>
       </c>
       <c r="K93">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O93">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
+        <v>1.775</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
+        <v>2.25</v>
+      </c>
+      <c r="U93">
         <v>1.825</v>
       </c>
-      <c r="S93">
+      <c r="V93">
         <v>1.975</v>
       </c>
-      <c r="T93">
-        <v>3</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
       <c r="W93">
-        <v>0.25</v>
+        <v>1.625</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6884110</v>
+        <v>6884109</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,59 +8816,59 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>45</v>
       </c>
       <c r="K94">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N94">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="Q94">
+        <v>-1.75</v>
+      </c>
+      <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>1.85</v>
+      </c>
+      <c r="W94">
         <v>0.25</v>
       </c>
-      <c r="R94">
-        <v>1.775</v>
-      </c>
-      <c r="S94">
-        <v>2.025</v>
-      </c>
-      <c r="T94">
-        <v>2.25</v>
-      </c>
-      <c r="U94">
-        <v>1.825</v>
-      </c>
-      <c r="V94">
-        <v>1.975</v>
-      </c>
-      <c r="W94">
-        <v>1.625</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884124</v>
+        <v>6878191</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,10 +9617,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9632,44 +9632,44 @@
         <v>45</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
+        <v>1.975</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
+        <v>1.875</v>
+      </c>
+      <c r="W103">
         <v>1.8</v>
       </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2</v>
-      </c>
-      <c r="V103">
-        <v>1.8</v>
-      </c>
-      <c r="W103">
-        <v>1.05</v>
-      </c>
       <c r="X103">
         <v>-1</v>
       </c>
@@ -9677,13 +9677,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>45</v>
+      </c>
+      <c r="K104">
         <v>2</v>
-      </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
-      <c r="J104" t="s">
-        <v>46</v>
-      </c>
-      <c r="K104">
-        <v>2.625</v>
       </c>
       <c r="L104">
         <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X104">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6878191</v>
+        <v>6884112</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,73 +9795,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N105">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O105">
         <v>3.75</v>
       </c>
       <c r="P105">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q105">
         <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.5</v>
       </c>
       <c r="U105">
+        <v>1.775</v>
+      </c>
+      <c r="V105">
         <v>1.925</v>
       </c>
-      <c r="V105">
-        <v>1.875</v>
-      </c>
       <c r="W105">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6883855</v>
+        <v>6884074</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
+        <v>2.5</v>
+      </c>
+      <c r="N122">
+        <v>2.8</v>
+      </c>
+      <c r="O122">
         <v>3.75</v>
       </c>
-      <c r="N122">
-        <v>1.45</v>
-      </c>
-      <c r="O122">
-        <v>4.75</v>
-      </c>
       <c r="P122">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y122">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA122">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6884074</v>
+        <v>6883855</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z123">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6884121</v>
+        <v>6884075</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
         <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.925</v>
+      </c>
+      <c r="AB135">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6884075</v>
+        <v>6884121</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45354.27083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N136">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X136">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6884078</v>
+        <v>6883465</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>0</v>
       </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="N140">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O140">
         <v>4.2</v>
       </c>
       <c r="P140">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q140">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA140">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6883465</v>
+        <v>6884076</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
         <v>2</v>
       </c>
-      <c r="I141">
+      <c r="J141" t="s">
+        <v>47</v>
+      </c>
+      <c r="K141">
+        <v>2.625</v>
+      </c>
+      <c r="L141">
+        <v>3.4</v>
+      </c>
+      <c r="M141">
+        <v>2.3</v>
+      </c>
+      <c r="N141">
+        <v>2.625</v>
+      </c>
+      <c r="O141">
+        <v>3.4</v>
+      </c>
+      <c r="P141">
+        <v>2.625</v>
+      </c>
+      <c r="Q141">
         <v>0</v>
       </c>
-      <c r="J141" t="s">
-        <v>45</v>
-      </c>
-      <c r="K141">
-        <v>1.909</v>
-      </c>
-      <c r="L141">
-        <v>3.3</v>
-      </c>
-      <c r="M141">
-        <v>3.5</v>
-      </c>
-      <c r="N141">
-        <v>1.533</v>
-      </c>
-      <c r="O141">
-        <v>4.2</v>
-      </c>
-      <c r="P141">
-        <v>6</v>
-      </c>
-      <c r="Q141">
-        <v>-1</v>
-      </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6884076</v>
+        <v>6884078</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,55 +13088,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
         <v>1</v>
-      </c>
-      <c r="I142">
-        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>47</v>
       </c>
       <c r="K142">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="N142">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13145,19 +13145,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.625</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7172264</v>
+        <v>6884567</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15132,34 +15132,34 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.22916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K165">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M165">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N165">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R165">
         <v>1.85</v>
@@ -15168,13 +15168,13 @@
         <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15189,154 +15189,6 @@
         <v>0</v>
       </c>
       <c r="AA165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>6884122</v>
-      </c>
-      <c r="C166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" t="s">
-        <v>28</v>
-      </c>
-      <c r="E166" s="2">
-        <v>45381.45833333334</v>
-      </c>
-      <c r="F166" t="s">
-        <v>41</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
-      <c r="K166">
-        <v>1.45</v>
-      </c>
-      <c r="L166">
-        <v>4.333</v>
-      </c>
-      <c r="M166">
-        <v>6</v>
-      </c>
-      <c r="N166">
-        <v>1.533</v>
-      </c>
-      <c r="O166">
-        <v>4.333</v>
-      </c>
-      <c r="P166">
-        <v>6</v>
-      </c>
-      <c r="Q166">
-        <v>-1</v>
-      </c>
-      <c r="R166">
-        <v>1.9</v>
-      </c>
-      <c r="S166">
-        <v>1.9</v>
-      </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
-      <c r="Z166">
-        <v>0</v>
-      </c>
-      <c r="AA166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>6884567</v>
-      </c>
-      <c r="C167" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" t="s">
-        <v>28</v>
-      </c>
-      <c r="E167" s="2">
-        <v>45382.22916666666</v>
-      </c>
-      <c r="F167" t="s">
-        <v>42</v>
-      </c>
-      <c r="G167" t="s">
-        <v>36</v>
-      </c>
-      <c r="K167">
-        <v>1.55</v>
-      </c>
-      <c r="L167">
-        <v>4.2</v>
-      </c>
-      <c r="M167">
-        <v>5</v>
-      </c>
-      <c r="N167">
-        <v>1.55</v>
-      </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
-      <c r="P167">
-        <v>6</v>
-      </c>
-      <c r="Q167">
-        <v>-1</v>
-      </c>
-      <c r="R167">
-        <v>1.85</v>
-      </c>
-      <c r="S167">
-        <v>1.95</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.8</v>
-      </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <v>0</v>
-      </c>
-      <c r="Y167">
-        <v>0</v>
-      </c>
-      <c r="Z167">
-        <v>0</v>
-      </c>
-      <c r="AA167">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,22 +106,22 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
-    <t>Dolny Kubin</t>
+    <t>FK Humenne</t>
   </si>
   <si>
     <t>Spisska Nova Ves</t>
   </si>
   <si>
-    <t>FK Humenne</t>
+    <t>FC Petrzalka</t>
+  </si>
+  <si>
+    <t>Dolny Kubin</t>
+  </si>
+  <si>
+    <t>MSK Povazska Bystrica</t>
   </si>
   <si>
     <t>Puchov</t>
-  </si>
-  <si>
-    <t>FC Petrzalka</t>
-  </si>
-  <si>
-    <t>MSK Povazska Bystrica</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
@@ -142,10 +142,10 @@
     <t>Slovan Bratislava B</t>
   </si>
   <si>
-    <t>MSK Zilina B</t>
+    <t>STK Samorin</t>
   </si>
   <si>
-    <t>STK Samorin</t>
+    <t>MSK Zilina B</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6884167</v>
+        <v>6883440</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,52 +720,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6883440</v>
+        <v>6982596</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,16 +898,16 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>2.6</v>
@@ -916,55 +916,55 @@
         <v>3.2</v>
       </c>
       <c r="M5">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6883846</v>
+        <v>6884167</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,46 +987,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
         <v>3.3</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
         <v>1.9</v>
@@ -1035,25 +1035,25 @@
         <v>1.9</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
+        <v>-0.5</v>
+      </c>
+      <c r="AC6">
         <v>0.45</v>
-      </c>
-      <c r="AC6">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6982596</v>
+        <v>6884046</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N7">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6884046</v>
+        <v>6883846</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
         <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.75</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>0.45</v>
+      </c>
+      <c r="AC8">
         <v>-0.5</v>
-      </c>
-      <c r="AA8">
-        <v>0.4125</v>
-      </c>
-      <c r="AB8">
-        <v>0.925</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6884116</v>
+        <v>6884048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,58 +1607,58 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,16 +1667,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6884048</v>
+        <v>6884116</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45143.5</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N14">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,16 +1756,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6883442</v>
+        <v>6883847</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,70 +1877,70 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.95</v>
+      </c>
+      <c r="AB16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.875</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6883847</v>
+        <v>6883442</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,70 +1966,70 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17">
+        <v>2.6</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>2.25</v>
-      </c>
-      <c r="L17">
-        <v>3.3</v>
-      </c>
-      <c r="M17">
-        <v>2.7</v>
-      </c>
-      <c r="N17">
-        <v>2.05</v>
-      </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2052,7 +2052,7 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6883873</v>
+        <v>6883848</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>1.95</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6884117</v>
+        <v>6883873</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L20">
+        <v>3.3</v>
+      </c>
+      <c r="M20">
         <v>3.4</v>
       </c>
-      <c r="M20">
-        <v>1.85</v>
-      </c>
       <c r="N20">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
         <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2322,7 +2322,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6883848</v>
+        <v>6884117</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
         <v>3.4</v>
       </c>
       <c r="M22">
+        <v>1.85</v>
+      </c>
+      <c r="N22">
+        <v>2.9</v>
+      </c>
+      <c r="O22">
+        <v>3.5</v>
+      </c>
+      <c r="P22">
+        <v>2.4</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
         <v>3.25</v>
       </c>
-      <c r="N22">
-        <v>1.75</v>
-      </c>
-      <c r="O22">
-        <v>3.8</v>
-      </c>
-      <c r="P22">
-        <v>4.5</v>
-      </c>
-      <c r="Q22">
-        <v>-0.75</v>
-      </c>
-      <c r="R22">
-        <v>1.95</v>
-      </c>
-      <c r="S22">
-        <v>1.85</v>
-      </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
       <c r="U22">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6878159</v>
+        <v>6883444</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,56 +2497,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23">
+        <v>4.2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.6</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>1.45</v>
+      </c>
+      <c r="Q23">
+        <v>1.25</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>3.25</v>
-      </c>
-      <c r="N23">
-        <v>1.909</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>3.75</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.925</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2554,19 +2554,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6883444</v>
+        <v>6878159</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,56 +2586,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="V24">
-        <v>1.875</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6884060</v>
+        <v>6884061</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,58 +2675,58 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2735,13 +2735,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6884061</v>
+        <v>6884060</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,58 +2764,58 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L26">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2824,13 +2824,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6883446</v>
+        <v>6884050</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,58 +2853,58 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2913,13 +2913,13 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6884050</v>
+        <v>6883849</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,10 +2945,10 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2957,19 +2957,19 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1.5</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
         <v>6.5</v>
@@ -2978,19 +2978,19 @@
         <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>0.5</v>
@@ -3002,16 +3002,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6883849</v>
+        <v>6883446</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,40 +3031,40 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N29">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
         <v>1.95</v>
@@ -3073,16 +3073,16 @@
         <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3097,10 +3097,10 @@
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6883793</v>
+        <v>7068814</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
+        <v>4.8</v>
+      </c>
+      <c r="N30">
         <v>2.5</v>
       </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>1.95</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
         <v>2</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.8</v>
       </c>
-      <c r="T30">
-        <v>3.5</v>
-      </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7068814</v>
+        <v>6883793</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
+        <v>3.8</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>-0.25</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1.8</v>
+      </c>
+      <c r="T31">
         <v>3.5</v>
       </c>
-      <c r="P31">
-        <v>2.6</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1.85</v>
-      </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
-      </c>
       <c r="U31">
+        <v>1.9</v>
+      </c>
+      <c r="V31">
+        <v>1.9</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
         <v>2</v>
       </c>
-      <c r="V31">
-        <v>1.8</v>
-      </c>
-      <c r="W31">
-        <v>1.5</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,10 +3298,10 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3476,10 +3476,10 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -3657,7 +3657,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -3746,7 +3746,7 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6878161</v>
+        <v>6884051</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3847,40 +3847,40 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N38">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3889,19 +3889,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>3.2</v>
+        <v>0.75</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6884051</v>
+        <v>6878161</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3936,41 +3936,41 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L39">
+        <v>3.5</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>1.8</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>1.5</v>
-      </c>
-      <c r="N39">
-        <v>4.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
+        <v>1.825</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.875</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -3978,19 +3978,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4455,10 +4455,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4544,7 +4544,7 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -4636,7 +4636,7 @@
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4811,10 +4811,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883451</v>
+        <v>6883452</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="N50">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6883452</v>
+        <v>6883451</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
       <c r="K51">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6878163</v>
+        <v>6884566</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N52">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6884566</v>
+        <v>6878163</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L53">
         <v>3.6</v>
       </c>
       <c r="M53">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N53">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P53">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6883454</v>
+        <v>6884054</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,76 +5612,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M58">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q58">
         <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>1.75</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>1.75</v>
       </c>
       <c r="T58">
         <v>3</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y58">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6884054</v>
+        <v>6883454</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,73 +5704,73 @@
         <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L59">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N59">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.75</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
       </c>
       <c r="T59">
         <v>3</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5879,7 +5879,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
         <v>44</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6883456</v>
+        <v>6878164</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,49 +5968,49 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
         <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K62">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>2.2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
         <v>3.5</v>
       </c>
-      <c r="M62">
-        <v>4.2</v>
-      </c>
-      <c r="N62">
-        <v>1.533</v>
-      </c>
-      <c r="O62">
-        <v>4.2</v>
-      </c>
       <c r="P62">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
         <v>1.9</v>
@@ -6019,19 +6019,19 @@
         <v>1.9</v>
       </c>
       <c r="W62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6883455</v>
+        <v>6883852</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
         <v>1.825</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6878164</v>
+        <v>6883456</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,46 +6149,46 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6197,19 +6197,19 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6883852</v>
+        <v>6883455</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
+        <v>1.975</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
         <v>1.9</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.9</v>
       </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
         <v>41</v>
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6884068</v>
+        <v>6884056</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6883799</v>
+        <v>6884068</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,73 +6772,73 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L71">
+        <v>3.75</v>
+      </c>
+      <c r="M71">
+        <v>3.75</v>
+      </c>
+      <c r="N71">
+        <v>2.05</v>
+      </c>
+      <c r="O71">
+        <v>3.75</v>
+      </c>
+      <c r="P71">
         <v>3.4</v>
       </c>
-      <c r="M71">
-        <v>2.625</v>
-      </c>
-      <c r="N71">
-        <v>2.3</v>
-      </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
-      <c r="P71">
-        <v>3</v>
-      </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
         <v>2.75</v>
       </c>
       <c r="U71">
+        <v>1.975</v>
+      </c>
+      <c r="V71">
         <v>1.825</v>
       </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
       <c r="W71">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6884056</v>
+        <v>6883799</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,43 +6873,43 @@
         <v>45</v>
       </c>
       <c r="K72">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N72">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
         <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6918,7 +6918,7 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6927,7 +6927,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6884165</v>
+        <v>6878187</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6878187</v>
+        <v>6884165</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="N75">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z75">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6883486</v>
+        <v>6884571</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,13 +7303,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7318,43 +7318,43 @@
         <v>45</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N77">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="Q77">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
+        <v>1.85</v>
+      </c>
+      <c r="S77">
         <v>1.95</v>
       </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U77">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>0.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6878188</v>
+        <v>6884105</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
+        <v>1.533</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>4.8</v>
+      </c>
+      <c r="N78">
+        <v>1.55</v>
+      </c>
+      <c r="O78">
+        <v>4.333</v>
+      </c>
+      <c r="P78">
+        <v>5.5</v>
+      </c>
+      <c r="Q78">
+        <v>-1</v>
+      </c>
+      <c r="R78">
+        <v>1.75</v>
+      </c>
+      <c r="S78">
+        <v>1.95</v>
+      </c>
+      <c r="T78">
         <v>3</v>
       </c>
-      <c r="L78">
-        <v>3.6</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78">
-        <v>3.6</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
-      <c r="P78">
-        <v>1.909</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
-      </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6883485</v>
+        <v>6883486</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,13 +7481,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7496,43 +7496,43 @@
         <v>45</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N79">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P79">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W79">
-        <v>0.833</v>
+        <v>0.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6884105</v>
+        <v>6883485</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,13 +7570,13 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
         <v>35</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7585,34 +7585,34 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
+        <v>3.5</v>
+      </c>
+      <c r="M80">
         <v>4</v>
       </c>
-      <c r="M80">
-        <v>4.8</v>
-      </c>
       <c r="N80">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.85</v>
@@ -7621,7 +7621,7 @@
         <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.55</v>
+        <v>0.833</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,7 +7630,7 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6884571</v>
+        <v>6878188</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <v>3.6</v>
       </c>
       <c r="M81">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
         <v>3.8</v>
       </c>
       <c r="P81">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
+        <v>1.925</v>
+      </c>
+      <c r="V81">
         <v>1.875</v>
       </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
       <c r="W81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>45210.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6883488</v>
+        <v>6884123</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,10 +8104,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8119,31 +8119,31 @@
         <v>45</v>
       </c>
       <c r="K86">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
         <v>1.725</v>
-      </c>
-      <c r="S86">
-        <v>2.075</v>
       </c>
       <c r="T86">
         <v>2.5</v>
@@ -8152,10 +8152,10 @@
         <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W86">
-        <v>0.333</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,10 +8164,10 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.5375000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>0.95</v>
@@ -8193,10 +8193,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6883864</v>
+        <v>6883488</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N88">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.75</v>
+        <v>0.5375000000000001</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6884123</v>
+        <v>6883864</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,34 +8371,34 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
         <v>2.4</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
         <v>2.875</v>
@@ -8407,40 +8407,40 @@
         <v>-0.25</v>
       </c>
       <c r="R89">
+        <v>2.05</v>
+      </c>
+      <c r="S89">
+        <v>1.75</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="S89">
-        <v>1.725</v>
-      </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
       <c r="V89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45214.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>44</v>
@@ -8552,7 +8552,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8638,10 +8638,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6883490</v>
+        <v>6884109</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93">
+        <v>1.25</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>9</v>
+      </c>
+      <c r="N93">
+        <v>1.25</v>
+      </c>
+      <c r="O93">
+        <v>5.75</v>
+      </c>
+      <c r="P93">
+        <v>13</v>
+      </c>
+      <c r="Q93">
+        <v>-1.75</v>
+      </c>
+      <c r="R93">
+        <v>1.825</v>
+      </c>
+      <c r="S93">
+        <v>1.975</v>
+      </c>
+      <c r="T93">
         <v>3</v>
       </c>
-      <c r="J93" t="s">
-        <v>46</v>
-      </c>
-      <c r="K93">
-        <v>3.75</v>
-      </c>
-      <c r="L93">
-        <v>4</v>
-      </c>
-      <c r="M93">
-        <v>1.666</v>
-      </c>
-      <c r="N93">
-        <v>3.2</v>
-      </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
-      <c r="P93">
-        <v>2.15</v>
-      </c>
-      <c r="Q93">
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
+        <v>1.85</v>
+      </c>
+      <c r="W93">
         <v>0.25</v>
       </c>
-      <c r="R93">
-        <v>1.925</v>
-      </c>
-      <c r="S93">
-        <v>1.875</v>
-      </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>1.9</v>
-      </c>
-      <c r="V93">
-        <v>1.9</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6878190</v>
+        <v>6883490</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L94">
         <v>4</v>
       </c>
       <c r="M94">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N94">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC94">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6884110</v>
+        <v>6878190</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O95">
+        <v>4.333</v>
+      </c>
+      <c r="P95">
         <v>4</v>
       </c>
-      <c r="P95">
-        <v>2.4</v>
-      </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6884109</v>
+        <v>6884110</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,58 +8994,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>45</v>
       </c>
       <c r="K96">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O96">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="Q96">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
+        <v>1.775</v>
+      </c>
+      <c r="S96">
+        <v>2.025</v>
+      </c>
+      <c r="T96">
+        <v>2.25</v>
+      </c>
+      <c r="U96">
         <v>1.825</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="T96">
-        <v>3</v>
-      </c>
-      <c r="U96">
-        <v>1.95</v>
-      </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
-        <v>0.25</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9054,16 +9054,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6883491</v>
+        <v>6884111</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,40 +9172,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98">
+        <v>2.55</v>
+      </c>
+      <c r="L98">
+        <v>3.5</v>
+      </c>
+      <c r="M98">
+        <v>2.4</v>
+      </c>
+      <c r="N98">
+        <v>2.625</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>2.55</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
-      </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
-      <c r="J98" t="s">
-        <v>46</v>
-      </c>
-      <c r="K98">
-        <v>4.75</v>
-      </c>
-      <c r="L98">
-        <v>3.8</v>
-      </c>
-      <c r="M98">
-        <v>1.6</v>
-      </c>
-      <c r="N98">
-        <v>9</v>
-      </c>
-      <c r="O98">
-        <v>6</v>
-      </c>
-      <c r="P98">
-        <v>1.2</v>
-      </c>
-      <c r="Q98">
-        <v>2</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9214,34 +9214,34 @@
         <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6884111</v>
+        <v>6883891</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,73 +9261,73 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>45</v>
+      </c>
+      <c r="K99">
+        <v>1.65</v>
+      </c>
+      <c r="L99">
+        <v>3.6</v>
+      </c>
+      <c r="M99">
+        <v>4.75</v>
+      </c>
+      <c r="N99">
+        <v>1.533</v>
+      </c>
+      <c r="O99">
+        <v>4.2</v>
+      </c>
+      <c r="P99">
+        <v>6.5</v>
+      </c>
+      <c r="Q99">
+        <v>-1</v>
+      </c>
+      <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
+        <v>1.975</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.8</v>
+      </c>
+      <c r="V99">
         <v>2</v>
       </c>
-      <c r="I99">
-        <v>2</v>
-      </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.55</v>
-      </c>
-      <c r="L99">
-        <v>3.5</v>
-      </c>
-      <c r="M99">
-        <v>2.4</v>
-      </c>
-      <c r="N99">
-        <v>2.625</v>
-      </c>
-      <c r="O99">
-        <v>3.6</v>
-      </c>
-      <c r="P99">
-        <v>2.55</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.95</v>
-      </c>
-      <c r="V99">
-        <v>1.85</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X99">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6883891</v>
+        <v>6883866</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,70 +9353,70 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
         <v>3.6</v>
       </c>
       <c r="M100">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O100">
         <v>4.2</v>
       </c>
       <c r="P100">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9439,7 +9439,7 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>44</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6883866</v>
+        <v>6883491</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,52 +9531,52 @@
         <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
         <v>46</v>
       </c>
       <c r="K102">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="N102">
+        <v>9</v>
+      </c>
+      <c r="O102">
+        <v>6</v>
+      </c>
+      <c r="P102">
+        <v>1.2</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
+        <v>1.85</v>
+      </c>
+      <c r="T102">
+        <v>3.25</v>
+      </c>
+      <c r="U102">
         <v>1.7</v>
       </c>
-      <c r="O102">
-        <v>4.2</v>
-      </c>
-      <c r="P102">
-        <v>4.5</v>
-      </c>
-      <c r="Q102">
-        <v>-0.75</v>
-      </c>
-      <c r="R102">
-        <v>1.85</v>
-      </c>
-      <c r="S102">
-        <v>1.95</v>
-      </c>
-      <c r="T102">
-        <v>2.75</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9585,19 +9585,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB102">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6884124</v>
+        <v>6878191</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,10 +9617,10 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9632,44 +9632,44 @@
         <v>45</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
+        <v>1.975</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
+        <v>1.875</v>
+      </c>
+      <c r="W103">
         <v>1.8</v>
       </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>2</v>
-      </c>
-      <c r="V103">
-        <v>1.8</v>
-      </c>
-      <c r="W103">
-        <v>1.05</v>
-      </c>
       <c r="X103">
         <v>-1</v>
       </c>
@@ -9677,13 +9677,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6878191</v>
+        <v>6884112</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,73 +9706,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O104">
         <v>3.75</v>
       </c>
       <c r="P104">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
         <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
         <v>1.925</v>
       </c>
-      <c r="V104">
-        <v>1.875</v>
-      </c>
       <c r="W104">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6884112</v>
+        <v>6884124</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,73 +9795,73 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>45</v>
+      </c>
+      <c r="K105">
         <v>2</v>
-      </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
-      <c r="J105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K105">
-        <v>2.625</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N105">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X105">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9976,7 +9976,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10065,7 +10065,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10151,10 +10151,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6883853</v>
+        <v>6884119</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
+        <v>2.625</v>
+      </c>
+      <c r="N110">
+        <v>2.05</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>3.1</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
         <v>2</v>
-      </c>
-      <c r="N110">
-        <v>2.7</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>2.375</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>2.025</v>
-      </c>
-      <c r="S110">
-        <v>1.775</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6884119</v>
+        <v>6883853</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>4</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L111">
         <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10421,7 +10421,7 @@
         <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6883801</v>
+        <v>6883877</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114">
+        <v>1.666</v>
+      </c>
+      <c r="L114">
+        <v>4.1</v>
+      </c>
+      <c r="M114">
         <v>4</v>
       </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
-      <c r="J114" t="s">
-        <v>45</v>
-      </c>
-      <c r="K114">
-        <v>1.8</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>3.5</v>
-      </c>
       <c r="N114">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
         <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>1.95</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6883877</v>
+        <v>6883801</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
+        <v>1.571</v>
+      </c>
+      <c r="O115">
+        <v>4.2</v>
+      </c>
+      <c r="P115">
+        <v>6</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
-      </c>
-      <c r="O115">
-        <v>3.75</v>
-      </c>
-      <c r="P115">
-        <v>3.6</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.95</v>
-      </c>
-      <c r="S115">
-        <v>1.85</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10955,7 +10955,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6884161</v>
+        <v>6884071</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,73 +11044,73 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119">
+        <v>3.1</v>
+      </c>
+      <c r="L119">
+        <v>3.7</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>2.75</v>
+      </c>
+      <c r="O119">
+        <v>3.5</v>
+      </c>
+      <c r="P119">
+        <v>2.4</v>
+      </c>
+      <c r="Q119">
         <v>0</v>
       </c>
-      <c r="J119" t="s">
-        <v>45</v>
-      </c>
-      <c r="K119">
-        <v>1.5</v>
-      </c>
-      <c r="L119">
-        <v>4.1</v>
-      </c>
-      <c r="M119">
-        <v>5.5</v>
-      </c>
-      <c r="N119">
-        <v>1.3</v>
-      </c>
-      <c r="O119">
-        <v>6</v>
-      </c>
-      <c r="P119">
-        <v>8.5</v>
-      </c>
-      <c r="Q119">
-        <v>-2</v>
-      </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
         <v>1.775</v>
       </c>
       <c r="T119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W119">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6884071</v>
+        <v>6884161</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,73 +11133,73 @@
         <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L120">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P120">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
         <v>1.775</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11219,7 +11219,7 @@
         <v>45245.375</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6884120</v>
+        <v>6883855</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,55 +11308,55 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J122" t="s">
         <v>46</v>
       </c>
       <c r="K122">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="L122">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
         <v>4.75</v>
       </c>
       <c r="P122">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11365,19 +11365,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.571</v>
+        <v>5</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11400,7 +11400,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6883855</v>
+        <v>6884120</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,55 +11486,55 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>6</v>
       </c>
       <c r="J124" t="s">
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="N124">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="O124">
         <v>4.75</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11543,19 +11543,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>5</v>
+        <v>0.571</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6883462</v>
+        <v>6878167</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6878167</v>
+        <v>6883462</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45249.27083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N126">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="O126">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,10 +11753,10 @@
         <v>45255.375</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>45264.375</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -12023,7 +12023,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12112,7 +12112,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12198,10 +12198,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F132" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" t="s">
         <v>35</v>
-      </c>
-      <c r="G132" t="s">
-        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6884121</v>
+        <v>6884075</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,70 +12468,70 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
         <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.925</v>
+      </c>
+      <c r="AB135">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6884075</v>
+        <v>6884121</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12557,70 +12557,70 @@
         <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M136">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="N136">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X136">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12646,7 +12646,7 @@
         <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -12732,7 +12732,7 @@
         <v>45360.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12824,7 +12824,7 @@
         <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6883465</v>
+        <v>6884078</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="N140">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O140">
         <v>4.2</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z140">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6884078</v>
+        <v>6883465</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>0</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O142">
         <v>4.2</v>
       </c>
       <c r="P142">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA142">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13266,10 +13266,10 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13355,7 +13355,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13536,7 +13536,7 @@
         <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6884079</v>
+        <v>6878178</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45367.4375</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>45</v>
+      </c>
+      <c r="K148">
+        <v>2.25</v>
+      </c>
+      <c r="L148">
+        <v>3.5</v>
+      </c>
+      <c r="M148">
+        <v>2.75</v>
+      </c>
+      <c r="N148">
+        <v>2.3</v>
+      </c>
+      <c r="O148">
+        <v>3.7</v>
+      </c>
+      <c r="P148">
+        <v>2.875</v>
+      </c>
+      <c r="Q148">
         <v>0</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148" t="s">
-        <v>47</v>
-      </c>
-      <c r="K148">
-        <v>1.25</v>
-      </c>
-      <c r="L148">
-        <v>5</v>
-      </c>
-      <c r="M148">
-        <v>10</v>
-      </c>
-      <c r="N148">
+      <c r="R148">
+        <v>1.7</v>
+      </c>
+      <c r="S148">
+        <v>2.1</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>1.8</v>
+      </c>
+      <c r="V148">
+        <v>2</v>
+      </c>
+      <c r="W148">
         <v>1.3</v>
       </c>
-      <c r="O148">
-        <v>5.25</v>
-      </c>
-      <c r="P148">
-        <v>11</v>
-      </c>
-      <c r="Q148">
-        <v>-1.5</v>
-      </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
-      <c r="S148">
-        <v>2</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
       <c r="X148">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6878178</v>
+        <v>6883858</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13714,73 +13714,73 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
         <v>2</v>
       </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
+        <v>4.8</v>
+      </c>
+      <c r="N149">
+        <v>1.666</v>
+      </c>
+      <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149">
+        <v>5</v>
+      </c>
+      <c r="Q149">
+        <v>-1</v>
+      </c>
+      <c r="R149">
+        <v>2.025</v>
+      </c>
+      <c r="S149">
+        <v>1.775</v>
+      </c>
+      <c r="T149">
         <v>2.75</v>
       </c>
-      <c r="N149">
-        <v>2.3</v>
-      </c>
-      <c r="O149">
-        <v>3.7</v>
-      </c>
-      <c r="P149">
-        <v>2.875</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-      <c r="R149">
-        <v>1.7</v>
-      </c>
-      <c r="S149">
-        <v>2.1</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z149">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6883858</v>
+        <v>6884079</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45367.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>47</v>
+      </c>
+      <c r="K151">
+        <v>1.25</v>
+      </c>
+      <c r="L151">
+        <v>5</v>
+      </c>
+      <c r="M151">
+        <v>10</v>
+      </c>
+      <c r="N151">
+        <v>1.3</v>
+      </c>
+      <c r="O151">
+        <v>5.25</v>
+      </c>
+      <c r="P151">
+        <v>11</v>
+      </c>
+      <c r="Q151">
+        <v>-1.5</v>
+      </c>
+      <c r="R151">
+        <v>1.8</v>
+      </c>
+      <c r="S151">
         <v>2</v>
-      </c>
-      <c r="J151" t="s">
-        <v>46</v>
-      </c>
-      <c r="K151">
-        <v>1.65</v>
-      </c>
-      <c r="L151">
-        <v>3.6</v>
-      </c>
-      <c r="M151">
-        <v>4.8</v>
-      </c>
-      <c r="N151">
-        <v>1.666</v>
-      </c>
-      <c r="O151">
-        <v>4</v>
-      </c>
-      <c r="P151">
-        <v>5</v>
-      </c>
-      <c r="Q151">
-        <v>-1</v>
-      </c>
-      <c r="R151">
-        <v>2.025</v>
-      </c>
-      <c r="S151">
-        <v>1.775</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y151">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB151">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6884162</v>
+        <v>6883468</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13981,37 +13981,37 @@
         <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>1.571</v>
+        <v>4.8</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="N152">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="O152">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R152">
         <v>1.8</v>
@@ -14020,34 +14020,34 @@
         <v>2</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z152">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6883468</v>
+        <v>6884162</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14070,37 +14070,37 @@
         <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>4.8</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="N153">
+        <v>1.571</v>
+      </c>
+      <c r="O153">
+        <v>4.5</v>
+      </c>
+      <c r="P153">
         <v>5.25</v>
       </c>
-      <c r="O153">
-        <v>4.2</v>
-      </c>
-      <c r="P153">
-        <v>1.615</v>
-      </c>
       <c r="Q153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R153">
         <v>1.8</v>
@@ -14109,34 +14109,34 @@
         <v>2</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6884081</v>
+        <v>6883470</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,76 +14156,76 @@
         <v>45374.4375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M154">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N154">
-        <v>5.25</v>
+        <v>1.3</v>
       </c>
       <c r="O154">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P154">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="Q154">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R154">
+        <v>1.975</v>
+      </c>
+      <c r="S154">
+        <v>1.825</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
         <v>1.875</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.925</v>
       </c>
-      <c r="T154">
-        <v>2.5</v>
-      </c>
-      <c r="U154">
-        <v>1.9</v>
-      </c>
-      <c r="V154">
-        <v>1.9</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X154">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6883469</v>
+        <v>6884081</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,40 +14245,40 @@
         <v>45374.4375</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="L155">
         <v>3.75</v>
       </c>
       <c r="M155">
+        <v>1.615</v>
+      </c>
+      <c r="N155">
+        <v>5.25</v>
+      </c>
+      <c r="O155">
         <v>3.75</v>
       </c>
-      <c r="N155">
-        <v>1.533</v>
-      </c>
-      <c r="O155">
-        <v>4.5</v>
-      </c>
       <c r="P155">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
         <v>1.875</v>
@@ -14287,34 +14287,34 @@
         <v>1.925</v>
       </c>
       <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
+        <v>1.9</v>
+      </c>
+      <c r="V155">
+        <v>1.9</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
         <v>2.75</v>
       </c>
-      <c r="U155">
-        <v>1.85</v>
-      </c>
-      <c r="V155">
-        <v>1.95</v>
-      </c>
-      <c r="W155">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6884163</v>
+        <v>6883469</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,13 +14334,13 @@
         <v>45374.4375</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
         <v>42</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -14349,25 +14349,25 @@
         <v>45</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L156">
+        <v>3.75</v>
+      </c>
+      <c r="M156">
+        <v>3.75</v>
+      </c>
+      <c r="N156">
+        <v>1.533</v>
+      </c>
+      <c r="O156">
         <v>4.5</v>
       </c>
-      <c r="M156">
+      <c r="P156">
         <v>5.5</v>
       </c>
-      <c r="N156">
-        <v>1.4</v>
-      </c>
-      <c r="O156">
-        <v>5</v>
-      </c>
-      <c r="P156">
-        <v>7</v>
-      </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R156">
         <v>1.875</v>
@@ -14376,7 +14376,7 @@
         <v>1.925</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
         <v>1.85</v>
@@ -14385,7 +14385,7 @@
         <v>1.95</v>
       </c>
       <c r="W156">
-        <v>0.3999999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14394,16 +14394,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6883470</v>
+        <v>6884163</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,13 +14423,13 @@
         <v>45374.4375</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14438,43 +14438,43 @@
         <v>45</v>
       </c>
       <c r="K157">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="L157">
+        <v>4.5</v>
+      </c>
+      <c r="M157">
+        <v>5.5</v>
+      </c>
+      <c r="N157">
+        <v>1.4</v>
+      </c>
+      <c r="O157">
         <v>5</v>
       </c>
-      <c r="M157">
+      <c r="P157">
         <v>7</v>
       </c>
-      <c r="N157">
-        <v>1.3</v>
-      </c>
-      <c r="O157">
-        <v>6</v>
-      </c>
-      <c r="P157">
-        <v>9</v>
-      </c>
       <c r="Q157">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>0.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14483,16 +14483,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6884082</v>
+        <v>6878179</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,58 +14512,58 @@
         <v>45375.27083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>45</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L158">
         <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N158">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14572,13 +14572,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6878179</v>
+        <v>6884082</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,58 +14601,58 @@
         <v>45375.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>45</v>
       </c>
       <c r="K159">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L159">
         <v>3.4</v>
       </c>
       <c r="M159">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N159">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14661,13 +14661,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14779,10 +14779,10 @@
         <v>45375.4375</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14868,10 +14868,10 @@
         <v>45379.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15135,10 +15135,10 @@
         <v>45380.45833333334</v>
       </c>
       <c r="F165" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165" t="s">
         <v>33</v>
-      </c>
-      <c r="G165" t="s">
-        <v>30</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
         <v>31</v>
@@ -15472,6 +15472,95 @@
       </c>
       <c r="AC168">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>6884567</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45382.22916666666</v>
+      </c>
+      <c r="F169" t="s">
+        <v>43</v>
+      </c>
+      <c r="G169" t="s">
+        <v>36</v>
+      </c>
+      <c r="H169">
+        <v>4</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169" t="s">
+        <v>45</v>
+      </c>
+      <c r="K169">
+        <v>1.55</v>
+      </c>
+      <c r="L169">
+        <v>4.2</v>
+      </c>
+      <c r="M169">
+        <v>5</v>
+      </c>
+      <c r="N169">
+        <v>1.95</v>
+      </c>
+      <c r="O169">
+        <v>3.75</v>
+      </c>
+      <c r="P169">
+        <v>3.5</v>
+      </c>
+      <c r="Q169">
+        <v>-0.5</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.825</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
+        <v>2</v>
+      </c>
+      <c r="W169">
+        <v>0.95</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
+        <v>0.8</v>
+      </c>
+      <c r="AC169">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
+++ b/Slovakia 2 Liga/Slovakia 2 Liga.xlsx
@@ -106,22 +106,22 @@
     <t>Slavoj Trebisov</t>
   </si>
   <si>
-    <t>FK Humenne</t>
+    <t>Spisska Nova Ves</t>
   </si>
   <si>
-    <t>Spisska Nova Ves</t>
+    <t>Puchov</t>
+  </si>
+  <si>
+    <t>Dolny Kubin</t>
   </si>
   <si>
     <t>FC Petrzalka</t>
   </si>
   <si>
-    <t>Dolny Kubin</t>
+    <t>FK Humenne</t>
   </si>
   <si>
     <t>MSK Povazska Bystrica</t>
-  </si>
-  <si>
-    <t>Puchov</t>
   </si>
   <si>
     <t>OFK Malzenice</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6883440</v>
+        <v>6883439</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -732,40 +732,40 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA3">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6883439</v>
+        <v>6883846</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
+        <v>0.45</v>
+      </c>
+      <c r="AC4">
         <v>-0.5</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
-      <c r="AC4">
-        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6982596</v>
+        <v>6884167</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
+        <v>2.7</v>
+      </c>
+      <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>2.25</v>
+      </c>
+      <c r="N5">
         <v>2.6</v>
       </c>
-      <c r="L5">
-        <v>3.2</v>
-      </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
-      <c r="N5">
-        <v>2.625</v>
-      </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6884167</v>
+        <v>6982596</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
+        <v>2.6</v>
+      </c>
+      <c r="L6">
+        <v>3.2</v>
+      </c>
+      <c r="M6">
+        <v>2.4</v>
+      </c>
+      <c r="N6">
+        <v>2.625</v>
+      </c>
+      <c r="O6">
+        <v>3.4</v>
+      </c>
+      <c r="P6">
         <v>2.7</v>
-      </c>
-      <c r="L6">
-        <v>3.3</v>
-      </c>
-      <c r="M6">
-        <v>2.25</v>
-      </c>
-      <c r="N6">
-        <v>2.6</v>
-      </c>
-      <c r="O6">
-        <v>3.8</v>
-      </c>
-      <c r="P6">
-        <v>2.45</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6884046</v>
+        <v>6883440</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7">
+        <v>2.6</v>
+      </c>
+      <c r="L7">
+        <v>3.2</v>
+      </c>
+      <c r="M7">
+        <v>2.375</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>3.25</v>
+      </c>
+      <c r="P7">
+        <v>2.5</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.75</v>
+      </c>
+      <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
+        <v>1.8</v>
+      </c>
+      <c r="V7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7">
-        <v>2.25</v>
-      </c>
-      <c r="L7">
-        <v>3.3</v>
-      </c>
-      <c r="M7">
-        <v>2.75</v>
-      </c>
-      <c r="N7">
-        <v>2.25</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>3.1</v>
-      </c>
-      <c r="Q7">
-        <v>-0.25</v>
-      </c>
-      <c r="R7">
-        <v>1.975</v>
-      </c>
-      <c r="S7">
-        <v>1.825</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.925</v>
-      </c>
-      <c r="V7">
-        <v>1.875</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6883846</v>
+        <v>6884046</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L8">
         <v>3.3</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB8">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>45143.5</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -1699,7 +1699,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1788,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1966,7 +1966,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6883443</v>
+        <v>6883873</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45150.5</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L18">
         <v>3.3</v>
       </c>
       <c r="M18">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O18">
         <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q18">
         <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45150.5</v>
       </c>
       <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6883873</v>
+        <v>6884049</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>45150.5</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O20">
         <v>3.5</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6884049</v>
+        <v>6883443</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45150.5</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N21">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
         <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.975</v>
+      </c>
+      <c r="S21">
+        <v>1.825</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>1.95</v>
+      </c>
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-      <c r="U21">
-        <v>1.975</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>45150.5</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6883444</v>
+        <v>6878159</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,56 +2497,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.875</v>
+      </c>
+      <c r="V23">
         <v>1.925</v>
       </c>
-      <c r="V23">
-        <v>1.875</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2554,19 +2554,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6878159</v>
+        <v>6883444</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,56 +2586,56 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
+        <v>4.2</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>1.6</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>1.45</v>
+      </c>
+      <c r="Q24">
+        <v>1.25</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
         <v>1.95</v>
-      </c>
-      <c r="L24">
-        <v>3.4</v>
-      </c>
-      <c r="M24">
-        <v>3.25</v>
-      </c>
-      <c r="N24">
-        <v>1.909</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>3.75</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
+        <v>1.925</v>
+      </c>
+      <c r="V24">
         <v>1.875</v>
       </c>
-      <c r="V24">
-        <v>1.925</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6884061</v>
+        <v>6884060</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,58 +2675,58 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L25">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
       <c r="P25">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2735,13 +2735,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6884060</v>
+        <v>6884061</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,58 +2764,58 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2824,13 +2824,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -2942,7 +2942,7 @@
         <v>45157.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7068814</v>
+        <v>6878160</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,73 +3120,73 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>1.75</v>
+      </c>
+      <c r="L30">
+        <v>3.6</v>
+      </c>
+      <c r="M30">
+        <v>3.75</v>
+      </c>
+      <c r="N30">
+        <v>2.15</v>
+      </c>
+      <c r="O30">
+        <v>3.75</v>
+      </c>
+      <c r="P30">
+        <v>3.2</v>
+      </c>
+      <c r="Q30">
+        <v>-0.25</v>
+      </c>
+      <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.9</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.8</v>
+      </c>
+      <c r="V30">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30">
-        <v>1.571</v>
-      </c>
-      <c r="L30">
-        <v>3.75</v>
-      </c>
-      <c r="M30">
-        <v>4.8</v>
-      </c>
-      <c r="N30">
-        <v>2.5</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>2.6</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>1.85</v>
-      </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
-      <c r="V30">
-        <v>1.8</v>
-      </c>
       <c r="W30">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6883793</v>
+        <v>7068814</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
+        <v>4.8</v>
+      </c>
+      <c r="N31">
         <v>2.5</v>
       </c>
-      <c r="N31">
-        <v>2.2</v>
-      </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>1.85</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
         <v>2</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.8</v>
       </c>
-      <c r="T31">
-        <v>3.5</v>
-      </c>
-      <c r="U31">
-        <v>1.9</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6878160</v>
+        <v>6883793</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45158.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
       </c>
       <c r="K32">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L32">
         <v>3.6</v>
       </c>
       <c r="M32">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N32">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
+        <v>3.5</v>
+      </c>
+      <c r="U32">
         <v>1.9</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.9</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.8</v>
-      </c>
-      <c r="V32">
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
         <v>2</v>
       </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>2.2</v>
-      </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.8</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB32">
-        <v>0.8</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>45164.4375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6884158</v>
+        <v>6883850</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,73 +3476,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>4</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N34">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3565,7 +3565,7 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6883850</v>
+        <v>6884158</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45164.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6884051</v>
+        <v>6878161</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,10 +3832,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3847,41 +3847,41 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>1.8</v>
+      </c>
+      <c r="O38">
         <v>4</v>
       </c>
-      <c r="M38">
-        <v>1.5</v>
-      </c>
-      <c r="N38">
-        <v>4.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
+        <v>1.825</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="S38">
-        <v>1.95</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>1.925</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
@@ -3889,19 +3889,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6878161</v>
+        <v>6884051</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3936,40 +3936,40 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N39">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3978,19 +3978,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.2</v>
+        <v>0.75</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4277,10 +4277,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6883450</v>
+        <v>6884159</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,73 +4455,73 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
+        <v>2.75</v>
+      </c>
+      <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
         <v>2.25</v>
       </c>
-      <c r="L45">
-        <v>3.3</v>
-      </c>
-      <c r="M45">
-        <v>2.75</v>
-      </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z45">
         <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6884159</v>
+        <v>6883450</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
+        <v>2.25</v>
+      </c>
+      <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
         <v>2.75</v>
       </c>
-      <c r="L46">
+      <c r="N46">
+        <v>2.375</v>
+      </c>
+      <c r="O46">
         <v>3.5</v>
       </c>
-      <c r="M46">
-        <v>2.25</v>
-      </c>
-      <c r="N46">
-        <v>4.333</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
       <c r="P46">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4633,7 +4633,7 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6884063</v>
+        <v>6883452</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>2.625</v>
+      </c>
+      <c r="L48">
+        <v>3.3</v>
+      </c>
+      <c r="M48">
+        <v>2.3</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.7</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48">
-        <v>1.533</v>
-      </c>
-      <c r="L48">
-        <v>4</v>
-      </c>
-      <c r="M48">
-        <v>4.8</v>
-      </c>
-      <c r="N48">
-        <v>1.5</v>
-      </c>
-      <c r="O48">
-        <v>4.5</v>
-      </c>
-      <c r="P48">
-        <v>6</v>
-      </c>
-      <c r="Q48">
-        <v>-1.25</v>
-      </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,10 +4811,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6883452</v>
+        <v>6884063</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50">
+        <v>1.533</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>4.8</v>
+      </c>
+      <c r="N50">
+        <v>1.5</v>
+      </c>
+      <c r="O50">
+        <v>4.5</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>-1.25</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>1.8</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>0.5</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50">
-        <v>2.625</v>
-      </c>
-      <c r="L50">
-        <v>3.3</v>
-      </c>
-      <c r="M50">
-        <v>2.3</v>
-      </c>
-      <c r="N50">
-        <v>2.7</v>
-      </c>
-      <c r="O50">
-        <v>3.2</v>
-      </c>
-      <c r="P50">
-        <v>2.7</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>1.9</v>
-      </c>
-      <c r="S50">
-        <v>1.9</v>
-      </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
-      <c r="U50">
-        <v>1.925</v>
-      </c>
-      <c r="V50">
-        <v>1.875</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
-      <c r="X50">
-        <v>2.2</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6884566</v>
+        <v>6878163</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6878163</v>
+        <v>6884566</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45179.22916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
         <v>3.6</v>
       </c>
       <c r="M53">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N53">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O53">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5612,10 +5612,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5701,10 +5701,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5790,7 +5790,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6878164</v>
+        <v>6883852</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z62">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6883852</v>
+        <v>6883456</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
+        <v>4.2</v>
+      </c>
+      <c r="N63">
+        <v>1.533</v>
+      </c>
+      <c r="O63">
+        <v>4.2</v>
+      </c>
+      <c r="P63">
+        <v>6.5</v>
+      </c>
+      <c r="Q63">
+        <v>-1</v>
+      </c>
+      <c r="R63">
         <v>1.85</v>
       </c>
-      <c r="N63">
-        <v>3.75</v>
-      </c>
-      <c r="O63">
-        <v>3.75</v>
-      </c>
-      <c r="P63">
-        <v>1.909</v>
-      </c>
-      <c r="Q63">
-        <v>0.5</v>
-      </c>
-      <c r="R63">
+      <c r="S63">
+        <v>1.95</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
         <v>1.9</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.9</v>
       </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA63">
+        <v>-0</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6883456</v>
+        <v>6883455</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,34 +6161,34 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
